--- a/BackTest/2020-01-20 BackTest DASH.xlsx
+++ b/BackTest/2020-01-20 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M317"/>
+  <dimension ref="A1:M318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>115500</v>
+        <v>114700</v>
       </c>
       <c r="C2" t="n">
-        <v>115500</v>
+        <v>114700</v>
       </c>
       <c r="D2" t="n">
-        <v>115500</v>
+        <v>114700</v>
       </c>
       <c r="E2" t="n">
-        <v>115500</v>
+        <v>114700</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0044</v>
+        <v>1.3772</v>
       </c>
       <c r="G2" t="n">
-        <v>115245</v>
+        <v>115218.3333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>115500</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8529</v>
+        <v>0.0044</v>
       </c>
       <c r="G3" t="n">
-        <v>115260</v>
+        <v>115245</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>115900</v>
+        <v>115500</v>
       </c>
       <c r="C4" t="n">
-        <v>115900</v>
+        <v>115500</v>
       </c>
       <c r="D4" t="n">
-        <v>115900</v>
+        <v>115500</v>
       </c>
       <c r="E4" t="n">
-        <v>115900</v>
+        <v>115500</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8734</v>
+        <v>1.8529</v>
       </c>
       <c r="G4" t="n">
-        <v>115288.3333333333</v>
+        <v>115260</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>116500</v>
+        <v>115900</v>
       </c>
       <c r="C5" t="n">
-        <v>116500</v>
+        <v>115900</v>
       </c>
       <c r="D5" t="n">
-        <v>116500</v>
+        <v>115900</v>
       </c>
       <c r="E5" t="n">
-        <v>116500</v>
+        <v>115900</v>
       </c>
       <c r="F5" t="n">
-        <v>6.0566</v>
+        <v>0.8734</v>
       </c>
       <c r="G5" t="n">
-        <v>115296.6666666667</v>
+        <v>115288.3333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>116500</v>
       </c>
       <c r="F6" t="n">
-        <v>5.8192</v>
+        <v>6.0566</v>
       </c>
       <c r="G6" t="n">
-        <v>115335</v>
+        <v>115296.6666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>116000</v>
+        <v>116500</v>
       </c>
       <c r="C7" t="n">
-        <v>116000</v>
+        <v>116500</v>
       </c>
       <c r="D7" t="n">
-        <v>116000</v>
+        <v>116500</v>
       </c>
       <c r="E7" t="n">
-        <v>116000</v>
+        <v>116500</v>
       </c>
       <c r="F7" t="n">
-        <v>9.8081</v>
+        <v>5.8192</v>
       </c>
       <c r="G7" t="n">
-        <v>115350</v>
+        <v>115335</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>116100</v>
+        <v>116000</v>
       </c>
       <c r="C8" t="n">
         <v>116000</v>
       </c>
       <c r="D8" t="n">
-        <v>116100</v>
+        <v>116000</v>
       </c>
       <c r="E8" t="n">
         <v>116000</v>
       </c>
       <c r="F8" t="n">
-        <v>131.307</v>
+        <v>9.8081</v>
       </c>
       <c r="G8" t="n">
-        <v>115368.3333333333</v>
+        <v>115350</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>115800</v>
+        <v>116100</v>
       </c>
       <c r="C9" t="n">
-        <v>115800</v>
+        <v>116000</v>
       </c>
       <c r="D9" t="n">
-        <v>115800</v>
+        <v>116100</v>
       </c>
       <c r="E9" t="n">
-        <v>115800</v>
+        <v>116000</v>
       </c>
       <c r="F9" t="n">
-        <v>0.011</v>
+        <v>131.307</v>
       </c>
       <c r="G9" t="n">
-        <v>115423.3333333333</v>
+        <v>115368.3333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115700</v>
+        <v>115800</v>
       </c>
       <c r="C10" t="n">
-        <v>115700</v>
+        <v>115800</v>
       </c>
       <c r="D10" t="n">
-        <v>115700</v>
+        <v>115800</v>
       </c>
       <c r="E10" t="n">
-        <v>115700</v>
+        <v>115800</v>
       </c>
       <c r="F10" t="n">
-        <v>34.2511</v>
+        <v>0.011</v>
       </c>
       <c r="G10" t="n">
-        <v>115443.3333333333</v>
+        <v>115423.3333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>115000</v>
+        <v>115700</v>
       </c>
       <c r="C11" t="n">
-        <v>114700</v>
+        <v>115700</v>
       </c>
       <c r="D11" t="n">
-        <v>115000</v>
+        <v>115700</v>
       </c>
       <c r="E11" t="n">
-        <v>114700</v>
+        <v>115700</v>
       </c>
       <c r="F11" t="n">
-        <v>84.7734</v>
+        <v>34.2511</v>
       </c>
       <c r="G11" t="n">
-        <v>115465</v>
+        <v>115443.3333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>114700</v>
       </c>
       <c r="F12" t="n">
-        <v>43.2087</v>
+        <v>84.7734</v>
       </c>
       <c r="G12" t="n">
-        <v>115476.6666666667</v>
+        <v>115465</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>115000</v>
+      </c>
+      <c r="C13" t="n">
         <v>114700</v>
       </c>
-      <c r="C13" t="n">
-        <v>114600</v>
-      </c>
       <c r="D13" t="n">
+        <v>115000</v>
+      </c>
+      <c r="E13" t="n">
         <v>114700</v>
       </c>
-      <c r="E13" t="n">
-        <v>114600</v>
-      </c>
       <c r="F13" t="n">
-        <v>82.4072</v>
+        <v>43.2087</v>
       </c>
       <c r="G13" t="n">
-        <v>115490</v>
+        <v>115476.6666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114600</v>
+        <v>114700</v>
       </c>
       <c r="C14" t="n">
         <v>114600</v>
       </c>
       <c r="D14" t="n">
-        <v>114600</v>
+        <v>114700</v>
       </c>
       <c r="E14" t="n">
         <v>114600</v>
       </c>
       <c r="F14" t="n">
-        <v>1.2859</v>
+        <v>82.4072</v>
       </c>
       <c r="G14" t="n">
-        <v>115478.3333333333</v>
+        <v>115490</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,19 +888,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114200</v>
+        <v>114600</v>
       </c>
       <c r="C15" t="n">
-        <v>114200</v>
+        <v>114600</v>
       </c>
       <c r="D15" t="n">
-        <v>114200</v>
+        <v>114600</v>
       </c>
       <c r="E15" t="n">
-        <v>114200</v>
+        <v>114600</v>
       </c>
       <c r="F15" t="n">
-        <v>13.2361</v>
+        <v>1.2859</v>
       </c>
       <c r="G15" t="n">
         <v>115478.3333333333</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114600</v>
+        <v>114200</v>
       </c>
       <c r="C16" t="n">
-        <v>114600</v>
+        <v>114200</v>
       </c>
       <c r="D16" t="n">
-        <v>114600</v>
+        <v>114200</v>
       </c>
       <c r="E16" t="n">
-        <v>114600</v>
+        <v>114200</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0998</v>
+        <v>13.2361</v>
       </c>
       <c r="G16" t="n">
-        <v>115473.3333333333</v>
+        <v>115478.3333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>114300</v>
+        <v>114600</v>
       </c>
       <c r="C17" t="n">
-        <v>115100</v>
+        <v>114600</v>
       </c>
       <c r="D17" t="n">
-        <v>115100</v>
+        <v>114600</v>
       </c>
       <c r="E17" t="n">
-        <v>114300</v>
+        <v>114600</v>
       </c>
       <c r="F17" t="n">
-        <v>1.3332</v>
+        <v>0.0998</v>
       </c>
       <c r="G17" t="n">
-        <v>115480</v>
+        <v>115473.3333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>114600</v>
+        <v>114300</v>
       </c>
       <c r="C18" t="n">
-        <v>114600</v>
+        <v>115100</v>
       </c>
       <c r="D18" t="n">
-        <v>114600</v>
+        <v>115100</v>
       </c>
       <c r="E18" t="n">
-        <v>114600</v>
+        <v>114300</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6344</v>
+        <v>1.3332</v>
       </c>
       <c r="G18" t="n">
         <v>115480</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>115000</v>
+        <v>114600</v>
       </c>
       <c r="C19" t="n">
-        <v>115000</v>
+        <v>114600</v>
       </c>
       <c r="D19" t="n">
-        <v>115000</v>
+        <v>114600</v>
       </c>
       <c r="E19" t="n">
-        <v>115000</v>
+        <v>114600</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7</v>
+        <v>0.6344</v>
       </c>
       <c r="G19" t="n">
-        <v>115475</v>
+        <v>115480</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="C20" t="n">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="D20" t="n">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="E20" t="n">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="F20" t="n">
-        <v>9.1584</v>
+        <v>0.7</v>
       </c>
       <c r="G20" t="n">
-        <v>115470</v>
+        <v>115475</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>115400</v>
+        <v>114400</v>
       </c>
       <c r="C21" t="n">
-        <v>115400</v>
+        <v>114400</v>
       </c>
       <c r="D21" t="n">
-        <v>115400</v>
+        <v>114400</v>
       </c>
       <c r="E21" t="n">
-        <v>115400</v>
+        <v>114400</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0065</v>
+        <v>9.1584</v>
       </c>
       <c r="G21" t="n">
-        <v>115476.6666666667</v>
+        <v>115470</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>115000</v>
+        <v>115400</v>
       </c>
       <c r="C22" t="n">
-        <v>115200</v>
+        <v>115400</v>
       </c>
       <c r="D22" t="n">
-        <v>115200</v>
+        <v>115400</v>
       </c>
       <c r="E22" t="n">
-        <v>115000</v>
+        <v>115400</v>
       </c>
       <c r="F22" t="n">
-        <v>14.7952</v>
+        <v>0.0065</v>
       </c>
       <c r="G22" t="n">
-        <v>115473.3333333333</v>
+        <v>115476.6666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>115300</v>
+        <v>115000</v>
       </c>
       <c r="C23" t="n">
-        <v>115300</v>
+        <v>115200</v>
       </c>
       <c r="D23" t="n">
-        <v>115300</v>
+        <v>115200</v>
       </c>
       <c r="E23" t="n">
-        <v>115300</v>
+        <v>115000</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2608</v>
+        <v>14.7952</v>
       </c>
       <c r="G23" t="n">
-        <v>115453.3333333333</v>
+        <v>115473.3333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>115300</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0663</v>
+        <v>0.2608</v>
       </c>
       <c r="G24" t="n">
         <v>115453.3333333333</v>
@@ -1250,10 +1250,10 @@
         <v>115300</v>
       </c>
       <c r="F25" t="n">
-        <v>1.2495</v>
+        <v>0.0663</v>
       </c>
       <c r="G25" t="n">
-        <v>115428.3333333333</v>
+        <v>115453.3333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>115300</v>
       </c>
       <c r="F26" t="n">
-        <v>2.5466</v>
+        <v>1.2495</v>
       </c>
       <c r="G26" t="n">
-        <v>115400</v>
+        <v>115428.3333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>115300</v>
       </c>
       <c r="F27" t="n">
-        <v>4.0375</v>
+        <v>2.5466</v>
       </c>
       <c r="G27" t="n">
-        <v>115371.6666666667</v>
+        <v>115400</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>115100</v>
+        <v>115300</v>
       </c>
       <c r="C28" t="n">
-        <v>115100</v>
+        <v>115300</v>
       </c>
       <c r="D28" t="n">
-        <v>115100</v>
+        <v>115300</v>
       </c>
       <c r="E28" t="n">
-        <v>115100</v>
+        <v>115300</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0867</v>
+        <v>4.0375</v>
       </c>
       <c r="G28" t="n">
-        <v>115340</v>
+        <v>115371.6666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>114300</v>
+        <v>115100</v>
       </c>
       <c r="C29" t="n">
-        <v>114200</v>
+        <v>115100</v>
       </c>
       <c r="D29" t="n">
-        <v>114300</v>
+        <v>115100</v>
       </c>
       <c r="E29" t="n">
-        <v>114200</v>
+        <v>115100</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>0.0867</v>
       </c>
       <c r="G29" t="n">
-        <v>115295</v>
+        <v>115340</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>114100</v>
+        <v>114300</v>
       </c>
       <c r="C30" t="n">
-        <v>114000</v>
+        <v>114200</v>
       </c>
       <c r="D30" t="n">
-        <v>114100</v>
+        <v>114300</v>
       </c>
       <c r="E30" t="n">
-        <v>114000</v>
+        <v>114200</v>
       </c>
       <c r="F30" t="n">
-        <v>1.2943</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>115240</v>
+        <v>115295</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>113700</v>
+        <v>114100</v>
       </c>
       <c r="C31" t="n">
-        <v>113400</v>
+        <v>114000</v>
       </c>
       <c r="D31" t="n">
-        <v>113700</v>
+        <v>114100</v>
       </c>
       <c r="E31" t="n">
-        <v>113400</v>
+        <v>114000</v>
       </c>
       <c r="F31" t="n">
-        <v>13.8176</v>
+        <v>1.2943</v>
       </c>
       <c r="G31" t="n">
-        <v>115168.3333333333</v>
+        <v>115240</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>113300</v>
+        <v>113700</v>
       </c>
       <c r="C32" t="n">
-        <v>113300</v>
+        <v>113400</v>
       </c>
       <c r="D32" t="n">
-        <v>113300</v>
+        <v>113700</v>
       </c>
       <c r="E32" t="n">
-        <v>113300</v>
+        <v>113400</v>
       </c>
       <c r="F32" t="n">
-        <v>25.0656</v>
+        <v>13.8176</v>
       </c>
       <c r="G32" t="n">
-        <v>115111.6666666667</v>
+        <v>115168.3333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>113200</v>
+        <v>113300</v>
       </c>
       <c r="C33" t="n">
-        <v>113600</v>
+        <v>113300</v>
       </c>
       <c r="D33" t="n">
-        <v>113600</v>
+        <v>113300</v>
       </c>
       <c r="E33" t="n">
-        <v>113200</v>
+        <v>113300</v>
       </c>
       <c r="F33" t="n">
-        <v>17.4032</v>
+        <v>25.0656</v>
       </c>
       <c r="G33" t="n">
-        <v>115058.3333333333</v>
+        <v>115111.6666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>113100</v>
+        <v>113200</v>
       </c>
       <c r="C34" t="n">
-        <v>112500</v>
+        <v>113600</v>
       </c>
       <c r="D34" t="n">
-        <v>113100</v>
+        <v>113600</v>
       </c>
       <c r="E34" t="n">
-        <v>112500</v>
+        <v>113200</v>
       </c>
       <c r="F34" t="n">
-        <v>1.6046</v>
+        <v>17.4032</v>
       </c>
       <c r="G34" t="n">
-        <v>114971.6666666667</v>
+        <v>115058.3333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>113100</v>
+      </c>
+      <c r="C35" t="n">
         <v>112500</v>
       </c>
-      <c r="C35" t="n">
-        <v>111300</v>
-      </c>
       <c r="D35" t="n">
+        <v>113100</v>
+      </c>
+      <c r="E35" t="n">
         <v>112500</v>
       </c>
-      <c r="E35" t="n">
-        <v>111300</v>
-      </c>
       <c r="F35" t="n">
-        <v>6.4505</v>
+        <v>1.6046</v>
       </c>
       <c r="G35" t="n">
-        <v>114875</v>
+        <v>114971.6666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>112500</v>
+      </c>
+      <c r="C36" t="n">
         <v>111300</v>
       </c>
-      <c r="C36" t="n">
-        <v>111500</v>
-      </c>
       <c r="D36" t="n">
-        <v>111500</v>
+        <v>112500</v>
       </c>
       <c r="E36" t="n">
         <v>111300</v>
       </c>
       <c r="F36" t="n">
-        <v>2.2584</v>
+        <v>6.4505</v>
       </c>
       <c r="G36" t="n">
-        <v>114791.6666666667</v>
+        <v>114875</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>111600</v>
+        <v>111300</v>
       </c>
       <c r="C37" t="n">
-        <v>111800</v>
+        <v>111500</v>
       </c>
       <c r="D37" t="n">
-        <v>111800</v>
+        <v>111500</v>
       </c>
       <c r="E37" t="n">
-        <v>111600</v>
+        <v>111300</v>
       </c>
       <c r="F37" t="n">
-        <v>12.3379</v>
+        <v>2.2584</v>
       </c>
       <c r="G37" t="n">
-        <v>114701.6666666667</v>
+        <v>114791.6666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>112100</v>
+        <v>111600</v>
       </c>
       <c r="C38" t="n">
-        <v>111300</v>
+        <v>111800</v>
       </c>
       <c r="D38" t="n">
-        <v>112100</v>
+        <v>111800</v>
       </c>
       <c r="E38" t="n">
-        <v>111300</v>
+        <v>111600</v>
       </c>
       <c r="F38" t="n">
-        <v>3.8757</v>
+        <v>12.3379</v>
       </c>
       <c r="G38" t="n">
-        <v>114606.6666666667</v>
+        <v>114701.6666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>111800</v>
+        <v>112100</v>
       </c>
       <c r="C39" t="n">
-        <v>111800</v>
+        <v>111300</v>
       </c>
       <c r="D39" t="n">
-        <v>111800</v>
+        <v>112100</v>
       </c>
       <c r="E39" t="n">
-        <v>111800</v>
+        <v>111300</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0895</v>
+        <v>3.8757</v>
       </c>
       <c r="G39" t="n">
-        <v>114543.3333333333</v>
+        <v>114606.6666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>111200</v>
+        <v>111800</v>
       </c>
       <c r="C40" t="n">
-        <v>111200</v>
+        <v>111800</v>
       </c>
       <c r="D40" t="n">
-        <v>111200</v>
+        <v>111800</v>
       </c>
       <c r="E40" t="n">
-        <v>111200</v>
+        <v>111800</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0504</v>
+        <v>0.0895</v>
       </c>
       <c r="G40" t="n">
-        <v>114468.3333333333</v>
+        <v>114543.3333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>111700</v>
+        <v>111200</v>
       </c>
       <c r="C41" t="n">
-        <v>112200</v>
+        <v>111200</v>
       </c>
       <c r="D41" t="n">
-        <v>112200</v>
+        <v>111200</v>
       </c>
       <c r="E41" t="n">
-        <v>111700</v>
+        <v>111200</v>
       </c>
       <c r="F41" t="n">
-        <v>24.9848</v>
+        <v>2.0504</v>
       </c>
       <c r="G41" t="n">
-        <v>114403.3333333333</v>
+        <v>114468.3333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>112500</v>
+        <v>111700</v>
       </c>
       <c r="C42" t="n">
-        <v>112500</v>
+        <v>112200</v>
       </c>
       <c r="D42" t="n">
-        <v>112500</v>
+        <v>112200</v>
       </c>
       <c r="E42" t="n">
-        <v>112500</v>
+        <v>111700</v>
       </c>
       <c r="F42" t="n">
-        <v>30.0889</v>
+        <v>24.9848</v>
       </c>
       <c r="G42" t="n">
-        <v>114368.3333333333</v>
+        <v>114403.3333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>113700</v>
+        <v>112500</v>
       </c>
       <c r="C43" t="n">
-        <v>113900</v>
+        <v>112500</v>
       </c>
       <c r="D43" t="n">
-        <v>113900</v>
+        <v>112500</v>
       </c>
       <c r="E43" t="n">
-        <v>113700</v>
+        <v>112500</v>
       </c>
       <c r="F43" t="n">
-        <v>0.92</v>
+        <v>30.0889</v>
       </c>
       <c r="G43" t="n">
-        <v>114353.3333333333</v>
+        <v>114368.3333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>113000</v>
+        <v>113700</v>
       </c>
       <c r="C44" t="n">
-        <v>113000</v>
+        <v>113900</v>
       </c>
       <c r="D44" t="n">
-        <v>113000</v>
+        <v>113900</v>
       </c>
       <c r="E44" t="n">
-        <v>113000</v>
+        <v>113700</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1405</v>
+        <v>0.92</v>
       </c>
       <c r="G44" t="n">
-        <v>114315</v>
+        <v>114353.3333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>112900</v>
+        <v>113000</v>
       </c>
       <c r="C45" t="n">
-        <v>112900</v>
+        <v>113000</v>
       </c>
       <c r="D45" t="n">
-        <v>112900</v>
+        <v>113000</v>
       </c>
       <c r="E45" t="n">
-        <v>112900</v>
+        <v>113000</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0522</v>
+        <v>0.1405</v>
       </c>
       <c r="G45" t="n">
-        <v>114260</v>
+        <v>114315</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>113600</v>
+        <v>112900</v>
       </c>
       <c r="C46" t="n">
-        <v>113600</v>
+        <v>112900</v>
       </c>
       <c r="D46" t="n">
-        <v>113600</v>
+        <v>112900</v>
       </c>
       <c r="E46" t="n">
-        <v>113600</v>
+        <v>112900</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0923</v>
+        <v>0.0522</v>
       </c>
       <c r="G46" t="n">
-        <v>114246.6666666667</v>
+        <v>114260</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>113600</v>
       </c>
       <c r="C47" t="n">
-        <v>113100</v>
+        <v>113600</v>
       </c>
       <c r="D47" t="n">
         <v>113600</v>
       </c>
       <c r="E47" t="n">
-        <v>113100</v>
+        <v>113600</v>
       </c>
       <c r="F47" t="n">
-        <v>2.2021</v>
+        <v>1.0923</v>
       </c>
       <c r="G47" t="n">
-        <v>114228.3333333333</v>
+        <v>114246.6666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>113100</v>
+        <v>113600</v>
       </c>
       <c r="C48" t="n">
         <v>113100</v>
       </c>
       <c r="D48" t="n">
-        <v>113100</v>
+        <v>113600</v>
       </c>
       <c r="E48" t="n">
         <v>113100</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3889</v>
+        <v>2.2021</v>
       </c>
       <c r="G48" t="n">
-        <v>114218.3333333333</v>
+        <v>114228.3333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>112600</v>
+        <v>113100</v>
       </c>
       <c r="C49" t="n">
-        <v>113200</v>
+        <v>113100</v>
       </c>
       <c r="D49" t="n">
-        <v>113200</v>
+        <v>113100</v>
       </c>
       <c r="E49" t="n">
-        <v>112600</v>
+        <v>113100</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0929</v>
+        <v>0.3889</v>
       </c>
       <c r="G49" t="n">
-        <v>114210</v>
+        <v>114218.3333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>113200</v>
+        <v>112600</v>
       </c>
       <c r="C50" t="n">
         <v>113200</v>
@@ -2122,13 +2122,13 @@
         <v>113200</v>
       </c>
       <c r="E50" t="n">
-        <v>113200</v>
+        <v>112600</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08840000000000001</v>
+        <v>0.0929</v>
       </c>
       <c r="G50" t="n">
-        <v>114201.6666666667</v>
+        <v>114210</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>113200</v>
       </c>
       <c r="F51" t="n">
-        <v>0.44169611</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>114193.3333333333</v>
+        <v>114201.6666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>112100</v>
+        <v>113200</v>
       </c>
       <c r="C52" t="n">
-        <v>112100</v>
+        <v>113200</v>
       </c>
       <c r="D52" t="n">
-        <v>112100</v>
+        <v>113200</v>
       </c>
       <c r="E52" t="n">
-        <v>112100</v>
+        <v>113200</v>
       </c>
       <c r="F52" t="n">
-        <v>2.67442462</v>
+        <v>0.44169611</v>
       </c>
       <c r="G52" t="n">
-        <v>114166.6666666667</v>
+        <v>114193.3333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>111000</v>
+        <v>112100</v>
       </c>
       <c r="C53" t="n">
-        <v>111000</v>
+        <v>112100</v>
       </c>
       <c r="D53" t="n">
-        <v>111000</v>
+        <v>112100</v>
       </c>
       <c r="E53" t="n">
-        <v>111000</v>
+        <v>112100</v>
       </c>
       <c r="F53" t="n">
-        <v>1.5009</v>
+        <v>2.67442462</v>
       </c>
       <c r="G53" t="n">
-        <v>114116.6666666667</v>
+        <v>114166.6666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>111000</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0001</v>
+        <v>1.5009</v>
       </c>
       <c r="G54" t="n">
-        <v>114056.6666666667</v>
+        <v>114116.6666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>110400</v>
+        <v>111000</v>
       </c>
       <c r="C55" t="n">
-        <v>110400</v>
+        <v>111000</v>
       </c>
       <c r="D55" t="n">
-        <v>110400</v>
+        <v>111000</v>
       </c>
       <c r="E55" t="n">
-        <v>110400</v>
+        <v>111000</v>
       </c>
       <c r="F55" t="n">
-        <v>2.8218</v>
+        <v>0.0001</v>
       </c>
       <c r="G55" t="n">
-        <v>113993.3333333333</v>
+        <v>114056.6666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>110200</v>
+        <v>110400</v>
       </c>
       <c r="C56" t="n">
-        <v>110200</v>
+        <v>110400</v>
       </c>
       <c r="D56" t="n">
-        <v>110200</v>
+        <v>110400</v>
       </c>
       <c r="E56" t="n">
-        <v>110200</v>
+        <v>110400</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9999</v>
+        <v>2.8218</v>
       </c>
       <c r="G56" t="n">
-        <v>113913.3333333333</v>
+        <v>113993.3333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>110400</v>
+        <v>110200</v>
       </c>
       <c r="C57" t="n">
-        <v>110400</v>
+        <v>110200</v>
       </c>
       <c r="D57" t="n">
-        <v>110400</v>
+        <v>110200</v>
       </c>
       <c r="E57" t="n">
-        <v>110400</v>
+        <v>110200</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0176</v>
+        <v>0.9999</v>
       </c>
       <c r="G57" t="n">
-        <v>113836.6666666667</v>
+        <v>113913.3333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>110700</v>
+        <v>110400</v>
       </c>
       <c r="C58" t="n">
-        <v>110700</v>
+        <v>110400</v>
       </c>
       <c r="D58" t="n">
-        <v>110700</v>
+        <v>110400</v>
       </c>
       <c r="E58" t="n">
-        <v>110700</v>
+        <v>110400</v>
       </c>
       <c r="F58" t="n">
-        <v>6.4149</v>
+        <v>0.0176</v>
       </c>
       <c r="G58" t="n">
-        <v>113768.3333333333</v>
+        <v>113836.6666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>112500</v>
+        <v>110700</v>
       </c>
       <c r="C59" t="n">
-        <v>112500</v>
+        <v>110700</v>
       </c>
       <c r="D59" t="n">
-        <v>112500</v>
+        <v>110700</v>
       </c>
       <c r="E59" t="n">
-        <v>112500</v>
+        <v>110700</v>
       </c>
       <c r="F59" t="n">
-        <v>13.41</v>
+        <v>6.4149</v>
       </c>
       <c r="G59" t="n">
-        <v>113731.6666666667</v>
+        <v>113768.3333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>113200</v>
+        <v>112500</v>
       </c>
       <c r="C60" t="n">
-        <v>113300</v>
+        <v>112500</v>
       </c>
       <c r="D60" t="n">
-        <v>113300</v>
+        <v>112500</v>
       </c>
       <c r="E60" t="n">
-        <v>113200</v>
+        <v>112500</v>
       </c>
       <c r="F60" t="n">
-        <v>6.052</v>
+        <v>13.41</v>
       </c>
       <c r="G60" t="n">
-        <v>113703.3333333333</v>
+        <v>113731.6666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>114000</v>
+        <v>113200</v>
       </c>
       <c r="C61" t="n">
-        <v>114100</v>
+        <v>113300</v>
       </c>
       <c r="D61" t="n">
-        <v>114100</v>
+        <v>113300</v>
       </c>
       <c r="E61" t="n">
-        <v>114000</v>
+        <v>113200</v>
       </c>
       <c r="F61" t="n">
-        <v>11.3</v>
+        <v>6.052</v>
       </c>
       <c r="G61" t="n">
-        <v>113693.3333333333</v>
+        <v>113703.3333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C62" t="n">
         <v>114100</v>
       </c>
-      <c r="C62" t="n">
-        <v>114600</v>
-      </c>
       <c r="D62" t="n">
-        <v>114600</v>
+        <v>114100</v>
       </c>
       <c r="E62" t="n">
-        <v>114100</v>
+        <v>114000</v>
       </c>
       <c r="F62" t="n">
-        <v>2.1205</v>
+        <v>11.3</v>
       </c>
       <c r="G62" t="n">
-        <v>113678.3333333333</v>
+        <v>113693.3333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>114600</v>
+        <v>114100</v>
       </c>
       <c r="C63" t="n">
         <v>114600</v>
@@ -2577,13 +2577,13 @@
         <v>114600</v>
       </c>
       <c r="E63" t="n">
-        <v>114600</v>
+        <v>114100</v>
       </c>
       <c r="F63" t="n">
-        <v>2.3239</v>
+        <v>2.1205</v>
       </c>
       <c r="G63" t="n">
-        <v>113663.3333333333</v>
+        <v>113678.3333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>114800</v>
+        <v>114600</v>
       </c>
       <c r="C64" t="n">
-        <v>114800</v>
+        <v>114600</v>
       </c>
       <c r="D64" t="n">
-        <v>114800</v>
+        <v>114600</v>
       </c>
       <c r="E64" t="n">
-        <v>114800</v>
+        <v>114600</v>
       </c>
       <c r="F64" t="n">
-        <v>0.18</v>
+        <v>2.3239</v>
       </c>
       <c r="G64" t="n">
-        <v>113645</v>
+        <v>113663.3333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>114000</v>
+        <v>114800</v>
       </c>
       <c r="C65" t="n">
-        <v>115200</v>
+        <v>114800</v>
       </c>
       <c r="D65" t="n">
-        <v>115200</v>
+        <v>114800</v>
       </c>
       <c r="E65" t="n">
-        <v>114000</v>
+        <v>114800</v>
       </c>
       <c r="F65" t="n">
-        <v>9.303699999999999</v>
+        <v>0.18</v>
       </c>
       <c r="G65" t="n">
-        <v>113623.3333333333</v>
+        <v>113645</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>115500</v>
+        <v>114000</v>
       </c>
       <c r="C66" t="n">
-        <v>116700</v>
+        <v>115200</v>
       </c>
       <c r="D66" t="n">
-        <v>116700</v>
+        <v>115200</v>
       </c>
       <c r="E66" t="n">
-        <v>115500</v>
+        <v>114000</v>
       </c>
       <c r="F66" t="n">
-        <v>19.3192</v>
+        <v>9.303699999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>113626.6666666667</v>
+        <v>113623.3333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>116800</v>
+        <v>115500</v>
       </c>
       <c r="C67" t="n">
-        <v>116800</v>
+        <v>116700</v>
       </c>
       <c r="D67" t="n">
-        <v>116800</v>
+        <v>116700</v>
       </c>
       <c r="E67" t="n">
-        <v>116800</v>
+        <v>115500</v>
       </c>
       <c r="F67" t="n">
-        <v>2.0543</v>
+        <v>19.3192</v>
       </c>
       <c r="G67" t="n">
-        <v>113640</v>
+        <v>113626.6666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>116800</v>
       </c>
       <c r="C68" t="n">
-        <v>117800</v>
+        <v>116800</v>
       </c>
       <c r="D68" t="n">
-        <v>117800</v>
+        <v>116800</v>
       </c>
       <c r="E68" t="n">
         <v>116800</v>
       </c>
       <c r="F68" t="n">
-        <v>6.854</v>
+        <v>2.0543</v>
       </c>
       <c r="G68" t="n">
-        <v>113670</v>
+        <v>113640</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>116600</v>
+        <v>116800</v>
       </c>
       <c r="C69" t="n">
-        <v>116600</v>
+        <v>117800</v>
       </c>
       <c r="D69" t="n">
-        <v>116600</v>
+        <v>117800</v>
       </c>
       <c r="E69" t="n">
-        <v>116600</v>
+        <v>116800</v>
       </c>
       <c r="F69" t="n">
-        <v>0.4162</v>
+        <v>6.854</v>
       </c>
       <c r="G69" t="n">
-        <v>113683.3333333333</v>
+        <v>113670</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,28 +2813,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>117300</v>
+        <v>116600</v>
       </c>
       <c r="C70" t="n">
         <v>116600</v>
       </c>
       <c r="D70" t="n">
-        <v>117300</v>
+        <v>116600</v>
       </c>
       <c r="E70" t="n">
         <v>116600</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8168</v>
+        <v>0.4162</v>
       </c>
       <c r="G70" t="n">
-        <v>113698.3333333333</v>
+        <v>113683.3333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2848,28 +2848,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>116200</v>
+        <v>117300</v>
       </c>
       <c r="C71" t="n">
-        <v>116200</v>
+        <v>116600</v>
       </c>
       <c r="D71" t="n">
-        <v>116200</v>
+        <v>117300</v>
       </c>
       <c r="E71" t="n">
-        <v>116200</v>
+        <v>116600</v>
       </c>
       <c r="F71" t="n">
-        <v>2.44</v>
+        <v>0.8168</v>
       </c>
       <c r="G71" t="n">
-        <v>113723.3333333333</v>
+        <v>113698.3333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2883,28 +2883,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>116700</v>
+        <v>116200</v>
       </c>
       <c r="C72" t="n">
-        <v>116700</v>
+        <v>116200</v>
       </c>
       <c r="D72" t="n">
-        <v>116700</v>
+        <v>116200</v>
       </c>
       <c r="E72" t="n">
-        <v>116700</v>
+        <v>116200</v>
       </c>
       <c r="F72" t="n">
-        <v>6.725</v>
+        <v>2.44</v>
       </c>
       <c r="G72" t="n">
-        <v>113756.6666666667</v>
+        <v>113723.3333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2918,28 +2918,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>117100</v>
+        <v>116700</v>
       </c>
       <c r="C73" t="n">
-        <v>116900</v>
+        <v>116700</v>
       </c>
       <c r="D73" t="n">
-        <v>117100</v>
+        <v>116700</v>
       </c>
       <c r="E73" t="n">
-        <v>116900</v>
+        <v>116700</v>
       </c>
       <c r="F73" t="n">
-        <v>8.084300000000001</v>
+        <v>6.725</v>
       </c>
       <c r="G73" t="n">
-        <v>113795</v>
+        <v>113756.6666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2953,28 +2953,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>117000</v>
+        <v>117100</v>
       </c>
       <c r="C74" t="n">
         <v>116900</v>
       </c>
       <c r="D74" t="n">
-        <v>117000</v>
+        <v>117100</v>
       </c>
       <c r="E74" t="n">
         <v>116900</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0521</v>
+        <v>8.084300000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>113833.3333333333</v>
+        <v>113795</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2988,28 +2988,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>116900</v>
+        <v>117000</v>
       </c>
       <c r="C75" t="n">
         <v>116900</v>
       </c>
       <c r="D75" t="n">
-        <v>116900</v>
+        <v>117000</v>
       </c>
       <c r="E75" t="n">
         <v>116900</v>
       </c>
       <c r="F75" t="n">
-        <v>5.3583</v>
+        <v>0.0521</v>
       </c>
       <c r="G75" t="n">
-        <v>113878.3333333333</v>
+        <v>113833.3333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3023,28 +3023,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>117100</v>
+        <v>116900</v>
       </c>
       <c r="C76" t="n">
-        <v>117100</v>
+        <v>116900</v>
       </c>
       <c r="D76" t="n">
-        <v>117100</v>
+        <v>116900</v>
       </c>
       <c r="E76" t="n">
-        <v>117100</v>
+        <v>116900</v>
       </c>
       <c r="F76" t="n">
-        <v>4.5473</v>
+        <v>5.3583</v>
       </c>
       <c r="G76" t="n">
-        <v>113920</v>
+        <v>113878.3333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3058,28 +3058,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>117600</v>
+        <v>117100</v>
       </c>
       <c r="C77" t="n">
-        <v>117600</v>
+        <v>117100</v>
       </c>
       <c r="D77" t="n">
-        <v>117600</v>
+        <v>117100</v>
       </c>
       <c r="E77" t="n">
-        <v>117600</v>
+        <v>117100</v>
       </c>
       <c r="F77" t="n">
-        <v>1.10544217</v>
+        <v>4.5473</v>
       </c>
       <c r="G77" t="n">
-        <v>113961.6666666667</v>
+        <v>113920</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="C78" t="n">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="D78" t="n">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="E78" t="n">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="F78" t="n">
-        <v>1.2132</v>
+        <v>1.10544217</v>
       </c>
       <c r="G78" t="n">
-        <v>114010</v>
+        <v>113961.6666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>117000</v>
+        <v>117500</v>
       </c>
       <c r="C79" t="n">
-        <v>117000</v>
+        <v>117500</v>
       </c>
       <c r="D79" t="n">
-        <v>117000</v>
+        <v>117500</v>
       </c>
       <c r="E79" t="n">
-        <v>117000</v>
+        <v>117500</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0128</v>
+        <v>1.2132</v>
       </c>
       <c r="G79" t="n">
-        <v>114043.3333333333</v>
+        <v>114010</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>117600</v>
+        <v>117000</v>
       </c>
       <c r="C80" t="n">
-        <v>117800</v>
+        <v>117000</v>
       </c>
       <c r="D80" t="n">
-        <v>117800</v>
+        <v>117000</v>
       </c>
       <c r="E80" t="n">
-        <v>117600</v>
+        <v>117000</v>
       </c>
       <c r="F80" t="n">
-        <v>66.3558</v>
+        <v>0.0128</v>
       </c>
       <c r="G80" t="n">
-        <v>114100</v>
+        <v>114043.3333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>116700</v>
+        <v>117600</v>
       </c>
       <c r="C81" t="n">
-        <v>117900</v>
+        <v>117800</v>
       </c>
       <c r="D81" t="n">
-        <v>117900</v>
+        <v>117800</v>
       </c>
       <c r="E81" t="n">
-        <v>116700</v>
+        <v>117600</v>
       </c>
       <c r="F81" t="n">
-        <v>41.6153</v>
+        <v>66.3558</v>
       </c>
       <c r="G81" t="n">
-        <v>114141.6666666667</v>
+        <v>114100</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>116700</v>
+      </c>
+      <c r="C82" t="n">
         <v>117900</v>
       </c>
-      <c r="C82" t="n">
-        <v>118000</v>
-      </c>
       <c r="D82" t="n">
-        <v>118000</v>
+        <v>117900</v>
       </c>
       <c r="E82" t="n">
-        <v>117900</v>
+        <v>116700</v>
       </c>
       <c r="F82" t="n">
-        <v>76.78660000000001</v>
+        <v>41.6153</v>
       </c>
       <c r="G82" t="n">
-        <v>114188.3333333333</v>
+        <v>114141.6666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>118500</v>
+        <v>117900</v>
       </c>
       <c r="C83" t="n">
-        <v>118500</v>
+        <v>118000</v>
       </c>
       <c r="D83" t="n">
-        <v>118500</v>
+        <v>118000</v>
       </c>
       <c r="E83" t="n">
-        <v>118500</v>
+        <v>117900</v>
       </c>
       <c r="F83" t="n">
-        <v>4.5328</v>
+        <v>76.78660000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>114241.6666666667</v>
+        <v>114188.3333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>118600</v>
+        <v>118500</v>
       </c>
       <c r="C84" t="n">
-        <v>118600</v>
+        <v>118500</v>
       </c>
       <c r="D84" t="n">
-        <v>118600</v>
+        <v>118500</v>
       </c>
       <c r="E84" t="n">
-        <v>118600</v>
+        <v>118500</v>
       </c>
       <c r="F84" t="n">
-        <v>71.2402</v>
+        <v>4.5328</v>
       </c>
       <c r="G84" t="n">
-        <v>114296.6666666667</v>
+        <v>114241.6666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>118800</v>
+        <v>118600</v>
       </c>
       <c r="C85" t="n">
-        <v>117900</v>
+        <v>118600</v>
       </c>
       <c r="D85" t="n">
-        <v>118800</v>
+        <v>118600</v>
       </c>
       <c r="E85" t="n">
-        <v>117900</v>
+        <v>118600</v>
       </c>
       <c r="F85" t="n">
-        <v>10.6237</v>
+        <v>71.2402</v>
       </c>
       <c r="G85" t="n">
-        <v>114340</v>
+        <v>114296.6666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>118700</v>
+        <v>118800</v>
       </c>
       <c r="C86" t="n">
-        <v>118800</v>
+        <v>117900</v>
       </c>
       <c r="D86" t="n">
         <v>118800</v>
       </c>
       <c r="E86" t="n">
-        <v>118700</v>
+        <v>117900</v>
       </c>
       <c r="F86" t="n">
-        <v>1.2031</v>
+        <v>10.6237</v>
       </c>
       <c r="G86" t="n">
-        <v>114398.3333333333</v>
+        <v>114340</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>118300</v>
+        <v>118700</v>
       </c>
       <c r="C87" t="n">
-        <v>118200</v>
+        <v>118800</v>
       </c>
       <c r="D87" t="n">
-        <v>118300</v>
+        <v>118800</v>
       </c>
       <c r="E87" t="n">
-        <v>118200</v>
+        <v>118700</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5112</v>
+        <v>1.2031</v>
       </c>
       <c r="G87" t="n">
-        <v>114446.6666666667</v>
+        <v>114398.3333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>118300</v>
+      </c>
+      <c r="C88" t="n">
         <v>118200</v>
       </c>
-      <c r="C88" t="n">
-        <v>117700</v>
-      </c>
       <c r="D88" t="n">
+        <v>118300</v>
+      </c>
+      <c r="E88" t="n">
         <v>118200</v>
       </c>
-      <c r="E88" t="n">
-        <v>117700</v>
-      </c>
       <c r="F88" t="n">
-        <v>19.0096</v>
+        <v>0.5112</v>
       </c>
       <c r="G88" t="n">
-        <v>114490</v>
+        <v>114446.6666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>117400</v>
+        <v>118200</v>
       </c>
       <c r="C89" t="n">
-        <v>117300</v>
+        <v>117700</v>
       </c>
       <c r="D89" t="n">
+        <v>118200</v>
+      </c>
+      <c r="E89" t="n">
         <v>117700</v>
       </c>
-      <c r="E89" t="n">
-        <v>117100</v>
-      </c>
       <c r="F89" t="n">
-        <v>25.6294</v>
+        <v>19.0096</v>
       </c>
       <c r="G89" t="n">
-        <v>114541.6666666667</v>
+        <v>114490</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3516,19 @@
         <v>117400</v>
       </c>
       <c r="C90" t="n">
-        <v>116300</v>
+        <v>117300</v>
       </c>
       <c r="D90" t="n">
-        <v>117400</v>
+        <v>117700</v>
       </c>
       <c r="E90" t="n">
-        <v>116300</v>
+        <v>117100</v>
       </c>
       <c r="F90" t="n">
-        <v>30.5</v>
+        <v>25.6294</v>
       </c>
       <c r="G90" t="n">
-        <v>114580</v>
+        <v>114541.6666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>117200</v>
+        <v>117400</v>
       </c>
       <c r="C91" t="n">
-        <v>117200</v>
+        <v>116300</v>
       </c>
       <c r="D91" t="n">
-        <v>117200</v>
+        <v>117400</v>
       </c>
       <c r="E91" t="n">
-        <v>117200</v>
+        <v>116300</v>
       </c>
       <c r="F91" t="n">
-        <v>0.006</v>
+        <v>30.5</v>
       </c>
       <c r="G91" t="n">
-        <v>114643.3333333333</v>
+        <v>114580</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>117400</v>
+        <v>117200</v>
       </c>
       <c r="C92" t="n">
-        <v>118200</v>
+        <v>117200</v>
       </c>
       <c r="D92" t="n">
-        <v>118200</v>
+        <v>117200</v>
       </c>
       <c r="E92" t="n">
-        <v>117400</v>
+        <v>117200</v>
       </c>
       <c r="F92" t="n">
-        <v>33.5114</v>
+        <v>0.006</v>
       </c>
       <c r="G92" t="n">
-        <v>114725</v>
+        <v>114643.3333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>117500</v>
+        <v>117400</v>
       </c>
       <c r="C93" t="n">
-        <v>116500</v>
+        <v>118200</v>
       </c>
       <c r="D93" t="n">
-        <v>117500</v>
+        <v>118200</v>
       </c>
       <c r="E93" t="n">
-        <v>116500</v>
+        <v>117400</v>
       </c>
       <c r="F93" t="n">
-        <v>25.976</v>
+        <v>33.5114</v>
       </c>
       <c r="G93" t="n">
-        <v>114773.3333333333</v>
+        <v>114725</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>117500</v>
       </c>
       <c r="C94" t="n">
-        <v>117500</v>
+        <v>116500</v>
       </c>
       <c r="D94" t="n">
         <v>117500</v>
       </c>
       <c r="E94" t="n">
-        <v>117500</v>
+        <v>116500</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3256</v>
+        <v>25.976</v>
       </c>
       <c r="G94" t="n">
-        <v>114856.6666666667</v>
+        <v>114773.3333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>117200</v>
+        <v>117500</v>
       </c>
       <c r="C95" t="n">
-        <v>117200</v>
+        <v>117500</v>
       </c>
       <c r="D95" t="n">
-        <v>117200</v>
+        <v>117500</v>
       </c>
       <c r="E95" t="n">
-        <v>117200</v>
+        <v>117500</v>
       </c>
       <c r="F95" t="n">
-        <v>0.049</v>
+        <v>0.3256</v>
       </c>
       <c r="G95" t="n">
-        <v>114955</v>
+        <v>114856.6666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>117600</v>
+        <v>117200</v>
       </c>
       <c r="C96" t="n">
-        <v>117600</v>
+        <v>117200</v>
       </c>
       <c r="D96" t="n">
-        <v>117600</v>
+        <v>117200</v>
       </c>
       <c r="E96" t="n">
-        <v>117600</v>
+        <v>117200</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5204</v>
+        <v>0.049</v>
       </c>
       <c r="G96" t="n">
-        <v>115056.6666666667</v>
+        <v>114955</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>117600</v>
       </c>
       <c r="F97" t="n">
-        <v>6.4909</v>
+        <v>0.5204</v>
       </c>
       <c r="G97" t="n">
-        <v>115153.3333333333</v>
+        <v>115056.6666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>117600</v>
       </c>
       <c r="F98" t="n">
-        <v>4.1713</v>
+        <v>6.4909</v>
       </c>
       <c r="G98" t="n">
-        <v>115258.3333333333</v>
+        <v>115153.3333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>117000</v>
+        <v>117600</v>
       </c>
       <c r="C99" t="n">
-        <v>117000</v>
+        <v>117600</v>
       </c>
       <c r="D99" t="n">
-        <v>117000</v>
+        <v>117600</v>
       </c>
       <c r="E99" t="n">
-        <v>117000</v>
+        <v>117600</v>
       </c>
       <c r="F99" t="n">
-        <v>0.048</v>
+        <v>4.1713</v>
       </c>
       <c r="G99" t="n">
-        <v>115345</v>
+        <v>115258.3333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>117300</v>
+        <v>117000</v>
       </c>
       <c r="C100" t="n">
-        <v>117500</v>
+        <v>117000</v>
       </c>
       <c r="D100" t="n">
-        <v>117500</v>
+        <v>117000</v>
       </c>
       <c r="E100" t="n">
-        <v>117300</v>
+        <v>117000</v>
       </c>
       <c r="F100" t="n">
-        <v>15.8199</v>
+        <v>0.048</v>
       </c>
       <c r="G100" t="n">
-        <v>115450</v>
+        <v>115345</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>117200</v>
+        <v>117300</v>
       </c>
       <c r="C101" t="n">
-        <v>117100</v>
+        <v>117500</v>
       </c>
       <c r="D101" t="n">
-        <v>117200</v>
+        <v>117500</v>
       </c>
       <c r="E101" t="n">
-        <v>117100</v>
+        <v>117300</v>
       </c>
       <c r="F101" t="n">
-        <v>4.45</v>
+        <v>15.8199</v>
       </c>
       <c r="G101" t="n">
-        <v>115531.6666666667</v>
+        <v>115450</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>117500</v>
+        <v>117200</v>
       </c>
       <c r="C102" t="n">
-        <v>117500</v>
+        <v>117100</v>
       </c>
       <c r="D102" t="n">
-        <v>117500</v>
+        <v>117200</v>
       </c>
       <c r="E102" t="n">
-        <v>117500</v>
+        <v>117100</v>
       </c>
       <c r="F102" t="n">
-        <v>1.4136</v>
+        <v>4.45</v>
       </c>
       <c r="G102" t="n">
-        <v>115615</v>
+        <v>115531.6666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>117500</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8002</v>
+        <v>1.4136</v>
       </c>
       <c r="G103" t="n">
-        <v>115675</v>
+        <v>115615</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>117500</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>0.8002</v>
       </c>
       <c r="G104" t="n">
-        <v>115750</v>
+        <v>115675</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>115826.6666666667</v>
+        <v>115750</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>117100</v>
+        <v>117500</v>
       </c>
       <c r="C106" t="n">
-        <v>117100</v>
+        <v>117500</v>
       </c>
       <c r="D106" t="n">
-        <v>117100</v>
+        <v>117500</v>
       </c>
       <c r="E106" t="n">
-        <v>117100</v>
+        <v>117500</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5138</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>115885</v>
+        <v>115826.6666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>117100</v>
       </c>
       <c r="F107" t="n">
-        <v>12.2584</v>
+        <v>0.5138</v>
       </c>
       <c r="G107" t="n">
-        <v>115951.6666666667</v>
+        <v>115885</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>119000</v>
+        <v>117100</v>
       </c>
       <c r="C108" t="n">
-        <v>119500</v>
+        <v>117100</v>
       </c>
       <c r="D108" t="n">
-        <v>119500</v>
+        <v>117100</v>
       </c>
       <c r="E108" t="n">
-        <v>119000</v>
+        <v>117100</v>
       </c>
       <c r="F108" t="n">
-        <v>7.3049</v>
+        <v>12.2584</v>
       </c>
       <c r="G108" t="n">
-        <v>116058.3333333333</v>
+        <v>115951.6666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>119000</v>
       </c>
       <c r="C109" t="n">
-        <v>119000</v>
+        <v>119500</v>
       </c>
       <c r="D109" t="n">
-        <v>119000</v>
+        <v>119500</v>
       </c>
       <c r="E109" t="n">
         <v>119000</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6465</v>
+        <v>7.3049</v>
       </c>
       <c r="G109" t="n">
-        <v>116155</v>
+        <v>116058.3333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>118800</v>
+        <v>119000</v>
       </c>
       <c r="C110" t="n">
-        <v>118800</v>
+        <v>119000</v>
       </c>
       <c r="D110" t="n">
-        <v>118800</v>
+        <v>119000</v>
       </c>
       <c r="E110" t="n">
-        <v>118600</v>
+        <v>119000</v>
       </c>
       <c r="F110" t="n">
-        <v>2.0159</v>
+        <v>0.6465</v>
       </c>
       <c r="G110" t="n">
-        <v>116248.3333333333</v>
+        <v>116155</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>119200</v>
+        <v>118800</v>
       </c>
       <c r="C111" t="n">
-        <v>119200</v>
+        <v>118800</v>
       </c>
       <c r="D111" t="n">
-        <v>119200</v>
+        <v>118800</v>
       </c>
       <c r="E111" t="n">
-        <v>119200</v>
+        <v>118600</v>
       </c>
       <c r="F111" t="n">
-        <v>0.06</v>
+        <v>2.0159</v>
       </c>
       <c r="G111" t="n">
-        <v>116348.3333333333</v>
+        <v>116248.3333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>119000</v>
+        <v>119200</v>
       </c>
       <c r="C112" t="n">
-        <v>119000</v>
+        <v>119200</v>
       </c>
       <c r="D112" t="n">
-        <v>119000</v>
+        <v>119200</v>
       </c>
       <c r="E112" t="n">
-        <v>119000</v>
+        <v>119200</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9208</v>
+        <v>0.06</v>
       </c>
       <c r="G112" t="n">
-        <v>116463.3333333333</v>
+        <v>116348.3333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>119000</v>
       </c>
       <c r="F113" t="n">
-        <v>0.012</v>
+        <v>0.9208</v>
       </c>
       <c r="G113" t="n">
-        <v>116596.6666666667</v>
+        <v>116463.3333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>119100</v>
+        <v>119000</v>
       </c>
       <c r="C114" t="n">
-        <v>119100</v>
+        <v>119000</v>
       </c>
       <c r="D114" t="n">
-        <v>119100</v>
+        <v>119000</v>
       </c>
       <c r="E114" t="n">
-        <v>119100</v>
+        <v>119000</v>
       </c>
       <c r="F114" t="n">
-        <v>9.67</v>
+        <v>0.012</v>
       </c>
       <c r="G114" t="n">
-        <v>116731.6666666667</v>
+        <v>116596.6666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>119600</v>
+        <v>119100</v>
       </c>
       <c r="C115" t="n">
-        <v>119600</v>
+        <v>119100</v>
       </c>
       <c r="D115" t="n">
-        <v>119600</v>
+        <v>119100</v>
       </c>
       <c r="E115" t="n">
-        <v>119600</v>
+        <v>119100</v>
       </c>
       <c r="F115" t="n">
-        <v>0.44</v>
+        <v>9.67</v>
       </c>
       <c r="G115" t="n">
-        <v>116885</v>
+        <v>116731.6666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>119700</v>
+        <v>119600</v>
       </c>
       <c r="C116" t="n">
-        <v>119700</v>
+        <v>119600</v>
       </c>
       <c r="D116" t="n">
-        <v>119700</v>
+        <v>119600</v>
       </c>
       <c r="E116" t="n">
-        <v>119700</v>
+        <v>119600</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3071</v>
+        <v>0.44</v>
       </c>
       <c r="G116" t="n">
-        <v>117043.3333333333</v>
+        <v>116885</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,28 +4458,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>119000</v>
+        <v>119700</v>
       </c>
       <c r="C117" t="n">
-        <v>119000</v>
+        <v>119700</v>
       </c>
       <c r="D117" t="n">
-        <v>119000</v>
+        <v>119700</v>
       </c>
       <c r="E117" t="n">
-        <v>119000</v>
+        <v>119700</v>
       </c>
       <c r="F117" t="n">
-        <v>8.160500000000001</v>
+        <v>0.3071</v>
       </c>
       <c r="G117" t="n">
-        <v>117186.6666666667</v>
+        <v>117043.3333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4493,28 +4493,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>119700</v>
+        <v>119000</v>
       </c>
       <c r="C118" t="n">
-        <v>119700</v>
+        <v>119000</v>
       </c>
       <c r="D118" t="n">
-        <v>119700</v>
+        <v>119000</v>
       </c>
       <c r="E118" t="n">
-        <v>119700</v>
+        <v>119000</v>
       </c>
       <c r="F118" t="n">
-        <v>8</v>
+        <v>8.160500000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>117336.6666666667</v>
+        <v>117186.6666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>119900</v>
+        <v>119700</v>
       </c>
       <c r="C119" t="n">
-        <v>119900</v>
+        <v>119700</v>
       </c>
       <c r="D119" t="n">
-        <v>119900</v>
+        <v>119700</v>
       </c>
       <c r="E119" t="n">
-        <v>119900</v>
+        <v>119700</v>
       </c>
       <c r="F119" t="n">
-        <v>0.005</v>
+        <v>8</v>
       </c>
       <c r="G119" t="n">
-        <v>117460</v>
+        <v>117336.6666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>120000</v>
+        <v>119900</v>
       </c>
       <c r="C120" t="n">
-        <v>120000</v>
+        <v>119900</v>
       </c>
       <c r="D120" t="n">
-        <v>120000</v>
+        <v>119900</v>
       </c>
       <c r="E120" t="n">
-        <v>120000</v>
+        <v>119900</v>
       </c>
       <c r="F120" t="n">
         <v>0.005</v>
       </c>
       <c r="G120" t="n">
-        <v>117571.6666666667</v>
+        <v>117460</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>119900</v>
+        <v>120000</v>
       </c>
       <c r="C121" t="n">
-        <v>119900</v>
+        <v>120000</v>
       </c>
       <c r="D121" t="n">
-        <v>119900</v>
+        <v>120000</v>
       </c>
       <c r="E121" t="n">
-        <v>119900</v>
+        <v>120000</v>
       </c>
       <c r="F121" t="n">
-        <v>1.3796</v>
+        <v>0.005</v>
       </c>
       <c r="G121" t="n">
-        <v>117668.3333333333</v>
+        <v>117571.6666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>120000</v>
+        <v>119900</v>
       </c>
       <c r="C122" t="n">
-        <v>120200</v>
+        <v>119900</v>
       </c>
       <c r="D122" t="n">
-        <v>120200</v>
+        <v>119900</v>
       </c>
       <c r="E122" t="n">
-        <v>120000</v>
+        <v>119900</v>
       </c>
       <c r="F122" t="n">
-        <v>3.6459</v>
+        <v>1.3796</v>
       </c>
       <c r="G122" t="n">
-        <v>117761.6666666667</v>
+        <v>117668.3333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>119800</v>
+        <v>120000</v>
       </c>
       <c r="C123" t="n">
-        <v>119800</v>
+        <v>120200</v>
       </c>
       <c r="D123" t="n">
-        <v>119800</v>
+        <v>120200</v>
       </c>
       <c r="E123" t="n">
-        <v>119800</v>
+        <v>120000</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0624</v>
+        <v>3.6459</v>
       </c>
       <c r="G123" t="n">
-        <v>117848.3333333333</v>
+        <v>117761.6666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>118400</v>
+        <v>119800</v>
       </c>
       <c r="C124" t="n">
-        <v>118400</v>
+        <v>119800</v>
       </c>
       <c r="D124" t="n">
-        <v>118400</v>
+        <v>119800</v>
       </c>
       <c r="E124" t="n">
-        <v>118400</v>
+        <v>119800</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0316</v>
+        <v>0.0624</v>
       </c>
       <c r="G124" t="n">
-        <v>117908.3333333333</v>
+        <v>117848.3333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>119100</v>
+        <v>118400</v>
       </c>
       <c r="C125" t="n">
-        <v>119100</v>
+        <v>118400</v>
       </c>
       <c r="D125" t="n">
-        <v>119100</v>
+        <v>118400</v>
       </c>
       <c r="E125" t="n">
-        <v>119100</v>
+        <v>118400</v>
       </c>
       <c r="F125" t="n">
-        <v>0.005</v>
+        <v>0.0316</v>
       </c>
       <c r="G125" t="n">
-        <v>117973.3333333333</v>
+        <v>117908.3333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>118100</v>
+        <v>119100</v>
       </c>
       <c r="C126" t="n">
-        <v>118100</v>
+        <v>119100</v>
       </c>
       <c r="D126" t="n">
-        <v>118100</v>
+        <v>119100</v>
       </c>
       <c r="E126" t="n">
-        <v>118100</v>
+        <v>119100</v>
       </c>
       <c r="F126" t="n">
-        <v>8.02</v>
+        <v>0.005</v>
       </c>
       <c r="G126" t="n">
-        <v>117996.6666666667</v>
+        <v>117973.3333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>118000</v>
+        <v>118100</v>
       </c>
       <c r="C127" t="n">
-        <v>118000</v>
+        <v>118100</v>
       </c>
       <c r="D127" t="n">
-        <v>118000</v>
+        <v>118100</v>
       </c>
       <c r="E127" t="n">
-        <v>118000</v>
+        <v>118100</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5422</v>
+        <v>8.02</v>
       </c>
       <c r="G127" t="n">
-        <v>118016.6666666667</v>
+        <v>117996.6666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>117900</v>
+        <v>118000</v>
       </c>
       <c r="C128" t="n">
-        <v>117900</v>
+        <v>118000</v>
       </c>
       <c r="D128" t="n">
-        <v>117900</v>
+        <v>118000</v>
       </c>
       <c r="E128" t="n">
-        <v>117900</v>
+        <v>118000</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1882</v>
+        <v>0.5422</v>
       </c>
       <c r="G128" t="n">
-        <v>118018.3333333333</v>
+        <v>118016.6666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>117800</v>
+        <v>117900</v>
       </c>
       <c r="C129" t="n">
-        <v>117800</v>
+        <v>117900</v>
       </c>
       <c r="D129" t="n">
-        <v>117800</v>
+        <v>117900</v>
       </c>
       <c r="E129" t="n">
-        <v>117800</v>
+        <v>117900</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3778</v>
+        <v>0.1882</v>
       </c>
       <c r="G129" t="n">
-        <v>118038.3333333333</v>
+        <v>118018.3333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>118100</v>
+        <v>117800</v>
       </c>
       <c r="C130" t="n">
-        <v>118100</v>
+        <v>117800</v>
       </c>
       <c r="D130" t="n">
-        <v>118100</v>
+        <v>117800</v>
       </c>
       <c r="E130" t="n">
-        <v>118100</v>
+        <v>117800</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9454</v>
+        <v>0.3778</v>
       </c>
       <c r="G130" t="n">
-        <v>118063.3333333333</v>
+        <v>118038.3333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>118200</v>
+        <v>118100</v>
       </c>
       <c r="C131" t="n">
-        <v>118200</v>
+        <v>118100</v>
       </c>
       <c r="D131" t="n">
-        <v>118200</v>
+        <v>118100</v>
       </c>
       <c r="E131" t="n">
-        <v>118200</v>
+        <v>118100</v>
       </c>
       <c r="F131" t="n">
-        <v>16.4023</v>
+        <v>0.9454</v>
       </c>
       <c r="G131" t="n">
-        <v>118096.6666666667</v>
+        <v>118063.3333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>118600</v>
+        <v>118200</v>
       </c>
       <c r="C132" t="n">
-        <v>118600</v>
+        <v>118200</v>
       </c>
       <c r="D132" t="n">
-        <v>118600</v>
+        <v>118200</v>
       </c>
       <c r="E132" t="n">
-        <v>118600</v>
+        <v>118200</v>
       </c>
       <c r="F132" t="n">
-        <v>0.05</v>
+        <v>16.4023</v>
       </c>
       <c r="G132" t="n">
-        <v>118128.3333333333</v>
+        <v>118096.6666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>119400</v>
+        <v>118600</v>
       </c>
       <c r="C133" t="n">
-        <v>119400</v>
+        <v>118600</v>
       </c>
       <c r="D133" t="n">
-        <v>119400</v>
+        <v>118600</v>
       </c>
       <c r="E133" t="n">
-        <v>119400</v>
+        <v>118600</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2887</v>
+        <v>0.05</v>
       </c>
       <c r="G133" t="n">
-        <v>118170</v>
+        <v>118128.3333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>119600</v>
+        <v>119400</v>
       </c>
       <c r="C134" t="n">
-        <v>120000</v>
+        <v>119400</v>
       </c>
       <c r="D134" t="n">
-        <v>120000</v>
+        <v>119400</v>
       </c>
       <c r="E134" t="n">
-        <v>119600</v>
+        <v>119400</v>
       </c>
       <c r="F134" t="n">
-        <v>21.6508</v>
+        <v>0.2887</v>
       </c>
       <c r="G134" t="n">
-        <v>118221.6666666667</v>
+        <v>118170</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>120200</v>
+        <v>119600</v>
       </c>
       <c r="C135" t="n">
-        <v>120700</v>
+        <v>120000</v>
       </c>
       <c r="D135" t="n">
-        <v>120700</v>
+        <v>120000</v>
       </c>
       <c r="E135" t="n">
-        <v>120200</v>
+        <v>119600</v>
       </c>
       <c r="F135" t="n">
-        <v>0.498</v>
+        <v>21.6508</v>
       </c>
       <c r="G135" t="n">
-        <v>118285</v>
+        <v>118221.6666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>121000</v>
+        <v>120200</v>
       </c>
       <c r="C136" t="n">
-        <v>121100</v>
+        <v>120700</v>
       </c>
       <c r="D136" t="n">
-        <v>121100</v>
+        <v>120700</v>
       </c>
       <c r="E136" t="n">
-        <v>121000</v>
+        <v>120200</v>
       </c>
       <c r="F136" t="n">
-        <v>2.4259</v>
+        <v>0.498</v>
       </c>
       <c r="G136" t="n">
-        <v>118351.6666666667</v>
+        <v>118285</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>122000</v>
+        <v>121000</v>
       </c>
       <c r="C137" t="n">
-        <v>123400</v>
+        <v>121100</v>
       </c>
       <c r="D137" t="n">
-        <v>123400</v>
+        <v>121100</v>
       </c>
       <c r="E137" t="n">
-        <v>121600</v>
+        <v>121000</v>
       </c>
       <c r="F137" t="n">
-        <v>12.2275</v>
+        <v>2.4259</v>
       </c>
       <c r="G137" t="n">
-        <v>118448.3333333333</v>
+        <v>118351.6666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>123500</v>
+        <v>122000</v>
       </c>
       <c r="C138" t="n">
-        <v>122700</v>
+        <v>123400</v>
       </c>
       <c r="D138" t="n">
-        <v>123500</v>
+        <v>123400</v>
       </c>
       <c r="E138" t="n">
-        <v>122400</v>
+        <v>121600</v>
       </c>
       <c r="F138" t="n">
-        <v>14.7235</v>
+        <v>12.2275</v>
       </c>
       <c r="G138" t="n">
-        <v>118535</v>
+        <v>118448.3333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>123500</v>
+      </c>
+      <c r="C139" t="n">
         <v>122700</v>
       </c>
-      <c r="C139" t="n">
-        <v>123900</v>
-      </c>
       <c r="D139" t="n">
-        <v>123900</v>
+        <v>123500</v>
       </c>
       <c r="E139" t="n">
-        <v>122000</v>
+        <v>122400</v>
       </c>
       <c r="F139" t="n">
-        <v>8.66134705</v>
+        <v>14.7235</v>
       </c>
       <c r="G139" t="n">
-        <v>118650</v>
+        <v>118535</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,28 +5263,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>123100</v>
+        <v>122700</v>
       </c>
       <c r="C140" t="n">
-        <v>122900</v>
+        <v>123900</v>
       </c>
       <c r="D140" t="n">
-        <v>123100</v>
+        <v>123900</v>
       </c>
       <c r="E140" t="n">
-        <v>122900</v>
+        <v>122000</v>
       </c>
       <c r="F140" t="n">
-        <v>4.0366</v>
+        <v>8.66134705</v>
       </c>
       <c r="G140" t="n">
-        <v>118735</v>
+        <v>118650</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5298,28 +5298,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>122900</v>
+        <v>123100</v>
       </c>
       <c r="C141" t="n">
         <v>122900</v>
       </c>
       <c r="D141" t="n">
-        <v>122900</v>
+        <v>123100</v>
       </c>
       <c r="E141" t="n">
         <v>122900</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0231</v>
+        <v>4.0366</v>
       </c>
       <c r="G141" t="n">
-        <v>118818.3333333333</v>
+        <v>118735</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5333,28 +5333,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>122300</v>
+        <v>122900</v>
       </c>
       <c r="C142" t="n">
-        <v>122300</v>
+        <v>122900</v>
       </c>
       <c r="D142" t="n">
-        <v>122300</v>
+        <v>122900</v>
       </c>
       <c r="E142" t="n">
-        <v>122300</v>
+        <v>122900</v>
       </c>
       <c r="F142" t="n">
-        <v>3.5619</v>
+        <v>0.0231</v>
       </c>
       <c r="G142" t="n">
-        <v>118890</v>
+        <v>118818.3333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5368,28 +5368,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>122000</v>
+        <v>122300</v>
       </c>
       <c r="C143" t="n">
-        <v>122000</v>
+        <v>122300</v>
       </c>
       <c r="D143" t="n">
-        <v>122000</v>
+        <v>122300</v>
       </c>
       <c r="E143" t="n">
-        <v>122000</v>
+        <v>122300</v>
       </c>
       <c r="F143" t="n">
-        <v>2.1774</v>
+        <v>3.5619</v>
       </c>
       <c r="G143" t="n">
-        <v>118948.3333333333</v>
+        <v>118890</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>122100</v>
+        <v>122000</v>
       </c>
       <c r="C144" t="n">
-        <v>122100</v>
+        <v>122000</v>
       </c>
       <c r="D144" t="n">
-        <v>122100</v>
+        <v>122000</v>
       </c>
       <c r="E144" t="n">
-        <v>122100</v>
+        <v>122000</v>
       </c>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>2.1774</v>
       </c>
       <c r="G144" t="n">
-        <v>119006.6666666667</v>
+        <v>118948.3333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>122500</v>
+        <v>122100</v>
       </c>
       <c r="C145" t="n">
-        <v>123200</v>
+        <v>122100</v>
       </c>
       <c r="D145" t="n">
-        <v>123200</v>
+        <v>122100</v>
       </c>
       <c r="E145" t="n">
-        <v>122500</v>
+        <v>122100</v>
       </c>
       <c r="F145" t="n">
-        <v>11.0907</v>
+        <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>119095</v>
+        <v>119006.6666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>122800</v>
+        <v>122500</v>
       </c>
       <c r="C146" t="n">
-        <v>122800</v>
+        <v>123200</v>
       </c>
       <c r="D146" t="n">
-        <v>122800</v>
+        <v>123200</v>
       </c>
       <c r="E146" t="n">
-        <v>122800</v>
+        <v>122500</v>
       </c>
       <c r="F146" t="n">
-        <v>8.55300488</v>
+        <v>11.0907</v>
       </c>
       <c r="G146" t="n">
-        <v>119161.6666666667</v>
+        <v>119095</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>122200</v>
+        <v>122800</v>
       </c>
       <c r="C147" t="n">
-        <v>123000</v>
+        <v>122800</v>
       </c>
       <c r="D147" t="n">
-        <v>123000</v>
+        <v>122800</v>
       </c>
       <c r="E147" t="n">
-        <v>122100</v>
+        <v>122800</v>
       </c>
       <c r="F147" t="n">
-        <v>1.41673008</v>
+        <v>8.55300488</v>
       </c>
       <c r="G147" t="n">
-        <v>119241.6666666667</v>
+        <v>119161.6666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>122000</v>
+        <v>122200</v>
       </c>
       <c r="C148" t="n">
-        <v>121800</v>
+        <v>123000</v>
       </c>
       <c r="D148" t="n">
-        <v>122000</v>
+        <v>123000</v>
       </c>
       <c r="E148" t="n">
-        <v>121800</v>
+        <v>122100</v>
       </c>
       <c r="F148" t="n">
-        <v>11.8333</v>
+        <v>1.41673008</v>
       </c>
       <c r="G148" t="n">
-        <v>119310</v>
+        <v>119241.6666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>122500</v>
+        <v>122000</v>
       </c>
       <c r="C149" t="n">
-        <v>122500</v>
+        <v>121800</v>
       </c>
       <c r="D149" t="n">
-        <v>122500</v>
+        <v>122000</v>
       </c>
       <c r="E149" t="n">
-        <v>122500</v>
+        <v>121800</v>
       </c>
       <c r="F149" t="n">
-        <v>0.03627755</v>
+        <v>11.8333</v>
       </c>
       <c r="G149" t="n">
-        <v>119396.6666666667</v>
+        <v>119310</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>121500</v>
+        <v>122500</v>
       </c>
       <c r="C150" t="n">
         <v>122500</v>
@@ -5622,13 +5622,13 @@
         <v>122500</v>
       </c>
       <c r="E150" t="n">
-        <v>121500</v>
+        <v>122500</v>
       </c>
       <c r="F150" t="n">
-        <v>0.95760816</v>
+        <v>0.03627755</v>
       </c>
       <c r="G150" t="n">
-        <v>119500</v>
+        <v>119396.6666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>122600</v>
+        <v>121500</v>
       </c>
       <c r="C151" t="n">
-        <v>122600</v>
+        <v>122500</v>
       </c>
       <c r="D151" t="n">
-        <v>122600</v>
+        <v>122500</v>
       </c>
       <c r="E151" t="n">
-        <v>122600</v>
+        <v>121500</v>
       </c>
       <c r="F151" t="n">
-        <v>0.11</v>
+        <v>0.95760816</v>
       </c>
       <c r="G151" t="n">
-        <v>119590</v>
+        <v>119500</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>122900</v>
+        <v>122600</v>
       </c>
       <c r="C152" t="n">
-        <v>122900</v>
+        <v>122600</v>
       </c>
       <c r="D152" t="n">
-        <v>122900</v>
+        <v>122600</v>
       </c>
       <c r="E152" t="n">
-        <v>122900</v>
+        <v>122600</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0061</v>
+        <v>0.11</v>
       </c>
       <c r="G152" t="n">
-        <v>119668.3333333333</v>
+        <v>119590</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>123500</v>
+        <v>122900</v>
       </c>
       <c r="C153" t="n">
-        <v>123700</v>
+        <v>122900</v>
       </c>
       <c r="D153" t="n">
-        <v>123700</v>
+        <v>122900</v>
       </c>
       <c r="E153" t="n">
-        <v>123500</v>
+        <v>122900</v>
       </c>
       <c r="F153" t="n">
-        <v>8.12171107</v>
+        <v>0.0061</v>
       </c>
       <c r="G153" t="n">
-        <v>119788.3333333333</v>
+        <v>119668.3333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>122600</v>
+        <v>123500</v>
       </c>
       <c r="C154" t="n">
-        <v>122600</v>
+        <v>123700</v>
       </c>
       <c r="D154" t="n">
-        <v>122600</v>
+        <v>123700</v>
       </c>
       <c r="E154" t="n">
-        <v>122600</v>
+        <v>123500</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1749</v>
+        <v>8.12171107</v>
       </c>
       <c r="G154" t="n">
-        <v>119873.3333333333</v>
+        <v>119788.3333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>122300</v>
+        <v>122600</v>
       </c>
       <c r="C155" t="n">
-        <v>122200</v>
+        <v>122600</v>
       </c>
       <c r="D155" t="n">
-        <v>122300</v>
+        <v>122600</v>
       </c>
       <c r="E155" t="n">
-        <v>122200</v>
+        <v>122600</v>
       </c>
       <c r="F155" t="n">
-        <v>2.0647</v>
+        <v>0.1749</v>
       </c>
       <c r="G155" t="n">
-        <v>119956.6666666667</v>
+        <v>119873.3333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>122200</v>
+        <v>122300</v>
       </c>
       <c r="C156" t="n">
         <v>122200</v>
       </c>
       <c r="D156" t="n">
-        <v>122200</v>
+        <v>122300</v>
       </c>
       <c r="E156" t="n">
         <v>122200</v>
       </c>
       <c r="F156" t="n">
-        <v>7.1028</v>
+        <v>2.0647</v>
       </c>
       <c r="G156" t="n">
-        <v>120033.3333333333</v>
+        <v>119956.6666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>121600</v>
+        <v>122200</v>
       </c>
       <c r="C157" t="n">
-        <v>121600</v>
+        <v>122200</v>
       </c>
       <c r="D157" t="n">
-        <v>121600</v>
+        <v>122200</v>
       </c>
       <c r="E157" t="n">
-        <v>121600</v>
+        <v>122200</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9999</v>
+        <v>7.1028</v>
       </c>
       <c r="G157" t="n">
-        <v>120100</v>
+        <v>120033.3333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5896,19 +5896,19 @@
         <v>121600</v>
       </c>
       <c r="C158" t="n">
-        <v>120800</v>
+        <v>121600</v>
       </c>
       <c r="D158" t="n">
         <v>121600</v>
       </c>
       <c r="E158" t="n">
-        <v>120800</v>
+        <v>121600</v>
       </c>
       <c r="F158" t="n">
-        <v>15.6343</v>
+        <v>0.9999</v>
       </c>
       <c r="G158" t="n">
-        <v>120153.3333333333</v>
+        <v>120100</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +5931,19 @@
         <v>121600</v>
       </c>
       <c r="C159" t="n">
-        <v>121000</v>
+        <v>120800</v>
       </c>
       <c r="D159" t="n">
         <v>121600</v>
       </c>
       <c r="E159" t="n">
-        <v>121000</v>
+        <v>120800</v>
       </c>
       <c r="F159" t="n">
-        <v>13.417</v>
+        <v>15.6343</v>
       </c>
       <c r="G159" t="n">
-        <v>120220</v>
+        <v>120153.3333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>122400</v>
+        <v>121600</v>
       </c>
       <c r="C160" t="n">
-        <v>122400</v>
+        <v>121000</v>
       </c>
       <c r="D160" t="n">
-        <v>122400</v>
+        <v>121600</v>
       </c>
       <c r="E160" t="n">
-        <v>122400</v>
+        <v>121000</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0058</v>
+        <v>13.417</v>
       </c>
       <c r="G160" t="n">
-        <v>120301.6666666667</v>
+        <v>120220</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>121500</v>
+        <v>122400</v>
       </c>
       <c r="C161" t="n">
-        <v>121500</v>
+        <v>122400</v>
       </c>
       <c r="D161" t="n">
-        <v>121500</v>
+        <v>122400</v>
       </c>
       <c r="E161" t="n">
-        <v>121500</v>
+        <v>122400</v>
       </c>
       <c r="F161" t="n">
-        <v>0.033</v>
+        <v>0.0058</v>
       </c>
       <c r="G161" t="n">
-        <v>120375</v>
+        <v>120301.6666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>122000</v>
+        <v>121500</v>
       </c>
       <c r="C162" t="n">
-        <v>122000</v>
+        <v>121500</v>
       </c>
       <c r="D162" t="n">
-        <v>122000</v>
+        <v>121500</v>
       </c>
       <c r="E162" t="n">
-        <v>122000</v>
+        <v>121500</v>
       </c>
       <c r="F162" t="n">
-        <v>3.4122</v>
+        <v>0.033</v>
       </c>
       <c r="G162" t="n">
-        <v>120450</v>
+        <v>120375</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>121100</v>
+        <v>122000</v>
       </c>
       <c r="C163" t="n">
-        <v>121100</v>
+        <v>122000</v>
       </c>
       <c r="D163" t="n">
-        <v>121100</v>
+        <v>122000</v>
       </c>
       <c r="E163" t="n">
-        <v>121100</v>
+        <v>122000</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0275227</v>
+        <v>3.4122</v>
       </c>
       <c r="G163" t="n">
-        <v>120510</v>
+        <v>120450</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>120900</v>
+        <v>121100</v>
       </c>
       <c r="C164" t="n">
-        <v>120900</v>
+        <v>121100</v>
       </c>
       <c r="D164" t="n">
-        <v>120900</v>
+        <v>121100</v>
       </c>
       <c r="E164" t="n">
-        <v>120900</v>
+        <v>121100</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2</v>
+        <v>0.0275227</v>
       </c>
       <c r="G164" t="n">
-        <v>120566.6666666667</v>
+        <v>120510</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>120400</v>
+        <v>120900</v>
       </c>
       <c r="C165" t="n">
-        <v>120000</v>
+        <v>120900</v>
       </c>
       <c r="D165" t="n">
-        <v>120400</v>
+        <v>120900</v>
       </c>
       <c r="E165" t="n">
-        <v>120000</v>
+        <v>120900</v>
       </c>
       <c r="F165" t="n">
-        <v>31.3421</v>
+        <v>0.2</v>
       </c>
       <c r="G165" t="n">
-        <v>120608.3333333333</v>
+        <v>120566.6666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>120600</v>
+        <v>120400</v>
       </c>
       <c r="C166" t="n">
-        <v>121700</v>
+        <v>120000</v>
       </c>
       <c r="D166" t="n">
-        <v>121700</v>
+        <v>120400</v>
       </c>
       <c r="E166" t="n">
-        <v>120600</v>
+        <v>120000</v>
       </c>
       <c r="F166" t="n">
-        <v>0.53121117</v>
+        <v>31.3421</v>
       </c>
       <c r="G166" t="n">
-        <v>120685</v>
+        <v>120608.3333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>121000</v>
+        <v>120600</v>
       </c>
       <c r="C167" t="n">
-        <v>121000</v>
+        <v>121700</v>
       </c>
       <c r="D167" t="n">
-        <v>121000</v>
+        <v>121700</v>
       </c>
       <c r="E167" t="n">
-        <v>121000</v>
+        <v>120600</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0.53121117</v>
       </c>
       <c r="G167" t="n">
-        <v>120750</v>
+        <v>120685</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>120500</v>
+        <v>121000</v>
       </c>
       <c r="C168" t="n">
-        <v>120500</v>
+        <v>121000</v>
       </c>
       <c r="D168" t="n">
-        <v>120500</v>
+        <v>121000</v>
       </c>
       <c r="E168" t="n">
-        <v>120500</v>
+        <v>121000</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1437</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>120766.6666666667</v>
+        <v>120750</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>120100</v>
+        <v>120500</v>
       </c>
       <c r="C169" t="n">
-        <v>120100</v>
+        <v>120500</v>
       </c>
       <c r="D169" t="n">
-        <v>120100</v>
+        <v>120500</v>
       </c>
       <c r="E169" t="n">
-        <v>120100</v>
+        <v>120500</v>
       </c>
       <c r="F169" t="n">
-        <v>15.1399</v>
+        <v>0.1437</v>
       </c>
       <c r="G169" t="n">
-        <v>120785</v>
+        <v>120766.6666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>120700</v>
+        <v>120100</v>
       </c>
       <c r="C170" t="n">
-        <v>120700</v>
+        <v>120100</v>
       </c>
       <c r="D170" t="n">
-        <v>120700</v>
+        <v>120100</v>
       </c>
       <c r="E170" t="n">
-        <v>120700</v>
+        <v>120100</v>
       </c>
       <c r="F170" t="n">
-        <v>0.32</v>
+        <v>15.1399</v>
       </c>
       <c r="G170" t="n">
-        <v>120816.6666666667</v>
+        <v>120785</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>121500</v>
+        <v>120700</v>
       </c>
       <c r="C171" t="n">
-        <v>121500</v>
+        <v>120700</v>
       </c>
       <c r="D171" t="n">
-        <v>121500</v>
+        <v>120700</v>
       </c>
       <c r="E171" t="n">
-        <v>121500</v>
+        <v>120700</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3819</v>
+        <v>0.32</v>
       </c>
       <c r="G171" t="n">
-        <v>120855</v>
+        <v>120816.6666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>121600</v>
+        <v>121500</v>
       </c>
       <c r="C172" t="n">
-        <v>121600</v>
+        <v>121500</v>
       </c>
       <c r="D172" t="n">
-        <v>121600</v>
+        <v>121500</v>
       </c>
       <c r="E172" t="n">
-        <v>121600</v>
+        <v>121500</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0.3819</v>
       </c>
       <c r="G172" t="n">
-        <v>120898.3333333333</v>
+        <v>120855</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>121600</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0344</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>120941.6666666667</v>
+        <v>120898.3333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>121400</v>
+        <v>121600</v>
       </c>
       <c r="C174" t="n">
-        <v>121400</v>
+        <v>121600</v>
       </c>
       <c r="D174" t="n">
-        <v>121400</v>
+        <v>121600</v>
       </c>
       <c r="E174" t="n">
-        <v>121400</v>
+        <v>121600</v>
       </c>
       <c r="F174" t="n">
-        <v>6.185</v>
+        <v>0.0344</v>
       </c>
       <c r="G174" t="n">
-        <v>120980</v>
+        <v>120941.6666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>121300</v>
+        <v>121400</v>
       </c>
       <c r="C175" t="n">
         <v>121400</v>
@@ -6497,13 +6497,13 @@
         <v>121400</v>
       </c>
       <c r="E175" t="n">
-        <v>121300</v>
+        <v>121400</v>
       </c>
       <c r="F175" t="n">
-        <v>4.6023</v>
+        <v>6.185</v>
       </c>
       <c r="G175" t="n">
-        <v>121010</v>
+        <v>120980</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>121400</v>
+        <v>121300</v>
       </c>
       <c r="C176" t="n">
         <v>121400</v>
@@ -6532,13 +6532,13 @@
         <v>121400</v>
       </c>
       <c r="E176" t="n">
-        <v>121400</v>
+        <v>121300</v>
       </c>
       <c r="F176" t="n">
-        <v>2.1033</v>
+        <v>4.6023</v>
       </c>
       <c r="G176" t="n">
-        <v>121038.3333333333</v>
+        <v>121010</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>121100</v>
+        <v>121400</v>
       </c>
       <c r="C177" t="n">
-        <v>121100</v>
+        <v>121400</v>
       </c>
       <c r="D177" t="n">
-        <v>121100</v>
+        <v>121400</v>
       </c>
       <c r="E177" t="n">
-        <v>121100</v>
+        <v>121400</v>
       </c>
       <c r="F177" t="n">
-        <v>9.892799999999999</v>
+        <v>2.1033</v>
       </c>
       <c r="G177" t="n">
-        <v>121073.3333333333</v>
+        <v>121038.3333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>120600</v>
+        <v>121100</v>
       </c>
       <c r="C178" t="n">
-        <v>120400</v>
+        <v>121100</v>
       </c>
       <c r="D178" t="n">
-        <v>120600</v>
+        <v>121100</v>
       </c>
       <c r="E178" t="n">
-        <v>120400</v>
+        <v>121100</v>
       </c>
       <c r="F178" t="n">
-        <v>0.5183</v>
+        <v>9.892799999999999</v>
       </c>
       <c r="G178" t="n">
-        <v>121085</v>
+        <v>121073.3333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6631,19 +6631,19 @@
         <v>120600</v>
       </c>
       <c r="C179" t="n">
-        <v>120000</v>
+        <v>120400</v>
       </c>
       <c r="D179" t="n">
         <v>120600</v>
       </c>
       <c r="E179" t="n">
-        <v>119900</v>
+        <v>120400</v>
       </c>
       <c r="F179" t="n">
-        <v>31.6192</v>
+        <v>0.5183</v>
       </c>
       <c r="G179" t="n">
-        <v>121086.6666666667</v>
+        <v>121085</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>120600</v>
+      </c>
+      <c r="C180" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>120600</v>
+      </c>
+      <c r="E180" t="n">
         <v>119900</v>
       </c>
-      <c r="C180" t="n">
-        <v>119600</v>
-      </c>
-      <c r="D180" t="n">
-        <v>119900</v>
-      </c>
-      <c r="E180" t="n">
-        <v>119600</v>
-      </c>
       <c r="F180" t="n">
-        <v>3.0298</v>
+        <v>31.6192</v>
       </c>
       <c r="G180" t="n">
-        <v>121080</v>
+        <v>121086.6666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>119800</v>
+        <v>119900</v>
       </c>
       <c r="C181" t="n">
-        <v>119800</v>
+        <v>119600</v>
       </c>
       <c r="D181" t="n">
-        <v>119800</v>
+        <v>119900</v>
       </c>
       <c r="E181" t="n">
-        <v>119800</v>
+        <v>119600</v>
       </c>
       <c r="F181" t="n">
-        <v>0.79</v>
+        <v>3.0298</v>
       </c>
       <c r="G181" t="n">
-        <v>121078.3333333333</v>
+        <v>121080</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>119600</v>
+        <v>119800</v>
       </c>
       <c r="C182" t="n">
-        <v>119600</v>
+        <v>119800</v>
       </c>
       <c r="D182" t="n">
-        <v>119600</v>
+        <v>119800</v>
       </c>
       <c r="E182" t="n">
-        <v>119600</v>
+        <v>119800</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1994</v>
+        <v>0.79</v>
       </c>
       <c r="G182" t="n">
-        <v>121068.3333333333</v>
+        <v>121078.3333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>119500</v>
+        <v>119600</v>
       </c>
       <c r="C183" t="n">
-        <v>119500</v>
+        <v>119600</v>
       </c>
       <c r="D183" t="n">
-        <v>119500</v>
+        <v>119600</v>
       </c>
       <c r="E183" t="n">
-        <v>119500</v>
+        <v>119600</v>
       </c>
       <c r="F183" t="n">
-        <v>0.99</v>
+        <v>0.1994</v>
       </c>
       <c r="G183" t="n">
-        <v>121063.3333333333</v>
+        <v>121068.3333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>119000</v>
+        <v>119500</v>
       </c>
       <c r="C184" t="n">
-        <v>118500</v>
+        <v>119500</v>
       </c>
       <c r="D184" t="n">
-        <v>119000</v>
+        <v>119500</v>
       </c>
       <c r="E184" t="n">
-        <v>118500</v>
+        <v>119500</v>
       </c>
       <c r="F184" t="n">
-        <v>8.3932</v>
+        <v>0.99</v>
       </c>
       <c r="G184" t="n">
-        <v>121065</v>
+        <v>121063.3333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>118200</v>
+        <v>119000</v>
       </c>
       <c r="C185" t="n">
-        <v>119000</v>
+        <v>118500</v>
       </c>
       <c r="D185" t="n">
         <v>119000</v>
       </c>
       <c r="E185" t="n">
-        <v>118000</v>
+        <v>118500</v>
       </c>
       <c r="F185" t="n">
-        <v>21.9229</v>
+        <v>8.3932</v>
       </c>
       <c r="G185" t="n">
-        <v>121063.3333333333</v>
+        <v>121065</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>118600</v>
+        <v>118200</v>
       </c>
       <c r="C186" t="n">
-        <v>118500</v>
+        <v>119000</v>
       </c>
       <c r="D186" t="n">
-        <v>118600</v>
+        <v>119000</v>
       </c>
       <c r="E186" t="n">
-        <v>118500</v>
+        <v>118000</v>
       </c>
       <c r="F186" t="n">
-        <v>2.7081</v>
+        <v>21.9229</v>
       </c>
       <c r="G186" t="n">
-        <v>121070</v>
+        <v>121063.3333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>118800</v>
+        <v>118600</v>
       </c>
       <c r="C187" t="n">
-        <v>118800</v>
+        <v>118500</v>
       </c>
       <c r="D187" t="n">
-        <v>118800</v>
+        <v>118600</v>
       </c>
       <c r="E187" t="n">
-        <v>118800</v>
+        <v>118500</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0043</v>
+        <v>2.7081</v>
       </c>
       <c r="G187" t="n">
-        <v>121083.3333333333</v>
+        <v>121070</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>118700</v>
+        <v>118800</v>
       </c>
       <c r="C188" t="n">
-        <v>118700</v>
+        <v>118800</v>
       </c>
       <c r="D188" t="n">
-        <v>118700</v>
+        <v>118800</v>
       </c>
       <c r="E188" t="n">
-        <v>118700</v>
+        <v>118800</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0447</v>
+        <v>0.0043</v>
       </c>
       <c r="G188" t="n">
-        <v>121096.6666666667</v>
+        <v>121083.3333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>118700</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0245</v>
+        <v>0.0447</v>
       </c>
       <c r="G189" t="n">
-        <v>121111.6666666667</v>
+        <v>121096.6666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7025,10 @@
         <v>118700</v>
       </c>
       <c r="F190" t="n">
-        <v>0.6214</v>
+        <v>0.0245</v>
       </c>
       <c r="G190" t="n">
-        <v>121121.6666666667</v>
+        <v>121111.6666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>118500</v>
+        <v>118700</v>
       </c>
       <c r="C191" t="n">
-        <v>119100</v>
+        <v>118700</v>
       </c>
       <c r="D191" t="n">
-        <v>119100</v>
+        <v>118700</v>
       </c>
       <c r="E191" t="n">
-        <v>118200</v>
+        <v>118700</v>
       </c>
       <c r="F191" t="n">
-        <v>153.1389</v>
+        <v>0.6214</v>
       </c>
       <c r="G191" t="n">
-        <v>121136.6666666667</v>
+        <v>121121.6666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>119400</v>
+        <v>118500</v>
       </c>
       <c r="C192" t="n">
-        <v>119400</v>
+        <v>119100</v>
       </c>
       <c r="D192" t="n">
-        <v>119400</v>
+        <v>119100</v>
       </c>
       <c r="E192" t="n">
-        <v>119400</v>
+        <v>118200</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0118</v>
+        <v>153.1389</v>
       </c>
       <c r="G192" t="n">
-        <v>121150</v>
+        <v>121136.6666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,7 +7130,7 @@
         <v>119400</v>
       </c>
       <c r="F193" t="n">
-        <v>16.563</v>
+        <v>0.0118</v>
       </c>
       <c r="G193" t="n">
         <v>121150</v>
@@ -7165,10 +7165,10 @@
         <v>119400</v>
       </c>
       <c r="F194" t="n">
-        <v>0.1374</v>
+        <v>16.563</v>
       </c>
       <c r="G194" t="n">
-        <v>121140</v>
+        <v>121150</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>120700</v>
+        <v>119400</v>
       </c>
       <c r="C195" t="n">
-        <v>120900</v>
+        <v>119400</v>
       </c>
       <c r="D195" t="n">
-        <v>121000</v>
+        <v>119400</v>
       </c>
       <c r="E195" t="n">
-        <v>120700</v>
+        <v>119400</v>
       </c>
       <c r="F195" t="n">
-        <v>5.93911066</v>
+        <v>0.1374</v>
       </c>
       <c r="G195" t="n">
-        <v>121143.3333333333</v>
+        <v>121140</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>120000</v>
+        <v>120700</v>
       </c>
       <c r="C196" t="n">
-        <v>120000</v>
+        <v>120900</v>
       </c>
       <c r="D196" t="n">
-        <v>120000</v>
+        <v>121000</v>
       </c>
       <c r="E196" t="n">
-        <v>120000</v>
+        <v>120700</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0059</v>
+        <v>5.93911066</v>
       </c>
       <c r="G196" t="n">
-        <v>121125</v>
+        <v>121143.3333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>121100</v>
+        <v>120000</v>
       </c>
       <c r="C197" t="n">
-        <v>121100</v>
+        <v>120000</v>
       </c>
       <c r="D197" t="n">
-        <v>121100</v>
+        <v>120000</v>
       </c>
       <c r="E197" t="n">
-        <v>121100</v>
+        <v>120000</v>
       </c>
       <c r="F197" t="n">
-        <v>0.016</v>
+        <v>0.0059</v>
       </c>
       <c r="G197" t="n">
-        <v>121086.6666666667</v>
+        <v>121125</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7305,10 +7305,10 @@
         <v>121100</v>
       </c>
       <c r="F198" t="n">
-        <v>2.60433526</v>
+        <v>0.016</v>
       </c>
       <c r="G198" t="n">
-        <v>121060</v>
+        <v>121086.6666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>120400</v>
+        <v>121100</v>
       </c>
       <c r="C199" t="n">
-        <v>120400</v>
+        <v>121100</v>
       </c>
       <c r="D199" t="n">
-        <v>120400</v>
+        <v>121100</v>
       </c>
       <c r="E199" t="n">
-        <v>120400</v>
+        <v>121100</v>
       </c>
       <c r="F199" t="n">
-        <v>10.2938</v>
+        <v>2.60433526</v>
       </c>
       <c r="G199" t="n">
-        <v>121001.6666666667</v>
+        <v>121060</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>119900</v>
+        <v>120400</v>
       </c>
       <c r="C200" t="n">
-        <v>119900</v>
+        <v>120400</v>
       </c>
       <c r="D200" t="n">
-        <v>119900</v>
+        <v>120400</v>
       </c>
       <c r="E200" t="n">
-        <v>119900</v>
+        <v>120400</v>
       </c>
       <c r="F200" t="n">
-        <v>2.6044</v>
+        <v>10.2938</v>
       </c>
       <c r="G200" t="n">
-        <v>120951.6666666667</v>
+        <v>121001.6666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>120600</v>
+        <v>119900</v>
       </c>
       <c r="C201" t="n">
-        <v>120600</v>
+        <v>119900</v>
       </c>
       <c r="D201" t="n">
-        <v>120600</v>
+        <v>119900</v>
       </c>
       <c r="E201" t="n">
-        <v>120600</v>
+        <v>119900</v>
       </c>
       <c r="F201" t="n">
-        <v>0.005</v>
+        <v>2.6044</v>
       </c>
       <c r="G201" t="n">
-        <v>120913.3333333333</v>
+        <v>120951.6666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>120300</v>
+        <v>120600</v>
       </c>
       <c r="C202" t="n">
-        <v>120300</v>
+        <v>120600</v>
       </c>
       <c r="D202" t="n">
-        <v>120300</v>
+        <v>120600</v>
       </c>
       <c r="E202" t="n">
-        <v>120300</v>
+        <v>120600</v>
       </c>
       <c r="F202" t="n">
-        <v>3.6637</v>
+        <v>0.005</v>
       </c>
       <c r="G202" t="n">
-        <v>120880</v>
+        <v>120913.3333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>120000</v>
+        <v>120300</v>
       </c>
       <c r="C203" t="n">
-        <v>119700</v>
+        <v>120300</v>
       </c>
       <c r="D203" t="n">
-        <v>120000</v>
+        <v>120300</v>
       </c>
       <c r="E203" t="n">
-        <v>119700</v>
+        <v>120300</v>
       </c>
       <c r="F203" t="n">
-        <v>7</v>
+        <v>3.6637</v>
       </c>
       <c r="G203" t="n">
-        <v>120841.6666666667</v>
+        <v>120880</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>119900</v>
+        <v>120000</v>
       </c>
       <c r="C204" t="n">
-        <v>119900</v>
+        <v>119700</v>
       </c>
       <c r="D204" t="n">
-        <v>119900</v>
+        <v>120000</v>
       </c>
       <c r="E204" t="n">
-        <v>119900</v>
+        <v>119700</v>
       </c>
       <c r="F204" t="n">
-        <v>3.7771</v>
+        <v>7</v>
       </c>
       <c r="G204" t="n">
-        <v>120805</v>
+        <v>120841.6666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>119700</v>
+        <v>119900</v>
       </c>
       <c r="C205" t="n">
-        <v>119700</v>
+        <v>119900</v>
       </c>
       <c r="D205" t="n">
-        <v>119700</v>
+        <v>119900</v>
       </c>
       <c r="E205" t="n">
-        <v>119700</v>
+        <v>119900</v>
       </c>
       <c r="F205" t="n">
-        <v>4.4189</v>
+        <v>3.7771</v>
       </c>
       <c r="G205" t="n">
-        <v>120746.6666666667</v>
+        <v>120805</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7585,10 +7585,10 @@
         <v>119700</v>
       </c>
       <c r="F206" t="n">
-        <v>16.0351</v>
+        <v>4.4189</v>
       </c>
       <c r="G206" t="n">
-        <v>120695</v>
+        <v>120746.6666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>119300</v>
+        <v>119700</v>
       </c>
       <c r="C207" t="n">
-        <v>119400</v>
+        <v>119700</v>
       </c>
       <c r="D207" t="n">
-        <v>119400</v>
+        <v>119700</v>
       </c>
       <c r="E207" t="n">
-        <v>119300</v>
+        <v>119700</v>
       </c>
       <c r="F207" t="n">
-        <v>4.6113</v>
+        <v>16.0351</v>
       </c>
       <c r="G207" t="n">
-        <v>120635</v>
+        <v>120695</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>119400</v>
+        <v>119300</v>
       </c>
       <c r="C208" t="n">
         <v>119400</v>
@@ -7652,13 +7652,13 @@
         <v>119400</v>
       </c>
       <c r="E208" t="n">
-        <v>119400</v>
+        <v>119300</v>
       </c>
       <c r="F208" t="n">
-        <v>0.1457</v>
+        <v>4.6113</v>
       </c>
       <c r="G208" t="n">
-        <v>120595</v>
+        <v>120635</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>120000</v>
+        <v>119400</v>
       </c>
       <c r="C209" t="n">
-        <v>120000</v>
+        <v>119400</v>
       </c>
       <c r="D209" t="n">
-        <v>120000</v>
+        <v>119400</v>
       </c>
       <c r="E209" t="n">
-        <v>120000</v>
+        <v>119400</v>
       </c>
       <c r="F209" t="n">
-        <v>5.8495</v>
+        <v>0.1457</v>
       </c>
       <c r="G209" t="n">
-        <v>120553.3333333333</v>
+        <v>120595</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7725,10 +7725,10 @@
         <v>120000</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4209</v>
+        <v>5.8495</v>
       </c>
       <c r="G210" t="n">
-        <v>120511.6666666667</v>
+        <v>120553.3333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>119600</v>
+        <v>120000</v>
       </c>
       <c r="C211" t="n">
-        <v>120200</v>
+        <v>120000</v>
       </c>
       <c r="D211" t="n">
-        <v>120200</v>
+        <v>120000</v>
       </c>
       <c r="E211" t="n">
-        <v>119400</v>
+        <v>120000</v>
       </c>
       <c r="F211" t="n">
-        <v>26.8428</v>
+        <v>0.4209</v>
       </c>
       <c r="G211" t="n">
-        <v>120471.6666666667</v>
+        <v>120511.6666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>119300</v>
+        <v>119600</v>
       </c>
       <c r="C212" t="n">
-        <v>119300</v>
+        <v>120200</v>
       </c>
       <c r="D212" t="n">
-        <v>119300</v>
+        <v>120200</v>
       </c>
       <c r="E212" t="n">
-        <v>119300</v>
+        <v>119400</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0075</v>
+        <v>26.8428</v>
       </c>
       <c r="G212" t="n">
-        <v>120411.6666666667</v>
+        <v>120471.6666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>119200</v>
+        <v>119300</v>
       </c>
       <c r="C213" t="n">
-        <v>119200</v>
+        <v>119300</v>
       </c>
       <c r="D213" t="n">
-        <v>119200</v>
+        <v>119300</v>
       </c>
       <c r="E213" t="n">
-        <v>119200</v>
+        <v>119300</v>
       </c>
       <c r="F213" t="n">
         <v>0.0075</v>
       </c>
       <c r="G213" t="n">
-        <v>120336.6666666667</v>
+        <v>120411.6666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>119000</v>
+        <v>119200</v>
       </c>
       <c r="C214" t="n">
-        <v>119000</v>
+        <v>119200</v>
       </c>
       <c r="D214" t="n">
-        <v>119000</v>
+        <v>119200</v>
       </c>
       <c r="E214" t="n">
-        <v>119000</v>
+        <v>119200</v>
       </c>
       <c r="F214" t="n">
-        <v>0.1075</v>
+        <v>0.0075</v>
       </c>
       <c r="G214" t="n">
-        <v>120276.6666666667</v>
+        <v>120336.6666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>118700</v>
+        <v>119000</v>
       </c>
       <c r="C215" t="n">
-        <v>118600</v>
+        <v>119000</v>
       </c>
       <c r="D215" t="n">
-        <v>118700</v>
+        <v>119000</v>
       </c>
       <c r="E215" t="n">
-        <v>118600</v>
+        <v>119000</v>
       </c>
       <c r="F215" t="n">
-        <v>0.5335</v>
+        <v>0.1075</v>
       </c>
       <c r="G215" t="n">
-        <v>120216.6666666667</v>
+        <v>120276.6666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>118400</v>
+        <v>118700</v>
       </c>
       <c r="C216" t="n">
-        <v>118400</v>
+        <v>118600</v>
       </c>
       <c r="D216" t="n">
-        <v>118400</v>
+        <v>118700</v>
       </c>
       <c r="E216" t="n">
-        <v>118400</v>
+        <v>118600</v>
       </c>
       <c r="F216" t="n">
-        <v>0.3104</v>
+        <v>0.5335</v>
       </c>
       <c r="G216" t="n">
-        <v>120153.3333333333</v>
+        <v>120216.6666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>118800</v>
+        <v>118400</v>
       </c>
       <c r="C217" t="n">
-        <v>118800</v>
+        <v>118400</v>
       </c>
       <c r="D217" t="n">
-        <v>118800</v>
+        <v>118400</v>
       </c>
       <c r="E217" t="n">
-        <v>118800</v>
+        <v>118400</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0102</v>
+        <v>0.3104</v>
       </c>
       <c r="G217" t="n">
-        <v>120106.6666666667</v>
+        <v>120153.3333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>118400</v>
+        <v>118800</v>
       </c>
       <c r="C218" t="n">
-        <v>118400</v>
+        <v>118800</v>
       </c>
       <c r="D218" t="n">
-        <v>118400</v>
+        <v>118800</v>
       </c>
       <c r="E218" t="n">
-        <v>118400</v>
+        <v>118800</v>
       </c>
       <c r="F218" t="n">
-        <v>0.3271</v>
+        <v>0.0102</v>
       </c>
       <c r="G218" t="n">
-        <v>120066.6666666667</v>
+        <v>120106.6666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>118300</v>
+        <v>118400</v>
       </c>
       <c r="C219" t="n">
-        <v>118300</v>
+        <v>118400</v>
       </c>
       <c r="D219" t="n">
-        <v>118300</v>
+        <v>118400</v>
       </c>
       <c r="E219" t="n">
-        <v>118300</v>
+        <v>118400</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0076</v>
+        <v>0.3271</v>
       </c>
       <c r="G219" t="n">
-        <v>120021.6666666667</v>
+        <v>120066.6666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>118200</v>
+        <v>118300</v>
       </c>
       <c r="C220" t="n">
-        <v>118000</v>
+        <v>118300</v>
       </c>
       <c r="D220" t="n">
-        <v>118200</v>
+        <v>118300</v>
       </c>
       <c r="E220" t="n">
-        <v>118000</v>
+        <v>118300</v>
       </c>
       <c r="F220" t="n">
-        <v>2.7917</v>
+        <v>0.0076</v>
       </c>
       <c r="G220" t="n">
-        <v>119948.3333333333</v>
+        <v>120021.6666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>118400</v>
+        <v>118200</v>
       </c>
       <c r="C221" t="n">
-        <v>118600</v>
+        <v>118000</v>
       </c>
       <c r="D221" t="n">
-        <v>118600</v>
+        <v>118200</v>
       </c>
       <c r="E221" t="n">
-        <v>118400</v>
+        <v>118000</v>
       </c>
       <c r="F221" t="n">
-        <v>0.1731</v>
+        <v>2.7917</v>
       </c>
       <c r="G221" t="n">
-        <v>119900</v>
+        <v>119948.3333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>118500</v>
+        <v>118400</v>
       </c>
       <c r="C222" t="n">
-        <v>118500</v>
+        <v>118600</v>
       </c>
       <c r="D222" t="n">
-        <v>118500</v>
+        <v>118600</v>
       </c>
       <c r="E222" t="n">
-        <v>118500</v>
+        <v>118400</v>
       </c>
       <c r="F222" t="n">
-        <v>0.05</v>
+        <v>0.1731</v>
       </c>
       <c r="G222" t="n">
-        <v>119841.6666666667</v>
+        <v>119900</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>118100</v>
+        <v>118500</v>
       </c>
       <c r="C223" t="n">
-        <v>118000</v>
+        <v>118500</v>
       </c>
       <c r="D223" t="n">
-        <v>118100</v>
+        <v>118500</v>
       </c>
       <c r="E223" t="n">
-        <v>118000</v>
+        <v>118500</v>
       </c>
       <c r="F223" t="n">
-        <v>13.9</v>
+        <v>0.05</v>
       </c>
       <c r="G223" t="n">
-        <v>119790</v>
+        <v>119841.6666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>118100</v>
+      </c>
+      <c r="C224" t="n">
         <v>118000</v>
       </c>
-      <c r="C224" t="n">
-        <v>117800</v>
-      </c>
       <c r="D224" t="n">
+        <v>118100</v>
+      </c>
+      <c r="E224" t="n">
         <v>118000</v>
       </c>
-      <c r="E224" t="n">
-        <v>116900</v>
-      </c>
       <c r="F224" t="n">
-        <v>36.1192</v>
+        <v>13.9</v>
       </c>
       <c r="G224" t="n">
-        <v>119738.3333333333</v>
+        <v>119790</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>116800</v>
+        <v>118000</v>
       </c>
       <c r="C225" t="n">
-        <v>115800</v>
+        <v>117800</v>
       </c>
       <c r="D225" t="n">
-        <v>116800</v>
+        <v>118000</v>
       </c>
       <c r="E225" t="n">
-        <v>115800</v>
+        <v>116900</v>
       </c>
       <c r="F225" t="n">
-        <v>7.8471</v>
+        <v>36.1192</v>
       </c>
       <c r="G225" t="n">
-        <v>119668.3333333333</v>
+        <v>119738.3333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>115700</v>
+        <v>116800</v>
       </c>
       <c r="C226" t="n">
-        <v>114600</v>
+        <v>115800</v>
       </c>
       <c r="D226" t="n">
-        <v>116600</v>
+        <v>116800</v>
       </c>
       <c r="E226" t="n">
-        <v>114600</v>
+        <v>115800</v>
       </c>
       <c r="F226" t="n">
-        <v>60.3134</v>
+        <v>7.8471</v>
       </c>
       <c r="G226" t="n">
-        <v>119550</v>
+        <v>119668.3333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>115700</v>
+      </c>
+      <c r="C227" t="n">
         <v>114600</v>
       </c>
-      <c r="C227" t="n">
-        <v>115100</v>
-      </c>
       <c r="D227" t="n">
-        <v>115100</v>
+        <v>116600</v>
       </c>
       <c r="E227" t="n">
-        <v>114000</v>
+        <v>114600</v>
       </c>
       <c r="F227" t="n">
-        <v>4.3656</v>
+        <v>60.3134</v>
       </c>
       <c r="G227" t="n">
-        <v>119451.6666666667</v>
+        <v>119550</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>115700</v>
+        <v>114600</v>
       </c>
       <c r="C228" t="n">
-        <v>115700</v>
+        <v>115100</v>
       </c>
       <c r="D228" t="n">
-        <v>115700</v>
+        <v>115100</v>
       </c>
       <c r="E228" t="n">
-        <v>115700</v>
+        <v>114000</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0231</v>
+        <v>4.3656</v>
       </c>
       <c r="G228" t="n">
-        <v>119371.6666666667</v>
+        <v>119451.6666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>115600</v>
+        <v>115700</v>
       </c>
       <c r="C229" t="n">
-        <v>115800</v>
+        <v>115700</v>
       </c>
       <c r="D229" t="n">
-        <v>115800</v>
+        <v>115700</v>
       </c>
       <c r="E229" t="n">
-        <v>115600</v>
+        <v>115700</v>
       </c>
       <c r="F229" t="n">
-        <v>2.4231</v>
+        <v>0.0231</v>
       </c>
       <c r="G229" t="n">
-        <v>119300</v>
+        <v>119371.6666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
+        <v>115600</v>
+      </c>
+      <c r="C230" t="n">
         <v>115800</v>
       </c>
-      <c r="C230" t="n">
-        <v>118000</v>
-      </c>
       <c r="D230" t="n">
-        <v>118000</v>
+        <v>115800</v>
       </c>
       <c r="E230" t="n">
-        <v>115800</v>
+        <v>115600</v>
       </c>
       <c r="F230" t="n">
-        <v>0.19</v>
+        <v>2.4231</v>
       </c>
       <c r="G230" t="n">
-        <v>119255</v>
+        <v>119300</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>115000</v>
+        <v>115800</v>
       </c>
       <c r="C231" t="n">
-        <v>115000</v>
+        <v>118000</v>
       </c>
       <c r="D231" t="n">
-        <v>115000</v>
+        <v>118000</v>
       </c>
       <c r="E231" t="n">
-        <v>115000</v>
+        <v>115800</v>
       </c>
       <c r="F231" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="G231" t="n">
-        <v>119146.6666666667</v>
+        <v>119255</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="C232" t="n">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="D232" t="n">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="E232" t="n">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="F232" t="n">
-        <v>12.5199</v>
+        <v>0.02</v>
       </c>
       <c r="G232" t="n">
-        <v>119026.6666666667</v>
+        <v>119146.6666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>115300</v>
+        <v>114400</v>
       </c>
       <c r="C233" t="n">
-        <v>114700</v>
+        <v>114400</v>
       </c>
       <c r="D233" t="n">
-        <v>115300</v>
+        <v>114400</v>
       </c>
       <c r="E233" t="n">
-        <v>114700</v>
+        <v>114400</v>
       </c>
       <c r="F233" t="n">
-        <v>5.0907</v>
+        <v>12.5199</v>
       </c>
       <c r="G233" t="n">
-        <v>118911.6666666667</v>
+        <v>119026.6666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>114900</v>
+        <v>115300</v>
       </c>
       <c r="C234" t="n">
-        <v>114800</v>
+        <v>114700</v>
       </c>
       <c r="D234" t="n">
-        <v>114900</v>
+        <v>115300</v>
       </c>
       <c r="E234" t="n">
-        <v>114800</v>
+        <v>114700</v>
       </c>
       <c r="F234" t="n">
-        <v>2.9482</v>
+        <v>5.0907</v>
       </c>
       <c r="G234" t="n">
-        <v>118801.6666666667</v>
+        <v>118911.6666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8588,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>114300</v>
+        <v>114900</v>
       </c>
       <c r="C235" t="n">
-        <v>114300</v>
+        <v>114800</v>
       </c>
       <c r="D235" t="n">
-        <v>114300</v>
+        <v>114900</v>
       </c>
       <c r="E235" t="n">
-        <v>114300</v>
+        <v>114800</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0078</v>
+        <v>2.9482</v>
       </c>
       <c r="G235" t="n">
-        <v>118683.3333333333</v>
+        <v>118801.6666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8635,10 +8635,10 @@
         <v>114300</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0097</v>
+        <v>0.0078</v>
       </c>
       <c r="G236" t="n">
-        <v>118565</v>
+        <v>118683.3333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>113800</v>
+        <v>114300</v>
       </c>
       <c r="C237" t="n">
-        <v>113600</v>
+        <v>114300</v>
       </c>
       <c r="D237" t="n">
-        <v>113800</v>
+        <v>114300</v>
       </c>
       <c r="E237" t="n">
-        <v>113600</v>
+        <v>114300</v>
       </c>
       <c r="F237" t="n">
-        <v>1.3947</v>
+        <v>0.0097</v>
       </c>
       <c r="G237" t="n">
-        <v>118440</v>
+        <v>118565</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>113700</v>
+        <v>113800</v>
       </c>
       <c r="C238" t="n">
-        <v>112800</v>
+        <v>113600</v>
       </c>
       <c r="D238" t="n">
-        <v>113700</v>
+        <v>113800</v>
       </c>
       <c r="E238" t="n">
-        <v>112800</v>
+        <v>113600</v>
       </c>
       <c r="F238" t="n">
-        <v>2.4918</v>
+        <v>1.3947</v>
       </c>
       <c r="G238" t="n">
-        <v>118313.3333333333</v>
+        <v>118440</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>112100</v>
+        <v>113700</v>
       </c>
       <c r="C239" t="n">
-        <v>112100</v>
+        <v>112800</v>
       </c>
       <c r="D239" t="n">
-        <v>112100</v>
+        <v>113700</v>
       </c>
       <c r="E239" t="n">
-        <v>112100</v>
+        <v>112800</v>
       </c>
       <c r="F239" t="n">
-        <v>50.9264</v>
+        <v>2.4918</v>
       </c>
       <c r="G239" t="n">
-        <v>118181.6666666667</v>
+        <v>118313.3333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>112800</v>
+        <v>112100</v>
       </c>
       <c r="C240" t="n">
-        <v>112200</v>
+        <v>112100</v>
       </c>
       <c r="D240" t="n">
-        <v>112800</v>
+        <v>112100</v>
       </c>
       <c r="E240" t="n">
-        <v>111900</v>
+        <v>112100</v>
       </c>
       <c r="F240" t="n">
-        <v>6.3282</v>
+        <v>50.9264</v>
       </c>
       <c r="G240" t="n">
-        <v>118058.3333333333</v>
+        <v>118181.6666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>112100</v>
+        <v>112800</v>
       </c>
       <c r="C241" t="n">
-        <v>111600</v>
+        <v>112200</v>
       </c>
       <c r="D241" t="n">
-        <v>112100</v>
+        <v>112800</v>
       </c>
       <c r="E241" t="n">
-        <v>111600</v>
+        <v>111900</v>
       </c>
       <c r="F241" t="n">
-        <v>24.1545</v>
+        <v>6.3282</v>
       </c>
       <c r="G241" t="n">
-        <v>117921.6666666667</v>
+        <v>118058.3333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>111600</v>
+        <v>112100</v>
       </c>
       <c r="C242" t="n">
         <v>111600</v>
       </c>
       <c r="D242" t="n">
-        <v>111600</v>
+        <v>112100</v>
       </c>
       <c r="E242" t="n">
         <v>111600</v>
       </c>
       <c r="F242" t="n">
-        <v>0.3306</v>
+        <v>24.1545</v>
       </c>
       <c r="G242" t="n">
-        <v>117788.3333333333</v>
+        <v>117921.6666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>111700</v>
+        <v>111600</v>
       </c>
       <c r="C243" t="n">
-        <v>111700</v>
+        <v>111600</v>
       </c>
       <c r="D243" t="n">
-        <v>111700</v>
+        <v>111600</v>
       </c>
       <c r="E243" t="n">
-        <v>111700</v>
+        <v>111600</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0251</v>
+        <v>0.3306</v>
       </c>
       <c r="G243" t="n">
-        <v>117658.3333333333</v>
+        <v>117788.3333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +8903,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>111500</v>
+        <v>111700</v>
       </c>
       <c r="C244" t="n">
-        <v>111000</v>
+        <v>111700</v>
       </c>
       <c r="D244" t="n">
-        <v>111500</v>
+        <v>111700</v>
       </c>
       <c r="E244" t="n">
-        <v>111000</v>
+        <v>111700</v>
       </c>
       <c r="F244" t="n">
-        <v>3.9523</v>
+        <v>0.0251</v>
       </c>
       <c r="G244" t="n">
-        <v>117533.3333333333</v>
+        <v>117658.3333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +8938,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>111400</v>
+        <v>111500</v>
       </c>
       <c r="C245" t="n">
-        <v>111100</v>
+        <v>111000</v>
       </c>
       <c r="D245" t="n">
         <v>111500</v>
       </c>
       <c r="E245" t="n">
-        <v>111100</v>
+        <v>111000</v>
       </c>
       <c r="F245" t="n">
-        <v>58.9669</v>
+        <v>3.9523</v>
       </c>
       <c r="G245" t="n">
-        <v>117401.6666666667</v>
+        <v>117533.3333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>111100</v>
+        <v>111400</v>
       </c>
       <c r="C246" t="n">
         <v>111100</v>
       </c>
       <c r="D246" t="n">
-        <v>111100</v>
+        <v>111500</v>
       </c>
       <c r="E246" t="n">
         <v>111100</v>
       </c>
       <c r="F246" t="n">
-        <v>28.3951</v>
+        <v>58.9669</v>
       </c>
       <c r="G246" t="n">
-        <v>117278.3333333333</v>
+        <v>117401.6666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>111100</v>
       </c>
       <c r="F247" t="n">
-        <v>42.9572</v>
+        <v>28.3951</v>
       </c>
       <c r="G247" t="n">
-        <v>117150</v>
+        <v>117278.3333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9043,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>112900</v>
+        <v>111100</v>
       </c>
       <c r="C248" t="n">
-        <v>113600</v>
+        <v>111100</v>
       </c>
       <c r="D248" t="n">
-        <v>113600</v>
+        <v>111100</v>
       </c>
       <c r="E248" t="n">
-        <v>112900</v>
+        <v>111100</v>
       </c>
       <c r="F248" t="n">
-        <v>9.815799999999999</v>
+        <v>42.9572</v>
       </c>
       <c r="G248" t="n">
-        <v>117065</v>
+        <v>117150</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9081,19 +9081,19 @@
         <v>112900</v>
       </c>
       <c r="C249" t="n">
-        <v>114000</v>
+        <v>113600</v>
       </c>
       <c r="D249" t="n">
-        <v>114000</v>
+        <v>113600</v>
       </c>
       <c r="E249" t="n">
         <v>112900</v>
       </c>
       <c r="F249" t="n">
-        <v>21.3578</v>
+        <v>9.815799999999999</v>
       </c>
       <c r="G249" t="n">
-        <v>116986.6666666667</v>
+        <v>117065</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9113,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>114200</v>
+        <v>112900</v>
       </c>
       <c r="C250" t="n">
-        <v>114100</v>
+        <v>114000</v>
       </c>
       <c r="D250" t="n">
-        <v>114200</v>
+        <v>114000</v>
       </c>
       <c r="E250" t="n">
-        <v>113900</v>
+        <v>112900</v>
       </c>
       <c r="F250" t="n">
-        <v>23.7829</v>
+        <v>21.3578</v>
       </c>
       <c r="G250" t="n">
-        <v>116910</v>
+        <v>116986.6666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>113300</v>
+        <v>114200</v>
       </c>
       <c r="C251" t="n">
-        <v>113800</v>
+        <v>114100</v>
       </c>
       <c r="D251" t="n">
-        <v>113800</v>
+        <v>114200</v>
       </c>
       <c r="E251" t="n">
-        <v>113300</v>
+        <v>113900</v>
       </c>
       <c r="F251" t="n">
-        <v>0.1881</v>
+        <v>23.7829</v>
       </c>
       <c r="G251" t="n">
-        <v>116821.6666666667</v>
+        <v>116910</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,22 +9183,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>114000</v>
+        <v>113300</v>
       </c>
       <c r="C252" t="n">
-        <v>114000</v>
+        <v>113800</v>
       </c>
       <c r="D252" t="n">
-        <v>114000</v>
+        <v>113800</v>
       </c>
       <c r="E252" t="n">
-        <v>114000</v>
+        <v>113300</v>
       </c>
       <c r="F252" t="n">
-        <v>0.05</v>
+        <v>0.1881</v>
       </c>
       <c r="G252" t="n">
-        <v>116731.6666666667</v>
+        <v>116821.6666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9230,10 +9230,10 @@
         <v>114000</v>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="G253" t="n">
-        <v>116641.6666666667</v>
+        <v>116731.6666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,22 +9253,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>114100</v>
+        <v>114000</v>
       </c>
       <c r="C254" t="n">
-        <v>114100</v>
+        <v>114000</v>
       </c>
       <c r="D254" t="n">
-        <v>114100</v>
+        <v>114000</v>
       </c>
       <c r="E254" t="n">
-        <v>114100</v>
+        <v>114000</v>
       </c>
       <c r="F254" t="n">
-        <v>0.4371</v>
+        <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>116553.3333333333</v>
+        <v>116641.6666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9291,19 +9291,19 @@
         <v>114100</v>
       </c>
       <c r="C255" t="n">
-        <v>114300</v>
+        <v>114100</v>
       </c>
       <c r="D255" t="n">
-        <v>114300</v>
+        <v>114100</v>
       </c>
       <c r="E255" t="n">
         <v>114100</v>
       </c>
       <c r="F255" t="n">
-        <v>9.773</v>
+        <v>0.4371</v>
       </c>
       <c r="G255" t="n">
-        <v>116443.3333333333</v>
+        <v>116553.3333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>114300</v>
+        <v>114100</v>
       </c>
       <c r="C256" t="n">
         <v>114300</v>
       </c>
       <c r="D256" t="n">
-        <v>114400</v>
+        <v>114300</v>
       </c>
       <c r="E256" t="n">
-        <v>114300</v>
+        <v>114100</v>
       </c>
       <c r="F256" t="n">
-        <v>5.8479</v>
+        <v>9.773</v>
       </c>
       <c r="G256" t="n">
-        <v>116348.3333333333</v>
+        <v>116443.3333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>114100</v>
+        <v>114300</v>
       </c>
       <c r="C257" t="n">
         <v>114300</v>
@@ -9367,13 +9367,13 @@
         <v>114400</v>
       </c>
       <c r="E257" t="n">
-        <v>114100</v>
+        <v>114300</v>
       </c>
       <c r="F257" t="n">
-        <v>59.5401</v>
+        <v>5.8479</v>
       </c>
       <c r="G257" t="n">
-        <v>116235</v>
+        <v>116348.3333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>114400</v>
+        <v>114100</v>
       </c>
       <c r="C258" t="n">
         <v>114300</v>
@@ -9402,13 +9402,13 @@
         <v>114400</v>
       </c>
       <c r="E258" t="n">
-        <v>114300</v>
+        <v>114100</v>
       </c>
       <c r="F258" t="n">
-        <v>6.2845</v>
+        <v>59.5401</v>
       </c>
       <c r="G258" t="n">
-        <v>116121.6666666667</v>
+        <v>116235</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>113500</v>
+        <v>114400</v>
       </c>
       <c r="C259" t="n">
-        <v>113500</v>
+        <v>114300</v>
       </c>
       <c r="D259" t="n">
-        <v>113500</v>
+        <v>114400</v>
       </c>
       <c r="E259" t="n">
-        <v>113500</v>
+        <v>114300</v>
       </c>
       <c r="F259" t="n">
-        <v>7.1724</v>
+        <v>6.2845</v>
       </c>
       <c r="G259" t="n">
-        <v>116006.6666666667</v>
+        <v>116121.6666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>112900</v>
+        <v>113500</v>
       </c>
       <c r="C260" t="n">
-        <v>112100</v>
+        <v>113500</v>
       </c>
       <c r="D260" t="n">
-        <v>112900</v>
+        <v>113500</v>
       </c>
       <c r="E260" t="n">
-        <v>112100</v>
+        <v>113500</v>
       </c>
       <c r="F260" t="n">
-        <v>2</v>
+        <v>7.1724</v>
       </c>
       <c r="G260" t="n">
-        <v>115876.6666666667</v>
+        <v>116006.6666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,22 +9498,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>112100</v>
+        <v>112900</v>
       </c>
       <c r="C261" t="n">
         <v>112100</v>
       </c>
       <c r="D261" t="n">
-        <v>112100</v>
+        <v>112900</v>
       </c>
       <c r="E261" t="n">
         <v>112100</v>
       </c>
       <c r="F261" t="n">
-        <v>7.1635</v>
+        <v>2</v>
       </c>
       <c r="G261" t="n">
-        <v>115735</v>
+        <v>115876.6666666667</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9533,22 +9533,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>112700</v>
+        <v>112100</v>
       </c>
       <c r="C262" t="n">
-        <v>112700</v>
+        <v>112100</v>
       </c>
       <c r="D262" t="n">
-        <v>112700</v>
+        <v>112100</v>
       </c>
       <c r="E262" t="n">
-        <v>112700</v>
+        <v>112100</v>
       </c>
       <c r="F262" t="n">
-        <v>0.8</v>
+        <v>7.1635</v>
       </c>
       <c r="G262" t="n">
-        <v>115608.3333333333</v>
+        <v>115735</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9568,22 +9568,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>112600</v>
+        <v>112700</v>
       </c>
       <c r="C263" t="n">
-        <v>112600</v>
+        <v>112700</v>
       </c>
       <c r="D263" t="n">
-        <v>112800</v>
+        <v>112700</v>
       </c>
       <c r="E263" t="n">
-        <v>112500</v>
+        <v>112700</v>
       </c>
       <c r="F263" t="n">
-        <v>25.6059</v>
+        <v>0.8</v>
       </c>
       <c r="G263" t="n">
-        <v>115490</v>
+        <v>115608.3333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9603,22 +9603,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>112100</v>
+        <v>112600</v>
       </c>
       <c r="C264" t="n">
-        <v>112100</v>
+        <v>112600</v>
       </c>
       <c r="D264" t="n">
-        <v>112100</v>
+        <v>112800</v>
       </c>
       <c r="E264" t="n">
-        <v>112100</v>
+        <v>112500</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0465</v>
+        <v>25.6059</v>
       </c>
       <c r="G264" t="n">
-        <v>115360</v>
+        <v>115490</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>112000</v>
+        <v>112100</v>
       </c>
       <c r="C265" t="n">
-        <v>112000</v>
+        <v>112100</v>
       </c>
       <c r="D265" t="n">
-        <v>112000</v>
+        <v>112100</v>
       </c>
       <c r="E265" t="n">
-        <v>112000</v>
+        <v>112100</v>
       </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>0.0465</v>
       </c>
       <c r="G265" t="n">
-        <v>115231.6666666667</v>
+        <v>115360</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,22 +9673,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>111800</v>
+        <v>112000</v>
       </c>
       <c r="C266" t="n">
-        <v>111400</v>
+        <v>112000</v>
       </c>
       <c r="D266" t="n">
-        <v>111800</v>
+        <v>112000</v>
       </c>
       <c r="E266" t="n">
-        <v>111400</v>
+        <v>112000</v>
       </c>
       <c r="F266" t="n">
-        <v>0.2987</v>
+        <v>1</v>
       </c>
       <c r="G266" t="n">
-        <v>115093.3333333333</v>
+        <v>115231.6666666667</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9708,22 +9708,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
+        <v>111800</v>
+      </c>
+      <c r="C267" t="n">
         <v>111400</v>
       </c>
-      <c r="C267" t="n">
-        <v>110900</v>
-      </c>
       <c r="D267" t="n">
+        <v>111800</v>
+      </c>
+      <c r="E267" t="n">
         <v>111400</v>
       </c>
-      <c r="E267" t="n">
-        <v>110900</v>
-      </c>
       <c r="F267" t="n">
-        <v>0.26973525</v>
+        <v>0.2987</v>
       </c>
       <c r="G267" t="n">
-        <v>114951.6666666667</v>
+        <v>115093.3333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9743,22 +9743,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>110800</v>
+        <v>111400</v>
       </c>
       <c r="C268" t="n">
-        <v>110800</v>
+        <v>110900</v>
       </c>
       <c r="D268" t="n">
-        <v>110800</v>
+        <v>111400</v>
       </c>
       <c r="E268" t="n">
-        <v>110800</v>
+        <v>110900</v>
       </c>
       <c r="F268" t="n">
-        <v>16.4103</v>
+        <v>0.26973525</v>
       </c>
       <c r="G268" t="n">
-        <v>114808.3333333333</v>
+        <v>114951.6666666667</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>110300</v>
+        <v>110800</v>
       </c>
       <c r="C269" t="n">
-        <v>110500</v>
+        <v>110800</v>
       </c>
       <c r="D269" t="n">
-        <v>110500</v>
+        <v>110800</v>
       </c>
       <c r="E269" t="n">
-        <v>110200</v>
+        <v>110800</v>
       </c>
       <c r="F269" t="n">
-        <v>0.2065</v>
+        <v>16.4103</v>
       </c>
       <c r="G269" t="n">
-        <v>114650</v>
+        <v>114808.3333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9813,22 +9813,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>110100</v>
+        <v>110300</v>
       </c>
       <c r="C270" t="n">
-        <v>109500</v>
+        <v>110500</v>
       </c>
       <c r="D270" t="n">
-        <v>110100</v>
+        <v>110500</v>
       </c>
       <c r="E270" t="n">
-        <v>109500</v>
+        <v>110200</v>
       </c>
       <c r="F270" t="n">
-        <v>14.1756</v>
+        <v>0.2065</v>
       </c>
       <c r="G270" t="n">
-        <v>114475</v>
+        <v>114650</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9848,22 +9848,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>109200</v>
+        <v>110100</v>
       </c>
       <c r="C271" t="n">
-        <v>108600</v>
+        <v>109500</v>
       </c>
       <c r="D271" t="n">
-        <v>109200</v>
+        <v>110100</v>
       </c>
       <c r="E271" t="n">
-        <v>108600</v>
+        <v>109500</v>
       </c>
       <c r="F271" t="n">
-        <v>2.5092</v>
+        <v>14.1756</v>
       </c>
       <c r="G271" t="n">
-        <v>114281.6666666667</v>
+        <v>114475</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
+        <v>109200</v>
+      </c>
+      <c r="C272" t="n">
         <v>108600</v>
       </c>
-      <c r="C272" t="n">
-        <v>107600</v>
-      </c>
       <c r="D272" t="n">
+        <v>109200</v>
+      </c>
+      <c r="E272" t="n">
         <v>108600</v>
       </c>
-      <c r="E272" t="n">
-        <v>107600</v>
-      </c>
       <c r="F272" t="n">
-        <v>32.2416</v>
+        <v>2.5092</v>
       </c>
       <c r="G272" t="n">
-        <v>114086.6666666667</v>
+        <v>114281.6666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9918,22 +9918,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
+        <v>108600</v>
+      </c>
+      <c r="C273" t="n">
         <v>107600</v>
       </c>
-      <c r="C273" t="n">
-        <v>106500</v>
-      </c>
       <c r="D273" t="n">
+        <v>108600</v>
+      </c>
+      <c r="E273" t="n">
         <v>107600</v>
       </c>
-      <c r="E273" t="n">
-        <v>106000</v>
-      </c>
       <c r="F273" t="n">
-        <v>27.7768</v>
+        <v>32.2416</v>
       </c>
       <c r="G273" t="n">
-        <v>113875</v>
+        <v>114086.6666666667</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>106500</v>
+        <v>107600</v>
       </c>
       <c r="C274" t="n">
         <v>106500</v>
       </c>
       <c r="D274" t="n">
-        <v>106500</v>
+        <v>107600</v>
       </c>
       <c r="E274" t="n">
-        <v>106500</v>
+        <v>106000</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0057</v>
+        <v>27.7768</v>
       </c>
       <c r="G274" t="n">
-        <v>113666.6666666667</v>
+        <v>113875</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9988,22 +9988,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>106400</v>
+        <v>106500</v>
       </c>
       <c r="C275" t="n">
-        <v>106300</v>
+        <v>106500</v>
       </c>
       <c r="D275" t="n">
-        <v>106400</v>
+        <v>106500</v>
       </c>
       <c r="E275" t="n">
-        <v>106300</v>
+        <v>106500</v>
       </c>
       <c r="F275" t="n">
-        <v>17.3577</v>
+        <v>0.0057</v>
       </c>
       <c r="G275" t="n">
-        <v>113461.6666666667</v>
+        <v>113666.6666666667</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10023,22 +10023,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>106800</v>
+        <v>106400</v>
       </c>
       <c r="C276" t="n">
-        <v>107400</v>
+        <v>106300</v>
       </c>
       <c r="D276" t="n">
-        <v>107400</v>
+        <v>106400</v>
       </c>
       <c r="E276" t="n">
-        <v>106800</v>
+        <v>106300</v>
       </c>
       <c r="F276" t="n">
-        <v>8.6433</v>
+        <v>17.3577</v>
       </c>
       <c r="G276" t="n">
-        <v>113278.3333333333</v>
+        <v>113461.6666666667</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10058,22 +10058,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>107200</v>
+        <v>106800</v>
       </c>
       <c r="C277" t="n">
-        <v>107600</v>
+        <v>107400</v>
       </c>
       <c r="D277" t="n">
-        <v>107600</v>
+        <v>107400</v>
       </c>
       <c r="E277" t="n">
-        <v>107200</v>
+        <v>106800</v>
       </c>
       <c r="F277" t="n">
-        <v>15.5488</v>
+        <v>8.6433</v>
       </c>
       <c r="G277" t="n">
-        <v>113091.6666666667</v>
+        <v>113278.3333333333</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10096,19 +10096,19 @@
         <v>107200</v>
       </c>
       <c r="C278" t="n">
-        <v>107300</v>
+        <v>107600</v>
       </c>
       <c r="D278" t="n">
-        <v>107300</v>
+        <v>107600</v>
       </c>
       <c r="E278" t="n">
         <v>107200</v>
       </c>
       <c r="F278" t="n">
-        <v>18.826</v>
+        <v>15.5488</v>
       </c>
       <c r="G278" t="n">
-        <v>112906.6666666667</v>
+        <v>113091.6666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10128,22 +10128,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
+        <v>107200</v>
+      </c>
+      <c r="C279" t="n">
         <v>107300</v>
       </c>
-      <c r="C279" t="n">
-        <v>107600</v>
-      </c>
       <c r="D279" t="n">
-        <v>107600</v>
+        <v>107300</v>
       </c>
       <c r="E279" t="n">
-        <v>107300</v>
+        <v>107200</v>
       </c>
       <c r="F279" t="n">
-        <v>1.6662</v>
+        <v>18.826</v>
       </c>
       <c r="G279" t="n">
-        <v>112728.3333333333</v>
+        <v>112906.6666666667</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>107600</v>
+        <v>107300</v>
       </c>
       <c r="C280" t="n">
         <v>107600</v>
@@ -10175,10 +10175,10 @@
         <v>107300</v>
       </c>
       <c r="F280" t="n">
-        <v>22.5857</v>
+        <v>1.6662</v>
       </c>
       <c r="G280" t="n">
-        <v>112555</v>
+        <v>112728.3333333333</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10198,35 +10198,31 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>108000</v>
+        <v>107600</v>
       </c>
       <c r="C281" t="n">
-        <v>108100</v>
+        <v>107600</v>
       </c>
       <c r="D281" t="n">
-        <v>108100</v>
+        <v>107600</v>
       </c>
       <c r="E281" t="n">
-        <v>108000</v>
+        <v>107300</v>
       </c>
       <c r="F281" t="n">
-        <v>29.5322</v>
+        <v>22.5857</v>
       </c>
       <c r="G281" t="n">
-        <v>112380</v>
+        <v>112555</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>107600</v>
-      </c>
-      <c r="K281" t="n">
-        <v>107600</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
@@ -10237,40 +10233,32 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>107900</v>
+        <v>108000</v>
       </c>
       <c r="C282" t="n">
+        <v>108100</v>
+      </c>
+      <c r="D282" t="n">
+        <v>108100</v>
+      </c>
+      <c r="E282" t="n">
         <v>108000</v>
       </c>
-      <c r="D282" t="n">
-        <v>108000</v>
-      </c>
-      <c r="E282" t="n">
-        <v>107900</v>
-      </c>
       <c r="F282" t="n">
-        <v>5.7</v>
+        <v>29.5322</v>
       </c>
       <c r="G282" t="n">
-        <v>112205</v>
+        <v>112380</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>108100</v>
-      </c>
-      <c r="K282" t="n">
-        <v>107600</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10280,40 +10268,32 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
+        <v>107900</v>
+      </c>
+      <c r="C283" t="n">
         <v>108000</v>
       </c>
-      <c r="C283" t="n">
-        <v>108500</v>
-      </c>
       <c r="D283" t="n">
-        <v>108500</v>
+        <v>108000</v>
       </c>
       <c r="E283" t="n">
-        <v>108000</v>
+        <v>107900</v>
       </c>
       <c r="F283" t="n">
-        <v>13.9305</v>
+        <v>5.7</v>
       </c>
       <c r="G283" t="n">
-        <v>112046.6666666667</v>
+        <v>112205</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>108000</v>
-      </c>
-      <c r="K283" t="n">
-        <v>107600</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10323,7 +10303,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>108500</v>
+        <v>108000</v>
       </c>
       <c r="C284" t="n">
         <v>108500</v>
@@ -10332,13 +10312,13 @@
         <v>108500</v>
       </c>
       <c r="E284" t="n">
-        <v>108500</v>
+        <v>108000</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0231</v>
+        <v>13.9305</v>
       </c>
       <c r="G284" t="n">
-        <v>111891.6666666667</v>
+        <v>112046.6666666667</v>
       </c>
       <c r="H284" t="n">
         <v>1</v>
@@ -10347,12 +10327,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>108500</v>
-      </c>
-      <c r="K284" t="n">
-        <v>108500</v>
-      </c>
-      <c r="L284" t="inlineStr"/>
+        <v>108000</v>
+      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10362,22 +10344,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>109200</v>
+        <v>108500</v>
       </c>
       <c r="C285" t="n">
-        <v>109200</v>
+        <v>108500</v>
       </c>
       <c r="D285" t="n">
-        <v>109200</v>
+        <v>108500</v>
       </c>
       <c r="E285" t="n">
-        <v>109200</v>
+        <v>108500</v>
       </c>
       <c r="F285" t="n">
-        <v>0.4741</v>
+        <v>0.0231</v>
       </c>
       <c r="G285" t="n">
-        <v>111781.6666666667</v>
+        <v>111891.6666666667</v>
       </c>
       <c r="H285" t="n">
         <v>1</v>
@@ -10388,12 +10370,10 @@
       <c r="J285" t="n">
         <v>108500</v>
       </c>
-      <c r="K285" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M285" t="n">
@@ -10408,35 +10388,33 @@
         <v>109200</v>
       </c>
       <c r="C286" t="n">
-        <v>109600</v>
+        <v>109200</v>
       </c>
       <c r="D286" t="n">
-        <v>109600</v>
+        <v>109200</v>
       </c>
       <c r="E286" t="n">
+        <v>109200</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.4741</v>
+      </c>
+      <c r="G286" t="n">
+        <v>111781.6666666667</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
         <v>108500</v>
       </c>
-      <c r="F286" t="n">
-        <v>64.46769999999999</v>
-      </c>
-      <c r="G286" t="n">
-        <v>111698.3333333333</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="n">
-        <v>109200</v>
-      </c>
-      <c r="K286" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M286" t="n">
@@ -10448,35 +10426,31 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>109300</v>
+        <v>109200</v>
       </c>
       <c r="C287" t="n">
-        <v>109300</v>
+        <v>109600</v>
       </c>
       <c r="D287" t="n">
-        <v>109300</v>
+        <v>109600</v>
       </c>
       <c r="E287" t="n">
-        <v>109300</v>
+        <v>108500</v>
       </c>
       <c r="F287" t="n">
-        <v>0.6165</v>
+        <v>64.46769999999999</v>
       </c>
       <c r="G287" t="n">
-        <v>111601.6666666667</v>
+        <v>111698.3333333333</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>109600</v>
-      </c>
-      <c r="K287" t="n">
-        <v>108500</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10491,22 +10465,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>109200</v>
+        <v>109300</v>
       </c>
       <c r="C288" t="n">
-        <v>109400</v>
+        <v>109300</v>
       </c>
       <c r="D288" t="n">
-        <v>109400</v>
+        <v>109300</v>
       </c>
       <c r="E288" t="n">
-        <v>109200</v>
+        <v>109300</v>
       </c>
       <c r="F288" t="n">
-        <v>3.5224</v>
+        <v>0.6165</v>
       </c>
       <c r="G288" t="n">
-        <v>111496.6666666667</v>
+        <v>111601.6666666667</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10515,9 +10489,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10532,22 +10504,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>109400</v>
+        <v>109200</v>
       </c>
       <c r="C289" t="n">
         <v>109400</v>
       </c>
       <c r="D289" t="n">
-        <v>111000</v>
+        <v>109400</v>
       </c>
       <c r="E289" t="n">
-        <v>109400</v>
+        <v>109200</v>
       </c>
       <c r="F289" t="n">
-        <v>274.0144</v>
+        <v>3.5224</v>
       </c>
       <c r="G289" t="n">
-        <v>111390</v>
+        <v>111496.6666666667</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10556,9 +10528,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10573,22 +10543,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>110800</v>
+        <v>109400</v>
       </c>
       <c r="C290" t="n">
-        <v>110800</v>
+        <v>109400</v>
       </c>
       <c r="D290" t="n">
-        <v>110800</v>
+        <v>111000</v>
       </c>
       <c r="E290" t="n">
-        <v>110800</v>
+        <v>109400</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0619</v>
+        <v>274.0144</v>
       </c>
       <c r="G290" t="n">
-        <v>111270</v>
+        <v>111390</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10597,9 +10567,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10614,22 +10582,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>109900</v>
+        <v>110800</v>
       </c>
       <c r="C291" t="n">
-        <v>110600</v>
+        <v>110800</v>
       </c>
       <c r="D291" t="n">
-        <v>110600</v>
+        <v>110800</v>
       </c>
       <c r="E291" t="n">
-        <v>109600</v>
+        <v>110800</v>
       </c>
       <c r="F291" t="n">
-        <v>6.1468</v>
+        <v>0.0619</v>
       </c>
       <c r="G291" t="n">
-        <v>111196.6666666667</v>
+        <v>111270</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10638,9 +10606,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10658,19 +10624,19 @@
         <v>109900</v>
       </c>
       <c r="C292" t="n">
-        <v>110800</v>
+        <v>110600</v>
       </c>
       <c r="D292" t="n">
-        <v>110800</v>
+        <v>110600</v>
       </c>
       <c r="E292" t="n">
-        <v>109800</v>
+        <v>109600</v>
       </c>
       <c r="F292" t="n">
-        <v>6.0024</v>
+        <v>6.1468</v>
       </c>
       <c r="G292" t="n">
-        <v>111136.6666666667</v>
+        <v>111196.6666666667</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10679,9 +10645,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10696,33 +10660,31 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>109500</v>
+        <v>109900</v>
       </c>
       <c r="C293" t="n">
-        <v>109500</v>
+        <v>110800</v>
       </c>
       <c r="D293" t="n">
-        <v>109500</v>
+        <v>110800</v>
       </c>
       <c r="E293" t="n">
-        <v>109500</v>
+        <v>109800</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0329</v>
+        <v>6.0024</v>
       </c>
       <c r="G293" t="n">
-        <v>111050</v>
+        <v>111136.6666666667</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10740,19 +10702,19 @@
         <v>109500</v>
       </c>
       <c r="C294" t="n">
-        <v>110100</v>
+        <v>109500</v>
       </c>
       <c r="D294" t="n">
-        <v>110200</v>
+        <v>109500</v>
       </c>
       <c r="E294" t="n">
-        <v>109300</v>
+        <v>109500</v>
       </c>
       <c r="F294" t="n">
-        <v>44.8263</v>
+        <v>0.0329</v>
       </c>
       <c r="G294" t="n">
-        <v>110971.6666666667</v>
+        <v>111050</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10761,9 +10723,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10778,10 +10738,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>110200</v>
+        <v>109500</v>
       </c>
       <c r="C295" t="n">
-        <v>109300</v>
+        <v>110100</v>
       </c>
       <c r="D295" t="n">
         <v>110200</v>
@@ -10790,10 +10750,10 @@
         <v>109300</v>
       </c>
       <c r="F295" t="n">
-        <v>13.125</v>
+        <v>44.8263</v>
       </c>
       <c r="G295" t="n">
-        <v>110888.3333333333</v>
+        <v>110971.6666666667</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10802,9 +10762,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10819,22 +10777,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>109400</v>
+        <v>110200</v>
       </c>
       <c r="C296" t="n">
-        <v>109400</v>
+        <v>109300</v>
       </c>
       <c r="D296" t="n">
-        <v>109400</v>
+        <v>110200</v>
       </c>
       <c r="E296" t="n">
-        <v>109400</v>
+        <v>109300</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0579</v>
+        <v>13.125</v>
       </c>
       <c r="G296" t="n">
-        <v>110806.6666666667</v>
+        <v>110888.3333333333</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10843,9 +10801,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10860,22 +10816,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>110000</v>
+        <v>109400</v>
       </c>
       <c r="C297" t="n">
-        <v>109500</v>
+        <v>109400</v>
       </c>
       <c r="D297" t="n">
-        <v>110000</v>
+        <v>109400</v>
       </c>
       <c r="E297" t="n">
-        <v>109500</v>
+        <v>109400</v>
       </c>
       <c r="F297" t="n">
-        <v>1.012</v>
+        <v>0.0579</v>
       </c>
       <c r="G297" t="n">
-        <v>110738.3333333333</v>
+        <v>110806.6666666667</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10884,9 +10840,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10901,22 +10855,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>109600</v>
+        <v>110000</v>
       </c>
       <c r="C298" t="n">
-        <v>110300</v>
+        <v>109500</v>
       </c>
       <c r="D298" t="n">
-        <v>110300</v>
+        <v>110000</v>
       </c>
       <c r="E298" t="n">
         <v>109500</v>
       </c>
       <c r="F298" t="n">
-        <v>1.0771</v>
+        <v>1.012</v>
       </c>
       <c r="G298" t="n">
-        <v>110696.6666666667</v>
+        <v>110738.3333333333</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10925,9 +10879,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10945,19 +10897,19 @@
         <v>109600</v>
       </c>
       <c r="C299" t="n">
-        <v>109400</v>
+        <v>110300</v>
       </c>
       <c r="D299" t="n">
-        <v>109600</v>
+        <v>110300</v>
       </c>
       <c r="E299" t="n">
-        <v>109400</v>
+        <v>109500</v>
       </c>
       <c r="F299" t="n">
-        <v>9.472</v>
+        <v>1.0771</v>
       </c>
       <c r="G299" t="n">
-        <v>110651.6666666667</v>
+        <v>110696.6666666667</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10966,9 +10918,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10983,22 +10933,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>110300</v>
+        <v>109600</v>
       </c>
       <c r="C300" t="n">
-        <v>110300</v>
+        <v>109400</v>
       </c>
       <c r="D300" t="n">
-        <v>110300</v>
+        <v>109600</v>
       </c>
       <c r="E300" t="n">
-        <v>110300</v>
+        <v>109400</v>
       </c>
       <c r="F300" t="n">
-        <v>0.5</v>
+        <v>9.472</v>
       </c>
       <c r="G300" t="n">
-        <v>110620</v>
+        <v>110651.6666666667</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11007,9 +10957,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11024,22 +10972,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>109400</v>
+        <v>110300</v>
       </c>
       <c r="C301" t="n">
-        <v>109400</v>
+        <v>110300</v>
       </c>
       <c r="D301" t="n">
-        <v>109400</v>
+        <v>110300</v>
       </c>
       <c r="E301" t="n">
-        <v>109400</v>
+        <v>110300</v>
       </c>
       <c r="F301" t="n">
-        <v>1.7956</v>
+        <v>0.5</v>
       </c>
       <c r="G301" t="n">
-        <v>110583.3333333333</v>
+        <v>110620</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11048,9 +10996,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11065,22 +11011,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>109200</v>
+        <v>109400</v>
       </c>
       <c r="C302" t="n">
-        <v>109000</v>
+        <v>109400</v>
       </c>
       <c r="D302" t="n">
-        <v>109200</v>
+        <v>109400</v>
       </c>
       <c r="E302" t="n">
-        <v>108900</v>
+        <v>109400</v>
       </c>
       <c r="F302" t="n">
-        <v>45.6093</v>
+        <v>1.7956</v>
       </c>
       <c r="G302" t="n">
-        <v>110540</v>
+        <v>110583.3333333333</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11089,9 +11035,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11106,22 +11050,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
+        <v>109200</v>
+      </c>
+      <c r="C303" t="n">
+        <v>109000</v>
+      </c>
+      <c r="D303" t="n">
+        <v>109200</v>
+      </c>
+      <c r="E303" t="n">
         <v>108900</v>
       </c>
-      <c r="C303" t="n">
-        <v>108800</v>
-      </c>
-      <c r="D303" t="n">
-        <v>108900</v>
-      </c>
-      <c r="E303" t="n">
-        <v>108800</v>
-      </c>
       <c r="F303" t="n">
-        <v>4.1795</v>
+        <v>45.6093</v>
       </c>
       <c r="G303" t="n">
-        <v>110491.6666666667</v>
+        <v>110540</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11130,9 +11074,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11147,22 +11089,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>109200</v>
+        <v>108900</v>
       </c>
       <c r="C304" t="n">
-        <v>109200</v>
+        <v>108800</v>
       </c>
       <c r="D304" t="n">
-        <v>109200</v>
+        <v>108900</v>
       </c>
       <c r="E304" t="n">
-        <v>109200</v>
+        <v>108800</v>
       </c>
       <c r="F304" t="n">
-        <v>0.05086996</v>
+        <v>4.1795</v>
       </c>
       <c r="G304" t="n">
-        <v>110461.6666666667</v>
+        <v>110491.6666666667</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11171,9 +11113,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11188,22 +11128,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>108000</v>
+        <v>109200</v>
       </c>
       <c r="C305" t="n">
-        <v>108000</v>
+        <v>109200</v>
       </c>
       <c r="D305" t="n">
-        <v>108000</v>
+        <v>109200</v>
       </c>
       <c r="E305" t="n">
-        <v>108000</v>
+        <v>109200</v>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
+        <v>0.05086996</v>
       </c>
       <c r="G305" t="n">
-        <v>110410</v>
+        <v>110461.6666666667</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11212,9 +11152,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11229,22 +11167,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>107700</v>
+        <v>108000</v>
       </c>
       <c r="C306" t="n">
-        <v>107200</v>
+        <v>108000</v>
       </c>
       <c r="D306" t="n">
-        <v>107700</v>
+        <v>108000</v>
       </c>
       <c r="E306" t="n">
-        <v>107200</v>
+        <v>108000</v>
       </c>
       <c r="F306" t="n">
-        <v>4.814</v>
+        <v>1</v>
       </c>
       <c r="G306" t="n">
-        <v>110345</v>
+        <v>110410</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11253,9 +11191,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11270,22 +11206,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>108900</v>
+        <v>107700</v>
       </c>
       <c r="C307" t="n">
-        <v>108900</v>
+        <v>107200</v>
       </c>
       <c r="D307" t="n">
-        <v>108900</v>
+        <v>107700</v>
       </c>
       <c r="E307" t="n">
-        <v>108900</v>
+        <v>107200</v>
       </c>
       <c r="F307" t="n">
-        <v>0.7441</v>
+        <v>4.814</v>
       </c>
       <c r="G307" t="n">
-        <v>110308.3333333333</v>
+        <v>110345</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11294,9 +11230,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11311,22 +11245,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>106600</v>
+        <v>108900</v>
       </c>
       <c r="C308" t="n">
-        <v>106600</v>
+        <v>108900</v>
       </c>
       <c r="D308" t="n">
-        <v>106600</v>
+        <v>108900</v>
       </c>
       <c r="E308" t="n">
-        <v>106600</v>
+        <v>108900</v>
       </c>
       <c r="F308" t="n">
         <v>0.7441</v>
       </c>
       <c r="G308" t="n">
-        <v>110191.6666666667</v>
+        <v>110308.3333333333</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11335,9 +11269,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11352,22 +11284,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>108000</v>
+        <v>106600</v>
       </c>
       <c r="C309" t="n">
-        <v>108300</v>
+        <v>106600</v>
       </c>
       <c r="D309" t="n">
-        <v>108300</v>
+        <v>106600</v>
       </c>
       <c r="E309" t="n">
-        <v>108000</v>
+        <v>106600</v>
       </c>
       <c r="F309" t="n">
-        <v>0.05142566</v>
+        <v>0.7441</v>
       </c>
       <c r="G309" t="n">
-        <v>110096.6666666667</v>
+        <v>110191.6666666667</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11376,9 +11308,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11393,22 +11323,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>108400</v>
+        <v>108000</v>
       </c>
       <c r="C310" t="n">
-        <v>108400</v>
+        <v>108300</v>
       </c>
       <c r="D310" t="n">
-        <v>108400</v>
+        <v>108300</v>
       </c>
       <c r="E310" t="n">
-        <v>108400</v>
+        <v>108000</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0625</v>
+        <v>0.05142566</v>
       </c>
       <c r="G310" t="n">
-        <v>110001.6666666667</v>
+        <v>110096.6666666667</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11417,9 +11347,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11446,10 +11374,10 @@
         <v>108400</v>
       </c>
       <c r="F311" t="n">
-        <v>24.3911</v>
+        <v>0.0625</v>
       </c>
       <c r="G311" t="n">
-        <v>109911.6666666667</v>
+        <v>110001.6666666667</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11458,9 +11386,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11475,22 +11401,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>108100</v>
+        <v>108400</v>
       </c>
       <c r="C312" t="n">
-        <v>108100</v>
+        <v>108400</v>
       </c>
       <c r="D312" t="n">
-        <v>108100</v>
+        <v>108400</v>
       </c>
       <c r="E312" t="n">
-        <v>108100</v>
+        <v>108400</v>
       </c>
       <c r="F312" t="n">
-        <v>0.2172</v>
+        <v>24.3911</v>
       </c>
       <c r="G312" t="n">
-        <v>109813.3333333333</v>
+        <v>109911.6666666667</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11499,9 +11425,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11528,10 +11452,10 @@
         <v>108100</v>
       </c>
       <c r="F313" t="n">
-        <v>0.9250693800000001</v>
+        <v>0.2172</v>
       </c>
       <c r="G313" t="n">
-        <v>109715</v>
+        <v>109813.3333333333</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11540,9 +11464,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11557,22 +11479,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>106400</v>
+        <v>108100</v>
       </c>
       <c r="C314" t="n">
-        <v>105800</v>
+        <v>108100</v>
       </c>
       <c r="D314" t="n">
-        <v>106400</v>
+        <v>108100</v>
       </c>
       <c r="E314" t="n">
-        <v>105800</v>
+        <v>108100</v>
       </c>
       <c r="F314" t="n">
-        <v>4.3646</v>
+        <v>0.9250693800000001</v>
       </c>
       <c r="G314" t="n">
-        <v>109576.6666666667</v>
+        <v>109715</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11581,9 +11503,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11598,22 +11518,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>106100</v>
+        <v>106400</v>
       </c>
       <c r="C315" t="n">
-        <v>105300</v>
+        <v>105800</v>
       </c>
       <c r="D315" t="n">
-        <v>106200</v>
+        <v>106400</v>
       </c>
       <c r="E315" t="n">
-        <v>105300</v>
+        <v>105800</v>
       </c>
       <c r="F315" t="n">
-        <v>7.0772</v>
+        <v>4.3646</v>
       </c>
       <c r="G315" t="n">
-        <v>109426.6666666667</v>
+        <v>109576.6666666667</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11622,9 +11542,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11639,22 +11557,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>105100</v>
+        <v>106100</v>
       </c>
       <c r="C316" t="n">
-        <v>105100</v>
+        <v>105300</v>
       </c>
       <c r="D316" t="n">
-        <v>105100</v>
+        <v>106200</v>
       </c>
       <c r="E316" t="n">
-        <v>105000</v>
+        <v>105300</v>
       </c>
       <c r="F316" t="n">
-        <v>4.7069</v>
+        <v>7.0772</v>
       </c>
       <c r="G316" t="n">
-        <v>109273.3333333333</v>
+        <v>109426.6666666667</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11663,9 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>108500</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11692,21 +11608,21 @@
         <v>105000</v>
       </c>
       <c r="F317" t="n">
-        <v>13.614</v>
+        <v>4.7069</v>
       </c>
       <c r="G317" t="n">
-        <v>109120</v>
+        <v>109273.3333333333</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>108500</v>
-      </c>
+      <c r="J317" t="n">
+        <v>105300</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11716,6 +11632,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>105100</v>
+      </c>
+      <c r="C318" t="n">
+        <v>105100</v>
+      </c>
+      <c r="D318" t="n">
+        <v>105100</v>
+      </c>
+      <c r="E318" t="n">
+        <v>105000</v>
+      </c>
+      <c r="F318" t="n">
+        <v>13.614</v>
+      </c>
+      <c r="G318" t="n">
+        <v>109120</v>
+      </c>
+      <c r="H318" t="n">
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>105100</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M318" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-20 BackTest DASH.xlsx
+++ b/BackTest/2020-01-20 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M318"/>
+  <dimension ref="A1:N328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1.3772</v>
       </c>
       <c r="G2" t="n">
+        <v>114313.3333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>115218.3333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>0.0044</v>
       </c>
       <c r="G3" t="n">
+        <v>114400</v>
+      </c>
+      <c r="H3" t="n">
         <v>115245</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1.8529</v>
       </c>
       <c r="G4" t="n">
+        <v>114520</v>
+      </c>
+      <c r="H4" t="n">
         <v>115260</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>0.8734</v>
       </c>
       <c r="G5" t="n">
+        <v>114666.6666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>115288.3333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>6.0566</v>
       </c>
       <c r="G6" t="n">
+        <v>114853.3333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>115296.6666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5.8192</v>
       </c>
       <c r="G7" t="n">
+        <v>115040</v>
+      </c>
+      <c r="H7" t="n">
         <v>115335</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>9.8081</v>
       </c>
       <c r="G8" t="n">
+        <v>115193.3333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>115350</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>131.307</v>
       </c>
       <c r="G9" t="n">
+        <v>115326.6666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>115368.3333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>0.011</v>
       </c>
       <c r="G10" t="n">
+        <v>115406.6666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>115423.3333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>34.2511</v>
       </c>
       <c r="G11" t="n">
+        <v>115506.6666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>115443.3333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>84.7734</v>
       </c>
       <c r="G12" t="n">
+        <v>115486.6666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>115465</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>43.2087</v>
       </c>
       <c r="G13" t="n">
+        <v>115466.6666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>115476.6666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>82.4072</v>
       </c>
       <c r="G14" t="n">
+        <v>115453.3333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>115490</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1.2859</v>
       </c>
       <c r="G15" t="n">
+        <v>115446.6666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>115478.3333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>13.2361</v>
       </c>
       <c r="G16" t="n">
+        <v>115393.3333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>115478.3333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>0.0998</v>
       </c>
       <c r="G17" t="n">
+        <v>115386.6666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>115473.3333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1.3332</v>
       </c>
       <c r="G18" t="n">
+        <v>115360</v>
+      </c>
+      <c r="H18" t="n">
         <v>115480</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>0.6344</v>
       </c>
       <c r="G19" t="n">
+        <v>115300</v>
+      </c>
+      <c r="H19" t="n">
         <v>115480</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>0.7</v>
       </c>
       <c r="G20" t="n">
+        <v>115240</v>
+      </c>
+      <c r="H20" t="n">
         <v>115475</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>9.1584</v>
       </c>
       <c r="G21" t="n">
+        <v>115100</v>
+      </c>
+      <c r="H21" t="n">
         <v>115470</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>0.0065</v>
       </c>
       <c r="G22" t="n">
+        <v>115026.6666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>115476.6666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>14.7952</v>
       </c>
       <c r="G23" t="n">
+        <v>114973.3333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>115473.3333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>0.2608</v>
       </c>
       <c r="G24" t="n">
+        <v>114926.6666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>115453.3333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>0.0663</v>
       </c>
       <c r="G25" t="n">
+        <v>114893.3333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>115453.3333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1.2495</v>
       </c>
       <c r="G26" t="n">
+        <v>114866.6666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>115428.3333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2.5466</v>
       </c>
       <c r="G27" t="n">
+        <v>114906.6666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>115400</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>4.0375</v>
       </c>
       <c r="G28" t="n">
+        <v>114946.6666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>115371.6666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>0.0867</v>
       </c>
       <c r="G29" t="n">
+        <v>114980</v>
+      </c>
+      <c r="H29" t="n">
         <v>115340</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>30</v>
       </c>
       <c r="G30" t="n">
+        <v>114953.3333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>115295</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1.2943</v>
       </c>
       <c r="G31" t="n">
+        <v>114940</v>
+      </c>
+      <c r="H31" t="n">
         <v>115240</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>13.8176</v>
       </c>
       <c r="G32" t="n">
+        <v>114860</v>
+      </c>
+      <c r="H32" t="n">
         <v>115168.3333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>25.0656</v>
       </c>
       <c r="G33" t="n">
+        <v>114740</v>
+      </c>
+      <c r="H33" t="n">
         <v>115111.6666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>17.4032</v>
       </c>
       <c r="G34" t="n">
+        <v>114673.3333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>115058.3333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1.6046</v>
       </c>
       <c r="G35" t="n">
+        <v>114506.6666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>114971.6666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,27 @@
         <v>6.4505</v>
       </c>
       <c r="G36" t="n">
+        <v>114300</v>
+      </c>
+      <c r="H36" t="n">
         <v>114875</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>112500</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1789,27 @@
         <v>2.2584</v>
       </c>
       <c r="G37" t="n">
+        <v>114040</v>
+      </c>
+      <c r="H37" t="n">
         <v>114791.6666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>111300</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1833,27 @@
         <v>12.3379</v>
       </c>
       <c r="G38" t="n">
+        <v>113813.3333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>114701.6666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>111500</v>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1877,27 @@
         <v>3.8757</v>
       </c>
       <c r="G39" t="n">
+        <v>113546.6666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>114606.6666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>111800</v>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1921,27 @@
         <v>0.0895</v>
       </c>
       <c r="G40" t="n">
+        <v>113313.3333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>114543.3333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>111300</v>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1965,27 @@
         <v>2.0504</v>
       </c>
       <c r="G41" t="n">
+        <v>113040</v>
+      </c>
+      <c r="H41" t="n">
         <v>114468.3333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>111800</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2009,27 @@
         <v>24.9848</v>
       </c>
       <c r="G42" t="n">
+        <v>112833.3333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>114403.3333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>111200</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2053,27 @@
         <v>30.0889</v>
       </c>
       <c r="G43" t="n">
+        <v>112646.6666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>114368.3333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>112200</v>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2097,27 @@
         <v>0.92</v>
       </c>
       <c r="G44" t="n">
+        <v>112566.6666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>114353.3333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>112500</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2141,27 @@
         <v>0.1405</v>
       </c>
       <c r="G45" t="n">
+        <v>112486.6666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>114315</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>113900</v>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2185,25 @@
         <v>0.0522</v>
       </c>
       <c r="G46" t="n">
+        <v>112413.3333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>114260</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2227,25 @@
         <v>1.0923</v>
       </c>
       <c r="G47" t="n">
+        <v>112426.6666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>114246.6666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2269,25 @@
         <v>2.2021</v>
       </c>
       <c r="G48" t="n">
+        <v>112413.3333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>114228.3333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2311,25 @@
         <v>0.3889</v>
       </c>
       <c r="G49" t="n">
+        <v>112380</v>
+      </c>
+      <c r="H49" t="n">
         <v>114218.3333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2353,25 @@
         <v>0.0929</v>
       </c>
       <c r="G50" t="n">
+        <v>112426.6666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>114210</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2395,25 @@
         <v>0.08840000000000001</v>
       </c>
       <c r="G51" t="n">
+        <v>112553.3333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>114201.6666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2437,25 @@
         <v>0.44169611</v>
       </c>
       <c r="G52" t="n">
+        <v>112666.6666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>114193.3333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2479,25 @@
         <v>2.67442462</v>
       </c>
       <c r="G53" t="n">
+        <v>112686.6666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>114166.6666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2521,25 @@
         <v>1.5009</v>
       </c>
       <c r="G54" t="n">
+        <v>112666.6666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>114116.6666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2563,25 @@
         <v>0.0001</v>
       </c>
       <c r="G55" t="n">
+        <v>112613.3333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>114056.6666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2605,25 @@
         <v>2.8218</v>
       </c>
       <c r="G56" t="n">
+        <v>112560</v>
+      </c>
+      <c r="H56" t="n">
         <v>113993.3333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2647,27 @@
         <v>0.9999</v>
       </c>
       <c r="G57" t="n">
+        <v>112426.6666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>113913.3333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>110400</v>
+      </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2691,27 @@
         <v>0.0176</v>
       </c>
       <c r="G58" t="n">
+        <v>112286.6666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>113836.6666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>110200</v>
+      </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2735,27 @@
         <v>6.4149</v>
       </c>
       <c r="G59" t="n">
+        <v>112073.3333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>113768.3333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>110400</v>
+      </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2779,27 @@
         <v>13.41</v>
       </c>
       <c r="G60" t="n">
+        <v>112040</v>
+      </c>
+      <c r="H60" t="n">
         <v>113731.6666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>110700</v>
+      </c>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2823,27 @@
         <v>6.052</v>
       </c>
       <c r="G61" t="n">
+        <v>112066.6666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>113703.3333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>112500</v>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2867,25 @@
         <v>11.3</v>
       </c>
       <c r="G62" t="n">
+        <v>112100</v>
+      </c>
+      <c r="H62" t="n">
         <v>113693.3333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2909,25 @@
         <v>2.1205</v>
       </c>
       <c r="G63" t="n">
+        <v>112200</v>
+      </c>
+      <c r="H63" t="n">
         <v>113678.3333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2951,25 @@
         <v>2.3239</v>
       </c>
       <c r="G64" t="n">
+        <v>112300</v>
+      </c>
+      <c r="H64" t="n">
         <v>113663.3333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2993,25 @@
         <v>0.18</v>
       </c>
       <c r="G65" t="n">
+        <v>112406.6666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>113645</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3035,25 @@
         <v>9.303699999999999</v>
       </c>
       <c r="G66" t="n">
+        <v>112540</v>
+      </c>
+      <c r="H66" t="n">
         <v>113623.3333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3077,25 @@
         <v>19.3192</v>
       </c>
       <c r="G67" t="n">
+        <v>112773.3333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>113626.6666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3119,25 @@
         <v>2.0543</v>
       </c>
       <c r="G68" t="n">
+        <v>113086.6666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>113640</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3161,25 @@
         <v>6.854</v>
       </c>
       <c r="G69" t="n">
+        <v>113540</v>
+      </c>
+      <c r="H69" t="n">
         <v>113670</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3203,25 @@
         <v>0.4162</v>
       </c>
       <c r="G70" t="n">
+        <v>113913.3333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>113683.3333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3245,25 @@
         <v>0.8168</v>
       </c>
       <c r="G71" t="n">
+        <v>114326.6666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>113698.3333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3287,25 @@
         <v>2.44</v>
       </c>
       <c r="G72" t="n">
+        <v>114726.6666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>113723.3333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3329,25 @@
         <v>6.725</v>
       </c>
       <c r="G73" t="n">
+        <v>115146.6666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>113756.6666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3371,25 @@
         <v>8.084300000000001</v>
       </c>
       <c r="G74" t="n">
+        <v>115560</v>
+      </c>
+      <c r="H74" t="n">
         <v>113795</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3413,25 @@
         <v>0.0521</v>
       </c>
       <c r="G75" t="n">
+        <v>115853.3333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>113833.3333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3455,25 @@
         <v>5.3583</v>
       </c>
       <c r="G76" t="n">
+        <v>116093.3333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>113878.3333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3497,25 @@
         <v>4.5473</v>
       </c>
       <c r="G77" t="n">
+        <v>116293.3333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>113920</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3539,25 @@
         <v>1.10544217</v>
       </c>
       <c r="G78" t="n">
+        <v>116493.3333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>113961.6666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3581,25 @@
         <v>1.2132</v>
       </c>
       <c r="G79" t="n">
+        <v>116686.6666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>114010</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3623,25 @@
         <v>0.0128</v>
       </c>
       <c r="G80" t="n">
+        <v>116833.3333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>114043.3333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3665,25 @@
         <v>66.3558</v>
       </c>
       <c r="G81" t="n">
+        <v>117006.6666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>114100</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3707,25 @@
         <v>41.6153</v>
       </c>
       <c r="G82" t="n">
+        <v>117086.6666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>114141.6666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3749,25 @@
         <v>76.78660000000001</v>
       </c>
       <c r="G83" t="n">
+        <v>117166.6666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>114188.3333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3791,25 @@
         <v>4.5328</v>
       </c>
       <c r="G84" t="n">
+        <v>117213.3333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>114241.6666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3833,25 @@
         <v>71.2402</v>
       </c>
       <c r="G85" t="n">
+        <v>117346.6666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>114296.6666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3875,25 @@
         <v>10.6237</v>
       </c>
       <c r="G86" t="n">
+        <v>117433.3333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>114340</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3917,25 @@
         <v>1.2031</v>
       </c>
       <c r="G87" t="n">
+        <v>117606.6666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>114398.3333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3959,25 @@
         <v>0.5112</v>
       </c>
       <c r="G88" t="n">
+        <v>117706.6666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>114446.6666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4001,25 @@
         <v>19.0096</v>
       </c>
       <c r="G89" t="n">
+        <v>117760</v>
+      </c>
+      <c r="H89" t="n">
         <v>114490</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4043,25 @@
         <v>25.6294</v>
       </c>
       <c r="G90" t="n">
+        <v>117786.6666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>114541.6666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4085,25 @@
         <v>30.5</v>
       </c>
       <c r="G91" t="n">
+        <v>117746.6666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>114580</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4127,25 @@
         <v>0.006</v>
       </c>
       <c r="G92" t="n">
+        <v>117753.3333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>114643.3333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4169,25 @@
         <v>33.5114</v>
       </c>
       <c r="G93" t="n">
+        <v>117793.3333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>114725</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4211,25 @@
         <v>25.976</v>
       </c>
       <c r="G94" t="n">
+        <v>117726.6666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>114773.3333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4253,25 @@
         <v>0.3256</v>
       </c>
       <c r="G95" t="n">
+        <v>117760</v>
+      </c>
+      <c r="H95" t="n">
         <v>114856.6666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4295,25 @@
         <v>0.049</v>
       </c>
       <c r="G96" t="n">
+        <v>117720</v>
+      </c>
+      <c r="H96" t="n">
         <v>114955</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4337,25 @@
         <v>0.5204</v>
       </c>
       <c r="G97" t="n">
+        <v>117700</v>
+      </c>
+      <c r="H97" t="n">
         <v>115056.6666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4379,25 @@
         <v>6.4909</v>
       </c>
       <c r="G98" t="n">
+        <v>117673.3333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>115153.3333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4421,25 @@
         <v>4.1713</v>
       </c>
       <c r="G99" t="n">
+        <v>117613.3333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>115258.3333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4463,25 @@
         <v>0.048</v>
       </c>
       <c r="G100" t="n">
+        <v>117506.6666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>115345</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4505,25 @@
         <v>15.8199</v>
       </c>
       <c r="G101" t="n">
+        <v>117480</v>
+      </c>
+      <c r="H101" t="n">
         <v>115450</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4547,25 @@
         <v>4.45</v>
       </c>
       <c r="G102" t="n">
+        <v>117366.6666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>115531.6666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4589,25 @@
         <v>1.4136</v>
       </c>
       <c r="G103" t="n">
+        <v>117320</v>
+      </c>
+      <c r="H103" t="n">
         <v>115615</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4631,25 @@
         <v>0.8002</v>
       </c>
       <c r="G104" t="n">
+        <v>117306.6666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>115675</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4673,25 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
+        <v>117320</v>
+      </c>
+      <c r="H105" t="n">
         <v>115750</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4715,25 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
+        <v>117400</v>
+      </c>
+      <c r="H106" t="n">
         <v>115826.6666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4757,25 @@
         <v>0.5138</v>
       </c>
       <c r="G107" t="n">
+        <v>117393.3333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>115885</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4799,25 @@
         <v>12.2584</v>
       </c>
       <c r="G108" t="n">
+        <v>117320</v>
+      </c>
+      <c r="H108" t="n">
         <v>115951.6666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4841,25 @@
         <v>7.3049</v>
       </c>
       <c r="G109" t="n">
+        <v>117520</v>
+      </c>
+      <c r="H109" t="n">
         <v>116058.3333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4883,25 @@
         <v>0.6465</v>
       </c>
       <c r="G110" t="n">
+        <v>117620</v>
+      </c>
+      <c r="H110" t="n">
         <v>116155</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4925,25 @@
         <v>2.0159</v>
       </c>
       <c r="G111" t="n">
+        <v>117726.6666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>116248.3333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4967,25 @@
         <v>0.06</v>
       </c>
       <c r="G112" t="n">
+        <v>117833.3333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>116348.3333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +5009,25 @@
         <v>0.9208</v>
       </c>
       <c r="G113" t="n">
+        <v>117926.6666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>116463.3333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5051,25 @@
         <v>0.012</v>
       </c>
       <c r="G114" t="n">
+        <v>118020</v>
+      </c>
+      <c r="H114" t="n">
         <v>116596.6666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5093,25 @@
         <v>9.67</v>
       </c>
       <c r="G115" t="n">
+        <v>118160</v>
+      </c>
+      <c r="H115" t="n">
         <v>116731.6666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5135,25 @@
         <v>0.44</v>
       </c>
       <c r="G116" t="n">
+        <v>118300</v>
+      </c>
+      <c r="H116" t="n">
         <v>116885</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5177,25 @@
         <v>0.3071</v>
       </c>
       <c r="G117" t="n">
+        <v>118473.3333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>117043.3333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5219,25 @@
         <v>8.160500000000001</v>
       </c>
       <c r="G118" t="n">
+        <v>118573.3333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>117186.6666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5261,25 @@
         <v>8</v>
       </c>
       <c r="G119" t="n">
+        <v>118720</v>
+      </c>
+      <c r="H119" t="n">
         <v>117336.6666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5303,25 @@
         <v>0.005</v>
       </c>
       <c r="G120" t="n">
+        <v>118880</v>
+      </c>
+      <c r="H120" t="n">
         <v>117460</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5345,25 @@
         <v>0.005</v>
       </c>
       <c r="G121" t="n">
+        <v>119046.6666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>117571.6666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5387,25 @@
         <v>1.3796</v>
       </c>
       <c r="G122" t="n">
+        <v>119233.3333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>117668.3333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5429,25 @@
         <v>3.6459</v>
       </c>
       <c r="G123" t="n">
+        <v>119440</v>
+      </c>
+      <c r="H123" t="n">
         <v>117761.6666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5471,25 @@
         <v>0.0624</v>
       </c>
       <c r="G124" t="n">
+        <v>119460</v>
+      </c>
+      <c r="H124" t="n">
         <v>117848.3333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5513,25 @@
         <v>0.0316</v>
       </c>
       <c r="G125" t="n">
+        <v>119420</v>
+      </c>
+      <c r="H125" t="n">
         <v>117908.3333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5555,25 @@
         <v>0.005</v>
       </c>
       <c r="G126" t="n">
+        <v>119440</v>
+      </c>
+      <c r="H126" t="n">
         <v>117973.3333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5597,25 @@
         <v>8.02</v>
       </c>
       <c r="G127" t="n">
+        <v>119366.6666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>117996.6666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5639,25 @@
         <v>0.5422</v>
       </c>
       <c r="G128" t="n">
+        <v>119300</v>
+      </c>
+      <c r="H128" t="n">
         <v>118016.6666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5681,25 @@
         <v>0.1882</v>
       </c>
       <c r="G129" t="n">
+        <v>119226.6666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>118018.3333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5723,25 @@
         <v>0.3778</v>
       </c>
       <c r="G130" t="n">
+        <v>119140</v>
+      </c>
+      <c r="H130" t="n">
         <v>118038.3333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5765,25 @@
         <v>0.9454</v>
       </c>
       <c r="G131" t="n">
+        <v>119040</v>
+      </c>
+      <c r="H131" t="n">
         <v>118063.3333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5807,25 @@
         <v>16.4023</v>
       </c>
       <c r="G132" t="n">
+        <v>118940</v>
+      </c>
+      <c r="H132" t="n">
         <v>118096.6666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5849,25 @@
         <v>0.05</v>
       </c>
       <c r="G133" t="n">
+        <v>118913.3333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>118128.3333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5891,25 @@
         <v>0.2887</v>
       </c>
       <c r="G134" t="n">
+        <v>118893.3333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>118170</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5933,25 @@
         <v>21.6508</v>
       </c>
       <c r="G135" t="n">
+        <v>118900</v>
+      </c>
+      <c r="H135" t="n">
         <v>118221.6666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5975,25 @@
         <v>0.498</v>
       </c>
       <c r="G136" t="n">
+        <v>118946.6666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>118285</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +6017,25 @@
         <v>2.4259</v>
       </c>
       <c r="G137" t="n">
+        <v>119026.6666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>118351.6666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +6059,25 @@
         <v>12.2275</v>
       </c>
       <c r="G138" t="n">
+        <v>119240</v>
+      </c>
+      <c r="H138" t="n">
         <v>118448.3333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +6101,25 @@
         <v>14.7235</v>
       </c>
       <c r="G139" t="n">
+        <v>119433.3333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>118535</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6143,25 @@
         <v>8.66134705</v>
       </c>
       <c r="G140" t="n">
+        <v>119800</v>
+      </c>
+      <c r="H140" t="n">
         <v>118650</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6185,25 @@
         <v>4.0366</v>
       </c>
       <c r="G141" t="n">
+        <v>120053.3333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>118735</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,20 +6227,25 @@
         <v>0.0231</v>
       </c>
       <c r="G142" t="n">
+        <v>120373.3333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>118818.3333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5383,18 +6267,21 @@
         <v>3.5619</v>
       </c>
       <c r="G143" t="n">
+        <v>120660</v>
+      </c>
+      <c r="H143" t="n">
         <v>118890</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6305,21 @@
         <v>2.1774</v>
       </c>
       <c r="G144" t="n">
+        <v>120933.3333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>118948.3333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6343,21 @@
         <v>4</v>
       </c>
       <c r="G145" t="n">
+        <v>121220</v>
+      </c>
+      <c r="H145" t="n">
         <v>119006.6666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6381,21 @@
         <v>11.0907</v>
       </c>
       <c r="G146" t="n">
+        <v>121560</v>
+      </c>
+      <c r="H146" t="n">
         <v>119095</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6419,21 @@
         <v>8.55300488</v>
       </c>
       <c r="G147" t="n">
+        <v>121866.6666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>119161.6666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6457,21 @@
         <v>1.41673008</v>
       </c>
       <c r="G148" t="n">
+        <v>122160</v>
+      </c>
+      <c r="H148" t="n">
         <v>119241.6666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6495,21 @@
         <v>11.8333</v>
       </c>
       <c r="G149" t="n">
+        <v>122320</v>
+      </c>
+      <c r="H149" t="n">
         <v>119310</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6533,21 @@
         <v>0.03627755</v>
       </c>
       <c r="G150" t="n">
+        <v>122486.6666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>119396.6666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6571,21 @@
         <v>0.95760816</v>
       </c>
       <c r="G151" t="n">
+        <v>122606.6666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>119500</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6609,21 @@
         <v>0.11</v>
       </c>
       <c r="G152" t="n">
+        <v>122706.6666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>119590</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6647,21 @@
         <v>0.0061</v>
       </c>
       <c r="G153" t="n">
+        <v>122673.3333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>119668.3333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6685,21 @@
         <v>8.12171107</v>
       </c>
       <c r="G154" t="n">
+        <v>122740</v>
+      </c>
+      <c r="H154" t="n">
         <v>119788.3333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6723,21 @@
         <v>0.1749</v>
       </c>
       <c r="G155" t="n">
+        <v>122653.3333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>119873.3333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6761,21 @@
         <v>2.0647</v>
       </c>
       <c r="G156" t="n">
+        <v>122606.6666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>119956.6666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6799,21 @@
         <v>7.1028</v>
       </c>
       <c r="G157" t="n">
+        <v>122560</v>
+      </c>
+      <c r="H157" t="n">
         <v>120033.3333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6837,21 @@
         <v>0.9999</v>
       </c>
       <c r="G158" t="n">
+        <v>122513.3333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>120100</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6875,21 @@
         <v>15.6343</v>
       </c>
       <c r="G159" t="n">
+        <v>122433.3333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>120153.3333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6913,21 @@
         <v>13.417</v>
       </c>
       <c r="G160" t="n">
+        <v>122360</v>
+      </c>
+      <c r="H160" t="n">
         <v>120220</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6951,21 @@
         <v>0.0058</v>
       </c>
       <c r="G161" t="n">
+        <v>122306.6666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>120301.6666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6989,21 @@
         <v>0.033</v>
       </c>
       <c r="G162" t="n">
+        <v>122220</v>
+      </c>
+      <c r="H162" t="n">
         <v>120375</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +7027,21 @@
         <v>3.4122</v>
       </c>
       <c r="G163" t="n">
+        <v>122153.3333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>120450</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +7065,21 @@
         <v>0.0275227</v>
       </c>
       <c r="G164" t="n">
+        <v>122106.6666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>120510</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7103,21 @@
         <v>0.2</v>
       </c>
       <c r="G165" t="n">
+        <v>122000</v>
+      </c>
+      <c r="H165" t="n">
         <v>120566.6666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7141,21 @@
         <v>31.3421</v>
       </c>
       <c r="G166" t="n">
+        <v>121833.3333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>120608.3333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7179,21 @@
         <v>0.53121117</v>
       </c>
       <c r="G167" t="n">
+        <v>121773.3333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>120685</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7217,21 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
+        <v>121646.6666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>120750</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7255,21 @@
         <v>0.1437</v>
       </c>
       <c r="G169" t="n">
+        <v>121433.3333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>120766.6666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7293,21 @@
         <v>15.1399</v>
       </c>
       <c r="G170" t="n">
+        <v>121266.6666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>120785</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7331,21 @@
         <v>0.32</v>
       </c>
       <c r="G171" t="n">
+        <v>121166.6666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>120816.6666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7369,21 @@
         <v>0.3819</v>
       </c>
       <c r="G172" t="n">
+        <v>121120</v>
+      </c>
+      <c r="H172" t="n">
         <v>120855</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7407,21 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
+        <v>121120</v>
+      </c>
+      <c r="H173" t="n">
         <v>120898.3333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7445,21 @@
         <v>0.0344</v>
       </c>
       <c r="G174" t="n">
+        <v>121173.3333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>120941.6666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7483,21 @@
         <v>6.185</v>
       </c>
       <c r="G175" t="n">
+        <v>121200</v>
+      </c>
+      <c r="H175" t="n">
         <v>120980</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7521,21 @@
         <v>4.6023</v>
       </c>
       <c r="G176" t="n">
+        <v>121133.3333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>121010</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7559,21 @@
         <v>2.1033</v>
       </c>
       <c r="G177" t="n">
+        <v>121126.6666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>121038.3333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7597,21 @@
         <v>9.892799999999999</v>
       </c>
       <c r="G178" t="n">
+        <v>121066.6666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>121073.3333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7635,21 @@
         <v>0.5183</v>
       </c>
       <c r="G179" t="n">
+        <v>121020</v>
+      </c>
+      <c r="H179" t="n">
         <v>121085</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7673,21 @@
         <v>31.6192</v>
       </c>
       <c r="G180" t="n">
+        <v>120960</v>
+      </c>
+      <c r="H180" t="n">
         <v>121086.6666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7711,21 @@
         <v>3.0298</v>
       </c>
       <c r="G181" t="n">
+        <v>120933.3333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>121080</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7749,21 @@
         <v>0.79</v>
       </c>
       <c r="G182" t="n">
+        <v>120806.6666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>121078.3333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7787,21 @@
         <v>0.1994</v>
       </c>
       <c r="G183" t="n">
+        <v>120713.3333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>121068.3333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7825,21 @@
         <v>0.99</v>
       </c>
       <c r="G184" t="n">
+        <v>120646.6666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>121063.3333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7863,21 @@
         <v>8.3932</v>
       </c>
       <c r="G185" t="n">
+        <v>120540</v>
+      </c>
+      <c r="H185" t="n">
         <v>121065</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7901,21 @@
         <v>21.9229</v>
       </c>
       <c r="G186" t="n">
+        <v>120426.6666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>121063.3333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7939,21 @@
         <v>2.7081</v>
       </c>
       <c r="G187" t="n">
+        <v>120226.6666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>121070</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7977,21 @@
         <v>0.0043</v>
       </c>
       <c r="G188" t="n">
+        <v>120040</v>
+      </c>
+      <c r="H188" t="n">
         <v>121083.3333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +8015,21 @@
         <v>0.0447</v>
       </c>
       <c r="G189" t="n">
+        <v>119846.6666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>121096.6666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +8053,21 @@
         <v>0.0245</v>
       </c>
       <c r="G190" t="n">
+        <v>119666.6666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>121111.6666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +8091,21 @@
         <v>0.6214</v>
       </c>
       <c r="G191" t="n">
+        <v>119486.6666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>121121.6666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +8129,21 @@
         <v>153.1389</v>
       </c>
       <c r="G192" t="n">
+        <v>119333.3333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>121136.6666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +8167,21 @@
         <v>0.0118</v>
       </c>
       <c r="G193" t="n">
+        <v>119220</v>
+      </c>
+      <c r="H193" t="n">
         <v>121150</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +8205,21 @@
         <v>16.563</v>
       </c>
       <c r="G194" t="n">
+        <v>119153.3333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>121150</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8243,21 @@
         <v>0.1374</v>
       </c>
       <c r="G195" t="n">
+        <v>119113.3333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>121140</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8281,21 @@
         <v>5.93911066</v>
       </c>
       <c r="G196" t="n">
+        <v>119200</v>
+      </c>
+      <c r="H196" t="n">
         <v>121143.3333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8319,21 @@
         <v>0.0059</v>
       </c>
       <c r="G197" t="n">
+        <v>119213.3333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>121125</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8357,21 @@
         <v>0.016</v>
       </c>
       <c r="G198" t="n">
+        <v>119313.3333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>121086.6666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8395,21 @@
         <v>2.60433526</v>
       </c>
       <c r="G199" t="n">
+        <v>119420</v>
+      </c>
+      <c r="H199" t="n">
         <v>121060</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8433,21 @@
         <v>10.2938</v>
       </c>
       <c r="G200" t="n">
+        <v>119546.6666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>121001.6666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8471,21 @@
         <v>2.6044</v>
       </c>
       <c r="G201" t="n">
+        <v>119606.6666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>120951.6666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8509,21 @@
         <v>0.005</v>
       </c>
       <c r="G202" t="n">
+        <v>119746.6666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>120913.3333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8547,21 @@
         <v>3.6637</v>
       </c>
       <c r="G203" t="n">
+        <v>119846.6666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>120880</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8585,21 @@
         <v>7</v>
       </c>
       <c r="G204" t="n">
+        <v>119913.3333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>120841.6666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8623,21 @@
         <v>3.7771</v>
       </c>
       <c r="G205" t="n">
+        <v>119993.3333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>120805</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8661,21 @@
         <v>4.4189</v>
       </c>
       <c r="G206" t="n">
+        <v>120060</v>
+      </c>
+      <c r="H206" t="n">
         <v>120746.6666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8699,21 @@
         <v>16.0351</v>
       </c>
       <c r="G207" t="n">
+        <v>120100</v>
+      </c>
+      <c r="H207" t="n">
         <v>120695</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8737,21 @@
         <v>4.6113</v>
       </c>
       <c r="G208" t="n">
+        <v>120100</v>
+      </c>
+      <c r="H208" t="n">
         <v>120635</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8775,21 @@
         <v>0.1457</v>
       </c>
       <c r="G209" t="n">
+        <v>120100</v>
+      </c>
+      <c r="H209" t="n">
         <v>120595</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8813,21 @@
         <v>5.8495</v>
       </c>
       <c r="G210" t="n">
+        <v>120140</v>
+      </c>
+      <c r="H210" t="n">
         <v>120553.3333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8851,21 @@
         <v>0.4209</v>
       </c>
       <c r="G211" t="n">
+        <v>120080</v>
+      </c>
+      <c r="H211" t="n">
         <v>120511.6666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8889,21 @@
         <v>26.8428</v>
       </c>
       <c r="G212" t="n">
+        <v>120093.3333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>120471.6666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8927,21 @@
         <v>0.0075</v>
       </c>
       <c r="G213" t="n">
+        <v>119973.3333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>120411.6666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8965,21 @@
         <v>0.0075</v>
       </c>
       <c r="G214" t="n">
+        <v>119846.6666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>120336.6666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +9003,21 @@
         <v>0.1075</v>
       </c>
       <c r="G215" t="n">
+        <v>119753.3333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>120276.6666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +9041,21 @@
         <v>0.5335</v>
       </c>
       <c r="G216" t="n">
+        <v>119666.6666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>120216.6666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +9079,21 @@
         <v>0.3104</v>
       </c>
       <c r="G217" t="n">
+        <v>119520</v>
+      </c>
+      <c r="H217" t="n">
         <v>120153.3333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +9117,21 @@
         <v>0.0102</v>
       </c>
       <c r="G218" t="n">
+        <v>119420</v>
+      </c>
+      <c r="H218" t="n">
         <v>120106.6666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +9155,21 @@
         <v>0.3271</v>
       </c>
       <c r="G219" t="n">
+        <v>119333.3333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>120066.6666666667</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +9193,21 @@
         <v>0.0076</v>
       </c>
       <c r="G220" t="n">
+        <v>119226.6666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>120021.6666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +9231,21 @@
         <v>2.7917</v>
       </c>
       <c r="G221" t="n">
+        <v>119113.3333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>119948.3333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +9269,21 @@
         <v>0.1731</v>
       </c>
       <c r="G222" t="n">
+        <v>119040</v>
+      </c>
+      <c r="H222" t="n">
         <v>119900</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +9307,21 @@
         <v>0.05</v>
       </c>
       <c r="G223" t="n">
+        <v>118980</v>
+      </c>
+      <c r="H223" t="n">
         <v>119841.6666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +9345,21 @@
         <v>13.9</v>
       </c>
       <c r="G224" t="n">
+        <v>118886.6666666667</v>
+      </c>
+      <c r="H224" t="n">
         <v>119790</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +9383,21 @@
         <v>36.1192</v>
       </c>
       <c r="G225" t="n">
+        <v>118740</v>
+      </c>
+      <c r="H225" t="n">
         <v>119738.3333333333</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +9421,21 @@
         <v>7.8471</v>
       </c>
       <c r="G226" t="n">
+        <v>118460</v>
+      </c>
+      <c r="H226" t="n">
         <v>119668.3333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9459,21 @@
         <v>60.3134</v>
       </c>
       <c r="G227" t="n">
+        <v>118086.6666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>119550</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9497,21 @@
         <v>4.3656</v>
       </c>
       <c r="G228" t="n">
+        <v>117806.6666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>119451.6666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9535,21 @@
         <v>0.0231</v>
       </c>
       <c r="G229" t="n">
+        <v>117573.3333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>119371.6666666667</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9573,21 @@
         <v>2.4231</v>
       </c>
       <c r="G230" t="n">
+        <v>117360</v>
+      </c>
+      <c r="H230" t="n">
         <v>119300</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9611,21 @@
         <v>0.19</v>
       </c>
       <c r="G231" t="n">
+        <v>117320</v>
+      </c>
+      <c r="H231" t="n">
         <v>119255</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9649,21 @@
         <v>0.02</v>
       </c>
       <c r="G232" t="n">
+        <v>117093.3333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>119146.6666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9687,21 @@
         <v>12.5199</v>
       </c>
       <c r="G233" t="n">
+        <v>116800</v>
+      </c>
+      <c r="H233" t="n">
         <v>119026.6666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9725,21 @@
         <v>5.0907</v>
       </c>
       <c r="G234" t="n">
+        <v>116553.3333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>118911.6666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9763,21 @@
         <v>2.9482</v>
       </c>
       <c r="G235" t="n">
+        <v>116320</v>
+      </c>
+      <c r="H235" t="n">
         <v>118801.6666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9801,21 @@
         <v>0.0078</v>
       </c>
       <c r="G236" t="n">
+        <v>116073.3333333333</v>
+      </c>
+      <c r="H236" t="n">
         <v>118683.3333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9839,21 @@
         <v>0.0097</v>
       </c>
       <c r="G237" t="n">
+        <v>115786.6666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>118565</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9877,21 @@
         <v>1.3947</v>
       </c>
       <c r="G238" t="n">
+        <v>115460</v>
+      </c>
+      <c r="H238" t="n">
         <v>118440</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,18 +9915,21 @@
         <v>2.4918</v>
       </c>
       <c r="G239" t="n">
+        <v>115113.3333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>118313.3333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8778,18 +9953,21 @@
         <v>50.9264</v>
       </c>
       <c r="G240" t="n">
+        <v>114733.3333333333</v>
+      </c>
+      <c r="H240" t="n">
         <v>118181.6666666667</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,18 +9991,21 @@
         <v>6.3282</v>
       </c>
       <c r="G241" t="n">
+        <v>114493.3333333333</v>
+      </c>
+      <c r="H241" t="n">
         <v>118058.3333333333</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,18 +10029,21 @@
         <v>24.1545</v>
       </c>
       <c r="G242" t="n">
+        <v>114293.3333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>117921.6666666667</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8883,18 +10067,21 @@
         <v>0.3306</v>
       </c>
       <c r="G243" t="n">
+        <v>114060</v>
+      </c>
+      <c r="H243" t="n">
         <v>117788.3333333333</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,18 +10105,21 @@
         <v>0.0251</v>
       </c>
       <c r="G244" t="n">
+        <v>113793.3333333333</v>
+      </c>
+      <c r="H244" t="n">
         <v>117658.3333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,18 +10143,21 @@
         <v>3.9523</v>
       </c>
       <c r="G245" t="n">
+        <v>113473.3333333333</v>
+      </c>
+      <c r="H245" t="n">
         <v>117533.3333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8988,18 +10181,21 @@
         <v>58.9669</v>
       </c>
       <c r="G246" t="n">
+        <v>113013.3333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>117401.6666666667</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,18 +10219,21 @@
         <v>28.3951</v>
       </c>
       <c r="G247" t="n">
+        <v>112753.3333333333</v>
+      </c>
+      <c r="H247" t="n">
         <v>117278.3333333333</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,18 +10257,21 @@
         <v>42.9572</v>
       </c>
       <c r="G248" t="n">
+        <v>112533.3333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>117150</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,18 +10295,21 @@
         <v>9.815799999999999</v>
       </c>
       <c r="G249" t="n">
+        <v>112460</v>
+      </c>
+      <c r="H249" t="n">
         <v>117065</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,18 +10333,21 @@
         <v>21.3578</v>
       </c>
       <c r="G250" t="n">
+        <v>112406.6666666667</v>
+      </c>
+      <c r="H250" t="n">
         <v>116986.6666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9163,18 +10371,21 @@
         <v>23.7829</v>
       </c>
       <c r="G251" t="n">
+        <v>112393.3333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>116910</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9198,18 +10409,21 @@
         <v>0.1881</v>
       </c>
       <c r="G252" t="n">
+        <v>112360</v>
+      </c>
+      <c r="H252" t="n">
         <v>116821.6666666667</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9233,18 +10447,21 @@
         <v>0.05</v>
       </c>
       <c r="G253" t="n">
+        <v>112386.6666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>116731.6666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,18 +10485,21 @@
         <v>1</v>
       </c>
       <c r="G254" t="n">
+        <v>112466.6666666667</v>
+      </c>
+      <c r="H254" t="n">
         <v>116641.6666666667</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,18 +10523,21 @@
         <v>0.4371</v>
       </c>
       <c r="G255" t="n">
+        <v>112600</v>
+      </c>
+      <c r="H255" t="n">
         <v>116553.3333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9338,18 +10561,21 @@
         <v>9.773</v>
       </c>
       <c r="G256" t="n">
+        <v>112740</v>
+      </c>
+      <c r="H256" t="n">
         <v>116443.3333333333</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,18 +10599,21 @@
         <v>5.8479</v>
       </c>
       <c r="G257" t="n">
+        <v>112920</v>
+      </c>
+      <c r="H257" t="n">
         <v>116348.3333333333</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9408,18 +10637,21 @@
         <v>59.5401</v>
       </c>
       <c r="G258" t="n">
+        <v>113100</v>
+      </c>
+      <c r="H258" t="n">
         <v>116235</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9443,18 +10675,21 @@
         <v>6.2845</v>
       </c>
       <c r="G259" t="n">
+        <v>113273.3333333333</v>
+      </c>
+      <c r="H259" t="n">
         <v>116121.6666666667</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9478,18 +10713,21 @@
         <v>7.1724</v>
       </c>
       <c r="G260" t="n">
+        <v>113440</v>
+      </c>
+      <c r="H260" t="n">
         <v>116006.6666666667</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9513,18 +10751,21 @@
         <v>2</v>
       </c>
       <c r="G261" t="n">
+        <v>113506.6666666667</v>
+      </c>
+      <c r="H261" t="n">
         <v>115876.6666666667</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9548,18 +10789,21 @@
         <v>7.1635</v>
       </c>
       <c r="G262" t="n">
+        <v>113573.3333333333</v>
+      </c>
+      <c r="H262" t="n">
         <v>115735</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,18 +10827,21 @@
         <v>0.8</v>
       </c>
       <c r="G263" t="n">
+        <v>113680</v>
+      </c>
+      <c r="H263" t="n">
         <v>115608.3333333333</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,18 +10865,21 @@
         <v>25.6059</v>
       </c>
       <c r="G264" t="n">
+        <v>113613.3333333333</v>
+      </c>
+      <c r="H264" t="n">
         <v>115490</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,18 +10903,21 @@
         <v>0.0465</v>
       </c>
       <c r="G265" t="n">
+        <v>113486.6666666667</v>
+      </c>
+      <c r="H265" t="n">
         <v>115360</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9688,18 +10941,21 @@
         <v>1</v>
       </c>
       <c r="G266" t="n">
+        <v>113346.6666666667</v>
+      </c>
+      <c r="H266" t="n">
         <v>115231.6666666667</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,18 +10979,21 @@
         <v>0.2987</v>
       </c>
       <c r="G267" t="n">
+        <v>113186.6666666667</v>
+      </c>
+      <c r="H267" t="n">
         <v>115093.3333333333</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9758,18 +11017,21 @@
         <v>0.26973525</v>
       </c>
       <c r="G268" t="n">
+        <v>112980</v>
+      </c>
+      <c r="H268" t="n">
         <v>114951.6666666667</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9793,18 +11055,21 @@
         <v>16.4103</v>
       </c>
       <c r="G269" t="n">
+        <v>112766.6666666667</v>
+      </c>
+      <c r="H269" t="n">
         <v>114808.3333333333</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,18 +11093,21 @@
         <v>0.2065</v>
       </c>
       <c r="G270" t="n">
+        <v>112526.6666666667</v>
+      </c>
+      <c r="H270" t="n">
         <v>114650</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9863,18 +11131,21 @@
         <v>14.1756</v>
       </c>
       <c r="G271" t="n">
+        <v>112206.6666666667</v>
+      </c>
+      <c r="H271" t="n">
         <v>114475</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9898,18 +11169,21 @@
         <v>2.5092</v>
       </c>
       <c r="G272" t="n">
+        <v>111826.6666666667</v>
+      </c>
+      <c r="H272" t="n">
         <v>114281.6666666667</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,18 +11207,21 @@
         <v>32.2416</v>
       </c>
       <c r="G273" t="n">
+        <v>111380</v>
+      </c>
+      <c r="H273" t="n">
         <v>114086.6666666667</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9968,18 +11245,21 @@
         <v>27.7768</v>
       </c>
       <c r="G274" t="n">
+        <v>110860</v>
+      </c>
+      <c r="H274" t="n">
         <v>113875</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10003,18 +11283,21 @@
         <v>0.0057</v>
       </c>
       <c r="G275" t="n">
+        <v>110393.3333333333</v>
+      </c>
+      <c r="H275" t="n">
         <v>113666.6666666667</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10038,18 +11321,21 @@
         <v>17.3577</v>
       </c>
       <c r="G276" t="n">
+        <v>110006.6666666667</v>
+      </c>
+      <c r="H276" t="n">
         <v>113461.6666666667</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10073,18 +11359,25 @@
         <v>8.6433</v>
       </c>
       <c r="G277" t="n">
+        <v>109693.3333333333</v>
+      </c>
+      <c r="H277" t="n">
         <v>113278.3333333333</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>106300</v>
+      </c>
+      <c r="L277" t="n">
+        <v>106300</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10108,18 +11401,29 @@
         <v>15.5488</v>
       </c>
       <c r="G278" t="n">
+        <v>109353.3333333333</v>
+      </c>
+      <c r="H278" t="n">
         <v>113091.6666666667</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>107400</v>
+      </c>
+      <c r="L278" t="n">
+        <v>106300</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10143,18 +11447,29 @@
         <v>18.826</v>
       </c>
       <c r="G279" t="n">
+        <v>109000</v>
+      </c>
+      <c r="H279" t="n">
         <v>112906.6666666667</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>107600</v>
+      </c>
+      <c r="L279" t="n">
+        <v>106300</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10178,18 +11493,21 @@
         <v>1.6662</v>
       </c>
       <c r="G280" t="n">
+        <v>108700</v>
+      </c>
+      <c r="H280" t="n">
         <v>112728.3333333333</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10213,18 +11531,27 @@
         <v>22.5857</v>
       </c>
       <c r="G281" t="n">
+        <v>108406.6666666667</v>
+      </c>
+      <c r="H281" t="n">
         <v>112555</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>107600</v>
+      </c>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10248,18 +11575,25 @@
         <v>29.5322</v>
       </c>
       <c r="G282" t="n">
+        <v>108186.6666666667</v>
+      </c>
+      <c r="H282" t="n">
         <v>112380</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10283,18 +11617,25 @@
         <v>5.7</v>
       </c>
       <c r="G283" t="n">
+        <v>107993.3333333333</v>
+      </c>
+      <c r="H283" t="n">
         <v>112205</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10318,24 +11659,25 @@
         <v>13.9305</v>
       </c>
       <c r="G284" t="n">
+        <v>107840</v>
+      </c>
+      <c r="H284" t="n">
         <v>112046.6666666667</v>
       </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>108000</v>
+        <v>0</v>
       </c>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10359,24 +11701,25 @@
         <v>0.0231</v>
       </c>
       <c r="G285" t="n">
+        <v>107706.6666666667</v>
+      </c>
+      <c r="H285" t="n">
         <v>111891.6666666667</v>
       </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>108500</v>
+        <v>0</v>
       </c>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10400,24 +11743,25 @@
         <v>0.4741</v>
       </c>
       <c r="G286" t="n">
+        <v>107686.6666666667</v>
+      </c>
+      <c r="H286" t="n">
         <v>111781.6666666667</v>
       </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>108500</v>
+        <v>0</v>
       </c>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10441,22 +11785,25 @@
         <v>64.46769999999999</v>
       </c>
       <c r="G287" t="n">
+        <v>107753.3333333333</v>
+      </c>
+      <c r="H287" t="n">
         <v>111698.3333333333</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10480,22 +11827,25 @@
         <v>0.6165</v>
       </c>
       <c r="G288" t="n">
+        <v>107866.6666666667</v>
+      </c>
+      <c r="H288" t="n">
         <v>111601.6666666667</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10519,22 +11869,25 @@
         <v>3.5224</v>
       </c>
       <c r="G289" t="n">
+        <v>108060</v>
+      </c>
+      <c r="H289" t="n">
         <v>111496.6666666667</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10558,22 +11911,25 @@
         <v>274.0144</v>
       </c>
       <c r="G290" t="n">
+        <v>108253.3333333333</v>
+      </c>
+      <c r="H290" t="n">
         <v>111390</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10597,22 +11953,25 @@
         <v>0.0619</v>
       </c>
       <c r="G291" t="n">
+        <v>108553.3333333333</v>
+      </c>
+      <c r="H291" t="n">
         <v>111270</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10636,22 +11995,25 @@
         <v>6.1468</v>
       </c>
       <c r="G292" t="n">
+        <v>108766.6666666667</v>
+      </c>
+      <c r="H292" t="n">
         <v>111196.6666666667</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10675,22 +12037,25 @@
         <v>6.0024</v>
       </c>
       <c r="G293" t="n">
+        <v>108980</v>
+      </c>
+      <c r="H293" t="n">
         <v>111136.6666666667</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
-        <v>1</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10714,22 +12079,25 @@
         <v>0.0329</v>
       </c>
       <c r="G294" t="n">
+        <v>109126.6666666667</v>
+      </c>
+      <c r="H294" t="n">
         <v>111050</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10753,22 +12121,25 @@
         <v>44.8263</v>
       </c>
       <c r="G295" t="n">
+        <v>109293.3333333333</v>
+      </c>
+      <c r="H295" t="n">
         <v>110971.6666666667</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10792,22 +12163,25 @@
         <v>13.125</v>
       </c>
       <c r="G296" t="n">
+        <v>109406.6666666667</v>
+      </c>
+      <c r="H296" t="n">
         <v>110888.3333333333</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10831,22 +12205,25 @@
         <v>0.0579</v>
       </c>
       <c r="G297" t="n">
+        <v>109493.3333333333</v>
+      </c>
+      <c r="H297" t="n">
         <v>110806.6666666667</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10870,22 +12247,25 @@
         <v>1.012</v>
       </c>
       <c r="G298" t="n">
+        <v>109593.3333333333</v>
+      </c>
+      <c r="H298" t="n">
         <v>110738.3333333333</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10909,22 +12289,25 @@
         <v>1.0771</v>
       </c>
       <c r="G299" t="n">
+        <v>109713.3333333333</v>
+      </c>
+      <c r="H299" t="n">
         <v>110696.6666666667</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10948,22 +12331,25 @@
         <v>9.472</v>
       </c>
       <c r="G300" t="n">
+        <v>109773.3333333333</v>
+      </c>
+      <c r="H300" t="n">
         <v>110651.6666666667</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10987,22 +12373,25 @@
         <v>0.5</v>
       </c>
       <c r="G301" t="n">
+        <v>109846.6666666667</v>
+      </c>
+      <c r="H301" t="n">
         <v>110620</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11026,22 +12415,25 @@
         <v>1.7956</v>
       </c>
       <c r="G302" t="n">
+        <v>109833.3333333333</v>
+      </c>
+      <c r="H302" t="n">
         <v>110583.3333333333</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11065,22 +12457,25 @@
         <v>45.6093</v>
       </c>
       <c r="G303" t="n">
+        <v>109813.3333333333</v>
+      </c>
+      <c r="H303" t="n">
         <v>110540</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11104,22 +12499,25 @@
         <v>4.1795</v>
       </c>
       <c r="G304" t="n">
+        <v>109773.3333333333</v>
+      </c>
+      <c r="H304" t="n">
         <v>110491.6666666667</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11143,22 +12541,25 @@
         <v>0.05086996</v>
       </c>
       <c r="G305" t="n">
+        <v>109760</v>
+      </c>
+      <c r="H305" t="n">
         <v>110461.6666666667</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11182,22 +12583,25 @@
         <v>1</v>
       </c>
       <c r="G306" t="n">
+        <v>109573.3333333333</v>
+      </c>
+      <c r="H306" t="n">
         <v>110410</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11221,22 +12625,25 @@
         <v>4.814</v>
       </c>
       <c r="G307" t="n">
+        <v>109346.6666666667</v>
+      </c>
+      <c r="H307" t="n">
         <v>110345</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11260,22 +12667,25 @@
         <v>0.7441</v>
       </c>
       <c r="G308" t="n">
+        <v>109220</v>
+      </c>
+      <c r="H308" t="n">
         <v>110308.3333333333</v>
       </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11299,22 +12709,25 @@
         <v>0.7441</v>
       </c>
       <c r="G309" t="n">
+        <v>109026.6666666667</v>
+      </c>
+      <c r="H309" t="n">
         <v>110191.6666666667</v>
       </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11338,22 +12751,25 @@
         <v>0.05142566</v>
       </c>
       <c r="G310" t="n">
+        <v>108906.6666666667</v>
+      </c>
+      <c r="H310" t="n">
         <v>110096.6666666667</v>
       </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M310" t="n">
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11377,22 +12793,25 @@
         <v>0.0625</v>
       </c>
       <c r="G311" t="n">
+        <v>108846.6666666667</v>
+      </c>
+      <c r="H311" t="n">
         <v>110001.6666666667</v>
       </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M311" t="n">
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11416,22 +12835,25 @@
         <v>24.3911</v>
       </c>
       <c r="G312" t="n">
+        <v>108780</v>
+      </c>
+      <c r="H312" t="n">
         <v>109911.6666666667</v>
       </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M312" t="n">
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11455,22 +12877,25 @@
         <v>0.2172</v>
       </c>
       <c r="G313" t="n">
+        <v>108686.6666666667</v>
+      </c>
+      <c r="H313" t="n">
         <v>109813.3333333333</v>
       </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M313" t="n">
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11494,22 +12919,25 @@
         <v>0.9250693800000001</v>
       </c>
       <c r="G314" t="n">
+        <v>108540</v>
+      </c>
+      <c r="H314" t="n">
         <v>109715</v>
       </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M314" t="n">
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11533,22 +12961,25 @@
         <v>4.3646</v>
       </c>
       <c r="G315" t="n">
+        <v>108300</v>
+      </c>
+      <c r="H315" t="n">
         <v>109576.6666666667</v>
       </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M315" t="n">
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N315" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11572,22 +13003,25 @@
         <v>7.0772</v>
       </c>
       <c r="G316" t="n">
+        <v>107966.6666666667</v>
+      </c>
+      <c r="H316" t="n">
         <v>109426.6666666667</v>
       </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11611,24 +13045,25 @@
         <v>4.7069</v>
       </c>
       <c r="G317" t="n">
+        <v>107680</v>
+      </c>
+      <c r="H317" t="n">
         <v>109273.3333333333</v>
       </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
       <c r="J317" t="n">
-        <v>105300</v>
+        <v>0</v>
       </c>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11652,24 +13087,465 @@
         <v>13.614</v>
       </c>
       <c r="G318" t="n">
+        <v>107420</v>
+      </c>
+      <c r="H318" t="n">
         <v>109120</v>
       </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
       <c r="I318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="n">
         <v>105100</v>
       </c>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M318" t="n">
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>105600</v>
+      </c>
+      <c r="C319" t="n">
+        <v>105800</v>
+      </c>
+      <c r="D319" t="n">
+        <v>105800</v>
+      </c>
+      <c r="E319" t="n">
+        <v>105600</v>
+      </c>
+      <c r="F319" t="n">
+        <v>10.6547</v>
+      </c>
+      <c r="G319" t="n">
+        <v>107220</v>
+      </c>
+      <c r="H319" t="n">
+        <v>108978.3333333333</v>
+      </c>
+      <c r="I319" t="n">
+        <v>1</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>105100</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>106700</v>
+      </c>
+      <c r="C320" t="n">
+        <v>106700</v>
+      </c>
+      <c r="D320" t="n">
+        <v>106700</v>
+      </c>
+      <c r="E320" t="n">
+        <v>106700</v>
+      </c>
+      <c r="F320" t="n">
+        <v>6.8379</v>
+      </c>
+      <c r="G320" t="n">
+        <v>107053.3333333333</v>
+      </c>
+      <c r="H320" t="n">
+        <v>108865</v>
+      </c>
+      <c r="I320" t="n">
+        <v>1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>105800</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>106900</v>
+      </c>
+      <c r="C321" t="n">
+        <v>106900</v>
+      </c>
+      <c r="D321" t="n">
+        <v>106900</v>
+      </c>
+      <c r="E321" t="n">
+        <v>106900</v>
+      </c>
+      <c r="F321" t="n">
+        <v>29.8015</v>
+      </c>
+      <c r="G321" t="n">
+        <v>106980</v>
+      </c>
+      <c r="H321" t="n">
+        <v>108778.3333333333</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>106900</v>
+      </c>
+      <c r="C322" t="n">
+        <v>107200</v>
+      </c>
+      <c r="D322" t="n">
+        <v>107200</v>
+      </c>
+      <c r="E322" t="n">
+        <v>106900</v>
+      </c>
+      <c r="F322" t="n">
+        <v>5.1985</v>
+      </c>
+      <c r="G322" t="n">
+        <v>106980</v>
+      </c>
+      <c r="H322" t="n">
+        <v>108696.6666666667</v>
+      </c>
+      <c r="I322" t="n">
+        <v>1</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>106900</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C323" t="n">
+        <v>107200</v>
+      </c>
+      <c r="D323" t="n">
+        <v>107200</v>
+      </c>
+      <c r="E323" t="n">
+        <v>106300</v>
+      </c>
+      <c r="F323" t="n">
+        <v>4.7082</v>
+      </c>
+      <c r="G323" t="n">
+        <v>106866.6666666667</v>
+      </c>
+      <c r="H323" t="n">
+        <v>108605</v>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>107200</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>107500</v>
+      </c>
+      <c r="C324" t="n">
+        <v>107500</v>
+      </c>
+      <c r="D324" t="n">
+        <v>107500</v>
+      </c>
+      <c r="E324" t="n">
+        <v>107500</v>
+      </c>
+      <c r="F324" t="n">
+        <v>10</v>
+      </c>
+      <c r="G324" t="n">
+        <v>106926.6666666667</v>
+      </c>
+      <c r="H324" t="n">
+        <v>108520</v>
+      </c>
+      <c r="I324" t="n">
+        <v>1</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>107200</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>107400</v>
+      </c>
+      <c r="C325" t="n">
+        <v>107400</v>
+      </c>
+      <c r="D325" t="n">
+        <v>107400</v>
+      </c>
+      <c r="E325" t="n">
+        <v>107400</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G325" t="n">
+        <v>106866.6666666667</v>
+      </c>
+      <c r="H325" t="n">
+        <v>108441.6666666667</v>
+      </c>
+      <c r="I325" t="n">
+        <v>1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>107500</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>107400</v>
+      </c>
+      <c r="C326" t="n">
+        <v>107400</v>
+      </c>
+      <c r="D326" t="n">
+        <v>107400</v>
+      </c>
+      <c r="E326" t="n">
+        <v>107400</v>
+      </c>
+      <c r="F326" t="n">
+        <v>1.1281</v>
+      </c>
+      <c r="G326" t="n">
+        <v>106800</v>
+      </c>
+      <c r="H326" t="n">
+        <v>108365</v>
+      </c>
+      <c r="I326" t="n">
+        <v>1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>107400</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>107400</v>
+      </c>
+      <c r="C327" t="n">
+        <v>107400</v>
+      </c>
+      <c r="D327" t="n">
+        <v>107400</v>
+      </c>
+      <c r="E327" t="n">
+        <v>107400</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1.6029</v>
+      </c>
+      <c r="G327" t="n">
+        <v>106733.3333333333</v>
+      </c>
+      <c r="H327" t="n">
+        <v>108298.3333333333</v>
+      </c>
+      <c r="I327" t="n">
+        <v>1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>107400</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>107400</v>
+      </c>
+      <c r="C328" t="n">
+        <v>107400</v>
+      </c>
+      <c r="D328" t="n">
+        <v>107400</v>
+      </c>
+      <c r="E328" t="n">
+        <v>107000</v>
+      </c>
+      <c r="F328" t="n">
+        <v>31.3947</v>
+      </c>
+      <c r="G328" t="n">
+        <v>106686.6666666667</v>
+      </c>
+      <c r="H328" t="n">
+        <v>108240</v>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>107400</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N328" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest DASH.xlsx
+++ b/BackTest/2020-01-20 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-626.7927999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-596.4115999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-596.5831999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-596.0165</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-596.1876</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-622.4864</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -3553,10 +3553,14 @@
         <v>-912.9729999999998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>111500</v>
+      </c>
+      <c r="J96" t="n">
+        <v>111500</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3589,8 +3593,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3629,19 @@
         <v>-916.7591999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>111300</v>
+      </c>
+      <c r="J98" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3670,19 @@
         <v>-918.8095999999998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>111800</v>
+      </c>
+      <c r="J99" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3711,19 @@
         <v>-893.8247999999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>111200</v>
+      </c>
+      <c r="J100" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3752,19 @@
         <v>-863.7358999999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>112200</v>
+      </c>
+      <c r="J101" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3793,19 @@
         <v>-862.8158999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>112500</v>
+      </c>
+      <c r="J102" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3834,19 @@
         <v>-862.9563999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>113900</v>
+      </c>
+      <c r="J103" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3875,19 @@
         <v>-863.0085999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>113000</v>
+      </c>
+      <c r="J104" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3916,19 @@
         <v>-861.9162999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>112900</v>
+      </c>
+      <c r="J105" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +3960,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +3999,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4038,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4074,19 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>113200</v>
+      </c>
+      <c r="J109" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4115,19 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>113200</v>
+      </c>
+      <c r="J110" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4156,19 @@
         <v>-866.6999246199998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>113200</v>
+      </c>
+      <c r="J111" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4197,19 @@
         <v>-868.2008246199998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>112100</v>
+      </c>
+      <c r="J112" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4238,19 @@
         <v>-868.2008246199998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>111000</v>
+      </c>
+      <c r="J113" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4279,19 @@
         <v>-871.0226246199999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>111000</v>
+      </c>
+      <c r="J114" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4320,19 @@
         <v>-872.0225246199999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>110400</v>
+      </c>
+      <c r="J115" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4361,19 @@
         <v>-872.0049246199999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>110200</v>
+      </c>
+      <c r="J116" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4402,19 @@
         <v>-865.5900246199999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>110400</v>
+      </c>
+      <c r="J117" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4443,19 @@
         <v>-852.1800246199999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>110700</v>
+      </c>
+      <c r="J118" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4484,19 @@
         <v>-846.1280246199999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>112500</v>
+      </c>
+      <c r="J119" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4525,19 @@
         <v>-834.82802462</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>113300</v>
+      </c>
+      <c r="J120" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4566,19 @@
         <v>-832.70752462</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>114100</v>
+      </c>
+      <c r="J121" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4607,19 @@
         <v>-832.70752462</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>114600</v>
+      </c>
+      <c r="J122" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4648,19 @@
         <v>-832.52752462</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>114600</v>
+      </c>
+      <c r="J123" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4689,19 @@
         <v>-823.22382462</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>114800</v>
+      </c>
+      <c r="J124" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4733,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4811,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4850,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4889,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4928,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4967,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5006,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5045,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5123,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5201,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5240,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5279,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5318,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5354,17 @@
         <v>-593.8587824499999</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5393,17 @@
         <v>-589.32598245</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5432,17 @@
         <v>-518.08578245</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5471,17 @@
         <v>-528.70948245</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5510,17 @@
         <v>-527.50638245</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5549,17 @@
         <v>-528.0175824500001</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5588,17 @@
         <v>-547.0271824500001</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5627,17 @@
         <v>-572.6565824500001</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5669,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5708,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5747,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5786,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5822,17 @@
         <v>-595.2895824500001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5864,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5903,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5942,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5978,17 @@
         <v>-594.8181824500001</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6020,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6059,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6098,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6137,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6176,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6215,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6254,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6293,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6332,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6371,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6410,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6449,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6488,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6527,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6566,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6602,17 @@
         <v>-569.1447824500002</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6641,17 @@
         <v>-568.7047824500002</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6683,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6722,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6761,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6800,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6839,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6878,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6917,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6953,17 @@
         <v>-566.3442824500002</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6992,17 @@
         <v>-566.3758824500002</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7034,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7073,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +7109,17 @@
         <v>-574.9330824500001</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7151,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7190,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7229,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7268,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7307,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7346,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7385,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7424,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7463,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7502,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7541,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7577,17 @@
         <v>-527.0726354000003</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7616,17 @@
         <v>-531.1092354000003</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7655,17 @@
         <v>-531.1092354000003</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7694,17 @@
         <v>-534.6711354000004</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7733,17 @@
         <v>-536.8485354000004</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,15 +7772,23 @@
         <v>-532.8485354000004</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>111500</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>1.090067264573991</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1.057502246181491</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7117,7 +7813,7 @@
         <v>-521.7578354000004</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7846,7 @@
         <v>-530.3108402800004</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7879,7 @@
         <v>-528.8941102000005</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7912,7 @@
         <v>-540.7274102000005</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7945,7 @@
         <v>-540.6911326500004</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7978,7 @@
         <v>-540.6911326500004</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +8011,7 @@
         <v>-540.5811326500004</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +8044,7 @@
         <v>-540.5750326500005</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +8077,7 @@
         <v>-532.4533215800005</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +8110,7 @@
         <v>-532.6282215800005</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +8143,7 @@
         <v>-534.6929215800005</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +8176,7 @@
         <v>-534.6929215800005</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +8209,7 @@
         <v>-535.6928215800006</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +8242,7 @@
         <v>-551.3271215800006</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +8275,7 @@
         <v>-537.9101215800006</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +8308,7 @@
         <v>-537.9043215800006</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +8341,7 @@
         <v>-537.9373215800006</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +8374,7 @@
         <v>-534.5251215800006</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +8407,7 @@
         <v>-534.5526442800005</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +8440,7 @@
         <v>-534.7526442800006</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +8473,7 @@
         <v>-566.0947442800006</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +8506,7 @@
         <v>-565.5635331100005</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +8539,7 @@
         <v>-566.5635331100005</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +8572,7 @@
         <v>-566.7072331100005</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +8605,7 @@
         <v>-581.8471331100005</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +8638,7 @@
         <v>-581.5271331100005</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +8671,7 @@
         <v>-581.1452331100005</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8704,7 @@
         <v>-580.1452331100005</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8737,7 @@
         <v>-580.1452331100005</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8770,7 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8803,7 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8836,7 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8869,7 @@
         <v>-596.2230331100004</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8902,7 @@
         <v>-596.7413331100004</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8935,7 @@
         <v>-628.3605331100003</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8968,7 @@
         <v>-631.3903331100004</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +9001,7 @@
         <v>-630.6003331100004</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +9034,7 @@
         <v>-630.7997331100004</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +9067,7 @@
         <v>-631.7897331100004</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +9100,7 @@
         <v>-640.1829331100004</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +9133,7 @@
         <v>-618.2600331100003</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +9166,7 @@
         <v>-620.9681331100003</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +9199,7 @@
         <v>-620.9638331100003</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +9232,7 @@
         <v>-621.0085331100004</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +9265,7 @@
         <v>-621.0085331100004</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +9298,7 @@
         <v>-621.0085331100004</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +9331,7 @@
         <v>-467.8696331100003</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +9364,7 @@
         <v>-467.8578331100003</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +9397,7 @@
         <v>-467.8578331100003</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +9430,7 @@
         <v>-467.8578331100003</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +9463,7 @@
         <v>-461.9187224500004</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +9496,7 @@
         <v>-461.9246224500004</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +9529,7 @@
         <v>-461.9086224500003</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +9562,7 @@
         <v>-461.9086224500003</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +9595,7 @@
         <v>-472.2024224500003</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +9628,7 @@
         <v>-474.8068224500003</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +9661,7 @@
         <v>-474.8018224500003</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +9694,7 @@
         <v>-478.4655224500003</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9727,7 @@
         <v>-485.4655224500003</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9760,7 @@
         <v>-481.6884224500003</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9793,7 @@
         <v>-486.1073224500003</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9826,7 @@
         <v>-486.1073224500003</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9859,7 @@
         <v>-490.7186224500003</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9892,7 @@
         <v>-490.7186224500003</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9925,7 @@
         <v>-484.8691224500004</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9958,7 @@
         <v>-484.8691224500004</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9991,7 @@
         <v>-458.0263224500004</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +10024,7 @@
         <v>-458.0338224500003</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +10057,7 @@
         <v>-458.0413224500003</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +10090,7 @@
         <v>-458.1488224500004</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +10123,7 @@
         <v>-458.6823224500004</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +10156,7 @@
         <v>-458.9927224500004</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +10189,7 @@
         <v>-458.9825224500004</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +10222,7 @@
         <v>-459.3096224500003</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +10255,7 @@
         <v>-459.3172224500004</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +10288,7 @@
         <v>-462.1089224500004</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9658,7 +10354,7 @@
         <v>-461.9858224500004</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9724,7 +10420,7 @@
         <v>-512.0050224500004</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10318,7 +11014,7 @@
         <v>-650.3117224500002</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +11047,7 @@
         <v>-650.2866224500002</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +11080,7 @@
         <v>-654.2389224500002</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10450,7 +11146,7 @@
         <v>-595.2720224500002</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +11179,7 @@
         <v>-595.2720224500002</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +11212,7 @@
         <v>-585.4562224500003</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +11245,7 @@
         <v>-564.0984224500003</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +11278,7 @@
         <v>-540.3155224500002</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +11311,7 @@
         <v>-540.5036224500002</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +11344,7 @@
         <v>-540.4536224500002</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +11377,7 @@
         <v>-540.4536224500002</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +11410,7 @@
         <v>-540.0165224500003</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +11443,7 @@
         <v>-530.2435224500002</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10879,7 +11575,7 @@
         <v>-537.4159224500003</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11506,11 +12202,17 @@
         <v>-671.1483577000005</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>107600</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +12241,17 @@
         <v>-669.4821577000005</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>107300</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +12280,17 @@
         <v>-669.4821577000005</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>107600</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +12319,17 @@
         <v>-639.9499577000005</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>107600</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +12358,17 @@
         <v>-645.6499577000005</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>108100</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +12401,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12438,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +12475,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12512,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12549,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12586,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12623,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12660,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12697,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12734,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12771,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12808,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12845,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12882,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12915,17 @@
         <v>-531.2159577000004</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>109400</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12954,17 @@
         <v>-530.1388577000005</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>109500</v>
+      </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12997,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +13030,17 @@
         <v>-539.1108577000005</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>109400</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +13073,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +13110,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +13147,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +13184,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +13221,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +13258,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +13295,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +13332,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +13369,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +13406,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +13443,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +13480,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +13517,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +13550,17 @@
         <v>-600.9262620800005</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>108100</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +13593,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +13626,17 @@
         <v>-612.7103620800004</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>105300</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +13665,17 @@
         <v>-612.7103620800004</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>105100</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +13704,17 @@
         <v>-602.0556620800004</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>105100</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +13743,17 @@
         <v>-595.2177620800004</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>105800</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13782,17 @@
         <v>-565.4162620800004</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>106700</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13821,17 @@
         <v>-560.2177620800004</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>106900</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13860,17 @@
         <v>-560.2177620800004</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>107200</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,15 +13899,17 @@
         <v>-550.2177620800004</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>107200</v>
       </c>
-      <c r="J382" t="n">
-        <v>107200</v>
-      </c>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,17 +13938,15 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>107500</v>
       </c>
-      <c r="J383" t="n">
-        <v>107200</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L383" t="n">
@@ -13069,17 +13977,15 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>107400</v>
       </c>
-      <c r="J384" t="n">
-        <v>107200</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L384" t="n">
@@ -13110,15 +14016,17 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>107400</v>
       </c>
-      <c r="J385" t="n">
-        <v>107400</v>
-      </c>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13147,17 +14055,15 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>107400</v>
       </c>
-      <c r="J386" t="n">
-        <v>107400</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L386" t="n">
@@ -13166,6 +14072,6 @@
       <c r="M386" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest DASH.xlsx
+++ b/BackTest/2020-01-20 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>-622.1464</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-622.4864</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-622.4814</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-622.4764</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-622.6512</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-622.6462</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-618.4714</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-633.9738</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-640.5113</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-611.0004</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-654.3666000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-657.5666000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-655.7361000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-655.7214000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-648.5540999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-624.9739999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-624.8396999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-626.9946999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-621.0004999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-625.5357999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3553,14 +3553,10 @@
         <v>-912.9729999999998</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>111500</v>
-      </c>
-      <c r="J96" t="n">
-        <v>111500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3593,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3629,19 +3619,11 @@
         <v>-916.7591999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>111300</v>
-      </c>
-      <c r="J98" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3670,19 +3652,11 @@
         <v>-918.8095999999998</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111800</v>
-      </c>
-      <c r="J99" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3711,19 +3685,11 @@
         <v>-893.8247999999999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>111200</v>
-      </c>
-      <c r="J100" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3752,19 +3718,11 @@
         <v>-863.7358999999999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>112200</v>
-      </c>
-      <c r="J101" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3793,19 +3751,11 @@
         <v>-862.8158999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>112500</v>
-      </c>
-      <c r="J102" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3834,19 +3784,11 @@
         <v>-862.9563999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>113900</v>
-      </c>
-      <c r="J103" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3875,19 +3817,11 @@
         <v>-863.0085999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>113000</v>
-      </c>
-      <c r="J104" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3916,19 +3850,11 @@
         <v>-861.9162999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>112900</v>
-      </c>
-      <c r="J105" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3957,17 +3883,11 @@
         <v>-864.1183999999998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3996,17 +3916,11 @@
         <v>-864.1183999999998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4035,17 +3949,11 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4074,19 +3982,11 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>113200</v>
-      </c>
-      <c r="J109" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4115,19 +4015,11 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>113200</v>
-      </c>
-      <c r="J110" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4156,19 +4048,11 @@
         <v>-866.6999246199998</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>113200</v>
-      </c>
-      <c r="J111" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4197,19 +4081,11 @@
         <v>-868.2008246199998</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>112100</v>
-      </c>
-      <c r="J112" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4238,19 +4114,11 @@
         <v>-868.2008246199998</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>111000</v>
-      </c>
-      <c r="J113" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4279,19 +4147,11 @@
         <v>-871.0226246199999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>111000</v>
-      </c>
-      <c r="J114" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4326,13 +4186,9 @@
         <v>110400</v>
       </c>
       <c r="J115" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>110400</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4361,17 +4217,15 @@
         <v>-872.0049246199999</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>110200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>111500</v>
+        <v>110400</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4408,11 +4262,11 @@
         <v>110400</v>
       </c>
       <c r="J117" t="n">
-        <v>111500</v>
+        <v>110400</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4449,13 +4303,9 @@
         <v>110700</v>
       </c>
       <c r="J118" t="n">
-        <v>111500</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>110700</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4490,11 +4340,11 @@
         <v>112500</v>
       </c>
       <c r="J119" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4531,11 +4381,11 @@
         <v>113300</v>
       </c>
       <c r="J120" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4572,11 +4422,11 @@
         <v>114100</v>
       </c>
       <c r="J121" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4613,7 +4463,7 @@
         <v>114600</v>
       </c>
       <c r="J122" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4654,7 +4504,7 @@
         <v>114600</v>
       </c>
       <c r="J123" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4695,7 +4545,7 @@
         <v>114800</v>
       </c>
       <c r="J124" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4730,11 +4580,13 @@
         <v>-803.9046246199999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>115200</v>
+      </c>
       <c r="J125" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4773,7 +4625,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4812,7 +4664,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4851,7 +4703,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4890,7 +4742,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4929,7 +4781,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4968,7 +4820,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5007,7 +4859,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5046,7 +4898,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5085,7 +4937,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5124,7 +4976,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5163,7 +5015,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5202,7 +5054,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5241,7 +5093,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5280,7 +5132,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5319,7 +5171,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5358,7 +5210,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5397,7 +5249,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5436,7 +5288,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5475,7 +5327,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5514,7 +5366,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5553,7 +5405,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5592,7 +5444,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5631,7 +5483,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5670,7 +5522,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5709,7 +5561,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5748,7 +5600,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5787,7 +5639,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5826,7 +5678,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5865,7 +5717,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5904,7 +5756,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5943,7 +5795,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5982,7 +5834,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6021,7 +5873,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6060,7 +5912,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6099,7 +5951,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6138,7 +5990,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6177,7 +6029,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6216,7 +6068,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6255,7 +6107,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6294,7 +6146,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6333,7 +6185,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6372,7 +6224,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6411,7 +6263,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6450,7 +6302,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6489,7 +6341,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6528,7 +6380,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6567,7 +6419,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6606,7 +6458,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6645,7 +6497,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6684,7 +6536,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6723,7 +6575,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6762,7 +6614,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6801,7 +6653,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6840,7 +6692,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6879,7 +6731,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6918,7 +6770,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6957,7 +6809,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6996,7 +6848,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7035,7 +6887,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7074,7 +6926,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7113,7 +6965,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7152,7 +7004,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7191,7 +7043,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7230,7 +7082,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7269,7 +7121,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7308,7 +7160,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7347,7 +7199,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7386,7 +7238,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7425,7 +7277,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7464,7 +7316,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7503,7 +7355,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7542,7 +7394,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7581,7 +7433,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7620,7 +7472,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7659,7 +7511,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7698,7 +7550,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7737,7 +7589,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7772,23 +7624,21 @@
         <v>-532.8485354000004</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>111500</v>
+        <v>110700</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.090067264573991</v>
-      </c>
-      <c r="M203" t="n">
-        <v>1.057502246181491</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7813,11 +7663,17 @@
         <v>-521.7578354000004</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7846,11 +7702,17 @@
         <v>-530.3108402800004</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7879,11 +7741,17 @@
         <v>-528.8941102000005</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7912,11 +7780,17 @@
         <v>-540.7274102000005</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7945,11 +7819,17 @@
         <v>-540.6911326500004</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7978,11 +7858,17 @@
         <v>-540.6911326500004</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8011,11 +7897,17 @@
         <v>-540.5811326500004</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8044,11 +7936,17 @@
         <v>-540.5750326500005</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8077,11 +7975,17 @@
         <v>-532.4533215800005</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8110,11 +8014,17 @@
         <v>-532.6282215800005</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8143,11 +8053,17 @@
         <v>-534.6929215800005</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8176,11 +8092,17 @@
         <v>-534.6929215800005</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8209,11 +8131,17 @@
         <v>-535.6928215800006</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8242,11 +8170,17 @@
         <v>-551.3271215800006</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8275,11 +8209,17 @@
         <v>-537.9101215800006</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +8248,17 @@
         <v>-537.9043215800006</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8341,11 +8287,17 @@
         <v>-537.9373215800006</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +8326,17 @@
         <v>-534.5251215800006</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8407,11 +8365,17 @@
         <v>-534.5526442800005</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8440,11 +8404,17 @@
         <v>-534.7526442800006</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +8443,17 @@
         <v>-566.0947442800006</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8506,11 +8482,17 @@
         <v>-565.5635331100005</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8539,11 +8521,17 @@
         <v>-566.5635331100005</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8572,11 +8560,17 @@
         <v>-566.7072331100005</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8605,11 +8599,17 @@
         <v>-581.8471331100005</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8638,11 +8638,17 @@
         <v>-581.5271331100005</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8671,11 +8677,17 @@
         <v>-581.1452331100005</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8704,11 +8716,17 @@
         <v>-580.1452331100005</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8737,11 +8755,17 @@
         <v>-580.1452331100005</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +8794,17 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8803,11 +8833,17 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8836,11 +8872,17 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8869,11 +8911,17 @@
         <v>-596.2230331100004</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8902,11 +8950,17 @@
         <v>-596.7413331100004</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8935,11 +8989,17 @@
         <v>-628.3605331100003</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8968,11 +9028,17 @@
         <v>-631.3903331100004</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9001,11 +9067,17 @@
         <v>-630.6003331100004</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9034,11 +9106,17 @@
         <v>-630.7997331100004</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9067,11 +9145,17 @@
         <v>-631.7897331100004</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9100,11 +9184,17 @@
         <v>-640.1829331100004</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9133,11 +9223,17 @@
         <v>-618.2600331100003</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9166,11 +9262,17 @@
         <v>-620.9681331100003</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9199,11 +9301,17 @@
         <v>-620.9638331100003</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9232,11 +9340,17 @@
         <v>-621.0085331100004</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9265,11 +9379,17 @@
         <v>-621.0085331100004</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9298,11 +9418,17 @@
         <v>-621.0085331100004</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9331,11 +9457,17 @@
         <v>-467.8696331100003</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9364,11 +9496,17 @@
         <v>-467.8578331100003</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9397,11 +9535,17 @@
         <v>-467.8578331100003</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9430,11 +9574,17 @@
         <v>-467.8578331100003</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9463,11 +9613,17 @@
         <v>-461.9187224500004</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9496,11 +9652,17 @@
         <v>-461.9246224500004</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9529,11 +9691,17 @@
         <v>-461.9086224500003</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9562,11 +9730,17 @@
         <v>-461.9086224500003</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9595,11 +9769,17 @@
         <v>-472.2024224500003</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9628,11 +9808,17 @@
         <v>-474.8068224500003</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9661,11 +9847,17 @@
         <v>-474.8018224500003</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9694,11 +9886,17 @@
         <v>-478.4655224500003</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9727,11 +9925,17 @@
         <v>-485.4655224500003</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9760,11 +9964,17 @@
         <v>-481.6884224500003</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9793,11 +10003,17 @@
         <v>-486.1073224500003</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9826,11 +10042,17 @@
         <v>-486.1073224500003</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9859,11 +10081,17 @@
         <v>-490.7186224500003</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9892,11 +10120,17 @@
         <v>-490.7186224500003</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9925,11 +10159,17 @@
         <v>-484.8691224500004</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9958,11 +10198,17 @@
         <v>-484.8691224500004</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9991,11 +10237,17 @@
         <v>-458.0263224500004</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10024,11 +10276,17 @@
         <v>-458.0338224500003</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10057,11 +10315,17 @@
         <v>-458.0413224500003</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10090,11 +10354,17 @@
         <v>-458.1488224500004</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10123,11 +10393,17 @@
         <v>-458.6823224500004</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10156,11 +10432,17 @@
         <v>-458.9927224500004</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10189,11 +10471,17 @@
         <v>-458.9825224500004</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10222,11 +10510,17 @@
         <v>-459.3096224500003</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10255,11 +10549,17 @@
         <v>-459.3172224500004</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10288,11 +10588,17 @@
         <v>-462.1089224500004</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10324,8 +10630,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10354,11 +10666,17 @@
         <v>-461.9858224500004</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10390,8 +10708,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10420,11 +10744,17 @@
         <v>-512.0050224500004</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10456,8 +10786,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10489,8 +10825,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10522,8 +10864,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10555,8 +10903,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10588,8 +10942,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10621,8 +10981,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10654,8 +11020,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10687,8 +11059,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10720,8 +11098,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10753,8 +11137,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10786,8 +11176,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10819,8 +11215,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +11254,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10885,8 +11293,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10918,8 +11332,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10951,8 +11371,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10984,8 +11410,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11017,8 +11449,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11050,8 +11488,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11083,8 +11527,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11116,8 +11566,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11149,8 +11605,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11182,8 +11644,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11215,8 +11683,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11248,8 +11722,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11281,8 +11761,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11314,8 +11800,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11347,8 +11839,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11380,8 +11878,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11413,8 +11917,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11446,8 +11956,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11479,8 +11995,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11512,8 +12034,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11545,8 +12073,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11578,8 +12112,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11611,8 +12151,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11644,8 +12190,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11677,8 +12229,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11710,8 +12268,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11743,8 +12307,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11776,8 +12346,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11809,8 +12385,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11842,8 +12424,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11875,8 +12463,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11908,8 +12502,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11941,8 +12541,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11974,8 +12580,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12007,8 +12619,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12040,8 +12658,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12070,11 +12694,19 @@
         <v>-659.1567577000004</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>106500</v>
+      </c>
+      <c r="J333" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12103,11 +12735,19 @@
         <v>-676.5144577000004</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>106500</v>
+      </c>
+      <c r="J334" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12136,11 +12776,19 @@
         <v>-667.8711577000005</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>106300</v>
+      </c>
+      <c r="J335" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12169,11 +12817,19 @@
         <v>-652.3223577000005</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>107400</v>
+      </c>
+      <c r="J336" t="n">
+        <v>110700</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12207,10 +12863,12 @@
       <c r="I337" t="n">
         <v>107600</v>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>110700</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -12246,7 +12904,9 @@
       <c r="I338" t="n">
         <v>107300</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>110700</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12285,7 +12945,9 @@
       <c r="I339" t="n">
         <v>107600</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>110700</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12324,7 +12986,9 @@
       <c r="I340" t="n">
         <v>107600</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>110700</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12363,7 +13027,9 @@
       <c r="I341" t="n">
         <v>108100</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>110700</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12400,7 +13066,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>110700</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12437,7 +13105,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>110700</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12474,7 +13144,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>110700</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12511,7 +13183,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>110700</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12548,7 +13222,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>110700</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12585,7 +13261,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>110700</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12622,7 +13300,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>110700</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12659,7 +13339,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>110700</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12696,7 +13378,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>110700</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12733,7 +13417,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>110700</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12770,7 +13456,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>110700</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12807,7 +13495,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>110700</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12844,7 +13534,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>110700</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12881,7 +13573,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>110700</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12915,12 +13609,12 @@
         <v>-531.2159577000004</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>109400</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>110700</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12954,12 +13648,12 @@
         <v>-530.1388577000005</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>109500</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>110700</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12996,7 +13690,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>110700</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13030,12 +13726,12 @@
         <v>-539.1108577000005</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>109400</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>110700</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13072,7 +13768,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>110700</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13109,7 +13807,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>110700</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13146,7 +13846,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>110700</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13183,7 +13885,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>110700</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13220,7 +13924,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>110700</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13257,7 +13963,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>110700</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13294,7 +14002,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>110700</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13331,7 +14041,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>110700</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13368,7 +14080,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>110700</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13405,7 +14119,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>110700</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13442,7 +14158,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>110700</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13479,7 +14197,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>110700</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13516,7 +14236,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>110700</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13550,12 +14272,12 @@
         <v>-600.9262620800005</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>108100</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>110700</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13592,7 +14314,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>110700</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13626,12 +14350,12 @@
         <v>-612.7103620800004</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>105300</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>110700</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13665,12 +14389,12 @@
         <v>-612.7103620800004</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>105100</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>110700</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13704,12 +14428,12 @@
         <v>-602.0556620800004</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>105100</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>110700</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13743,12 +14467,12 @@
         <v>-595.2177620800004</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>105800</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>110700</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13782,12 +14506,12 @@
         <v>-565.4162620800004</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>106700</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>110700</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13821,12 +14545,12 @@
         <v>-560.2177620800004</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>106900</v>
-      </c>
-      <c r="J380" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>110700</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13860,12 +14584,12 @@
         <v>-560.2177620800004</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>107200</v>
-      </c>
-      <c r="J381" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>110700</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13899,12 +14623,12 @@
         <v>-550.2177620800004</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>107200</v>
-      </c>
-      <c r="J382" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>110700</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13938,12 +14662,12 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>107500</v>
-      </c>
-      <c r="J383" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>110700</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13977,12 +14701,12 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>107400</v>
-      </c>
-      <c r="J384" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>110700</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14016,12 +14740,12 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>107400</v>
-      </c>
-      <c r="J385" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>110700</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14055,12 +14779,12 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>107400</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>110700</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14072,6 +14796,6 @@
       <c r="M386" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest DASH.xlsx
+++ b/BackTest/2020-01-20 BackTest DASH.xlsx
@@ -1276,7 +1276,7 @@
         <v>-622.1464</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-622.4864</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-622.4814</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-622.4764</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-622.6512</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-622.6462</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-618.4714</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-633.9738</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-640.5113</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-611.0004</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-654.3666000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-657.5666000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-655.7361000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-655.7214000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-648.5540999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-624.9739999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-624.8396999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-626.9946999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-621.0004999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-625.5357999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3487,11 +3487,17 @@
         <v>-927.5692999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>112500</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3526,17 @@
         <v>-925.3108999999998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>111300</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3565,17 @@
         <v>-912.9729999999998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>111500</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3604,17 @@
         <v>-916.8486999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>111800</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3643,17 @@
         <v>-916.7591999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>111300</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3682,17 @@
         <v>-918.8095999999998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>111800</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3721,17 @@
         <v>-893.8247999999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>111200</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3760,17 @@
         <v>-863.7358999999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>112200</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3799,17 @@
         <v>-862.8158999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>112500</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3838,17 @@
         <v>-862.9563999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>113900</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3877,17 @@
         <v>-863.0085999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>113000</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3916,17 @@
         <v>-861.9162999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>112900</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3955,17 @@
         <v>-864.1183999999998</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>113600</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3994,17 @@
         <v>-864.1183999999998</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>113100</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4033,17 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>113100</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4072,17 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>113200</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4111,17 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>113200</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4150,17 @@
         <v>-866.6999246199998</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>113200</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4189,17 @@
         <v>-868.2008246199998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>112100</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4228,17 @@
         <v>-868.2008246199998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>111000</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4267,17 @@
         <v>-871.0226246199999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>111000</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4185,10 +4311,12 @@
       <c r="I115" t="n">
         <v>110400</v>
       </c>
-      <c r="J115" t="n">
-        <v>110400</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,15 +4345,15 @@
         <v>-872.0049246199999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>110400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>110200</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4261,12 +4389,10 @@
       <c r="I117" t="n">
         <v>110400</v>
       </c>
-      <c r="J117" t="n">
-        <v>110400</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4302,10 +4428,12 @@
       <c r="I118" t="n">
         <v>110700</v>
       </c>
-      <c r="J118" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4339,12 +4467,10 @@
       <c r="I119" t="n">
         <v>112500</v>
       </c>
-      <c r="J119" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4380,12 +4506,10 @@
       <c r="I120" t="n">
         <v>113300</v>
       </c>
-      <c r="J120" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4421,12 +4545,10 @@
       <c r="I121" t="n">
         <v>114100</v>
       </c>
-      <c r="J121" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4462,9 +4584,7 @@
       <c r="I122" t="n">
         <v>114600</v>
       </c>
-      <c r="J122" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4503,9 +4623,7 @@
       <c r="I123" t="n">
         <v>114600</v>
       </c>
-      <c r="J123" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,9 +4662,7 @@
       <c r="I124" t="n">
         <v>114800</v>
       </c>
-      <c r="J124" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4585,9 +4701,7 @@
       <c r="I125" t="n">
         <v>115200</v>
       </c>
-      <c r="J125" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4621,12 +4735,12 @@
         <v>-801.8503246199999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>116700</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4660,12 +4774,12 @@
         <v>-794.9963246199999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>116800</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,12 +4813,12 @@
         <v>-795.4125246199999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>117800</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4738,12 +4852,12 @@
         <v>-795.4125246199999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>116600</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4777,12 +4891,12 @@
         <v>-797.8525246199999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>116600</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4816,12 +4930,12 @@
         <v>-791.1275246199999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>116200</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4855,12 +4969,12 @@
         <v>-783.0432246199999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>116700</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,12 +5008,12 @@
         <v>-783.0432246199999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>116900</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4933,12 +5047,12 @@
         <v>-783.0432246199999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>116900</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4972,12 +5086,12 @@
         <v>-778.49592462</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>116900</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5011,12 +5125,12 @@
         <v>-777.39048245</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>117100</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,12 +5164,12 @@
         <v>-778.6036824500001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>117600</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5089,12 +5203,12 @@
         <v>-778.61648245</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>117500</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5128,12 +5242,12 @@
         <v>-712.26068245</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>117000</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5167,12 +5281,12 @@
         <v>-670.6453824499999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>117800</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,12 +5320,12 @@
         <v>-593.8587824499999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>117900</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,12 +5359,12 @@
         <v>-589.32598245</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>118000</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5287,9 +5401,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5326,9 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5365,9 +5475,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,9 +5512,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5443,9 +5549,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,9 +5586,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5521,9 +5623,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5560,9 +5660,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5599,9 +5697,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5638,9 +5734,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5677,9 +5771,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5716,9 +5808,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5755,9 +5845,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5794,9 +5882,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5833,9 +5919,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5872,9 +5956,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5911,9 +5993,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5950,9 +6030,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,9 +6067,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6028,9 +6104,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6067,9 +6141,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6106,9 +6178,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,9 +6215,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6184,9 +6252,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6223,9 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6262,9 +6326,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,9 +6363,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6340,9 +6400,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6379,9 +6437,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6418,9 +6474,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6457,9 +6511,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,9 +6548,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,9 +6585,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6574,9 +6622,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6613,9 +6659,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,9 +6696,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6691,9 +6733,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6730,9 +6770,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6769,9 +6807,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,9 +6844,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,9 +6881,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,9 +6918,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,9 +6955,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6964,9 +6992,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7003,9 +7029,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7042,9 +7066,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7081,9 +7103,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7120,9 +7140,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7159,9 +7177,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7198,9 +7214,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7237,9 +7251,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7276,9 +7288,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,9 +7325,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7351,20 +7359,16 @@
         <v>-521.0104824500004</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>110700</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -7390,17 +7394,11 @@
         <v>-535.7339824500003</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7429,17 +7427,11 @@
         <v>-527.0726354000003</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7468,17 +7460,11 @@
         <v>-531.1092354000003</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7507,17 +7493,11 @@
         <v>-531.1092354000003</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7546,17 +7526,11 @@
         <v>-534.6711354000004</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7585,17 +7559,11 @@
         <v>-536.8485354000004</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7624,17 +7592,11 @@
         <v>-532.8485354000004</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7663,17 +7625,11 @@
         <v>-521.7578354000004</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7702,17 +7658,11 @@
         <v>-530.3108402800004</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7741,17 +7691,11 @@
         <v>-528.8941102000005</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7780,17 +7724,11 @@
         <v>-540.7274102000005</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7819,17 +7757,11 @@
         <v>-540.6911326500004</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7858,17 +7790,11 @@
         <v>-540.6911326500004</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7897,17 +7823,11 @@
         <v>-540.5811326500004</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7936,17 +7856,11 @@
         <v>-540.5750326500005</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7975,17 +7889,11 @@
         <v>-532.4533215800005</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8014,17 +7922,11 @@
         <v>-532.6282215800005</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8053,17 +7955,11 @@
         <v>-534.6929215800005</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8092,17 +7988,11 @@
         <v>-534.6929215800005</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8131,17 +8021,11 @@
         <v>-535.6928215800006</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8170,17 +8054,11 @@
         <v>-551.3271215800006</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8209,17 +8087,11 @@
         <v>-537.9101215800006</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8248,17 +8120,11 @@
         <v>-537.9043215800006</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8287,17 +8153,11 @@
         <v>-537.9373215800006</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8326,17 +8186,11 @@
         <v>-534.5251215800006</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8365,17 +8219,11 @@
         <v>-534.5526442800005</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8404,17 +8252,11 @@
         <v>-534.7526442800006</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8446,14 +8288,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8485,14 +8321,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8524,14 +8354,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8560,17 +8384,11 @@
         <v>-566.7072331100005</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8602,14 +8420,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8641,14 +8453,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8680,14 +8486,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8716,17 +8516,11 @@
         <v>-580.1452331100005</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8755,17 +8549,11 @@
         <v>-580.1452331100005</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8794,17 +8582,11 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8833,17 +8615,11 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8872,17 +8648,11 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8914,14 +8684,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8953,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8992,14 +8750,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9031,14 +8783,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9070,14 +8816,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9109,14 +8849,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9148,14 +8882,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9187,14 +8915,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9226,14 +8948,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9265,14 +8981,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9304,14 +9014,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9343,14 +9047,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9382,14 +9080,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9421,14 +9113,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9460,14 +9146,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9499,14 +9179,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9538,14 +9212,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9577,14 +9245,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9616,14 +9278,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9655,14 +9311,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9694,14 +9344,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9733,14 +9377,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9772,14 +9410,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9811,14 +9443,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9850,14 +9476,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9889,14 +9509,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9928,14 +9542,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9967,14 +9575,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10006,14 +9608,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10045,14 +9641,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10084,14 +9674,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10123,14 +9707,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10162,14 +9740,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10201,14 +9773,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10240,14 +9806,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10279,14 +9839,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10318,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10357,14 +9905,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10396,14 +9938,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10435,14 +9971,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10474,14 +10004,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10513,14 +10037,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10552,14 +10070,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10591,14 +10103,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10630,14 +10136,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10669,14 +10169,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10708,14 +10202,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10747,14 +10235,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10786,14 +10268,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10825,14 +10301,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10864,14 +10334,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10903,14 +10367,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10942,14 +10400,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10981,14 +10433,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11020,14 +10466,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11059,14 +10499,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11098,14 +10532,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11137,14 +10565,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11176,14 +10598,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11215,14 +10631,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11254,14 +10664,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11293,14 +10697,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11332,14 +10730,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11371,14 +10763,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11410,14 +10796,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11449,14 +10829,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11488,14 +10862,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11527,14 +10895,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11566,14 +10928,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11605,14 +10961,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11644,14 +10994,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11683,14 +11027,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11722,14 +11060,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11761,14 +11093,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11800,14 +11126,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11839,14 +11159,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11878,14 +11192,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11917,14 +11225,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11956,14 +11258,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11995,14 +11291,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12034,14 +11324,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12073,14 +11357,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12112,14 +11390,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12151,14 +11423,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12190,14 +11456,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12229,14 +11489,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12268,14 +11522,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12307,14 +11555,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12346,14 +11588,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12385,14 +11621,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12424,14 +11654,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12463,14 +11687,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12502,14 +11720,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12541,14 +11753,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12580,14 +11786,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12619,14 +11819,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12658,14 +11852,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12694,19 +11882,11 @@
         <v>-659.1567577000004</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>106500</v>
-      </c>
-      <c r="J333" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12735,19 +11915,11 @@
         <v>-676.5144577000004</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>106500</v>
-      </c>
-      <c r="J334" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12776,19 +11948,11 @@
         <v>-667.8711577000005</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>106300</v>
-      </c>
-      <c r="J335" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12817,19 +11981,11 @@
         <v>-652.3223577000005</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>107400</v>
-      </c>
-      <c r="J336" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12858,19 +12014,11 @@
         <v>-671.1483577000005</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>107600</v>
-      </c>
-      <c r="J337" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12899,19 +12047,11 @@
         <v>-669.4821577000005</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>107300</v>
-      </c>
-      <c r="J338" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12940,19 +12080,11 @@
         <v>-669.4821577000005</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>107600</v>
-      </c>
-      <c r="J339" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12981,19 +12113,11 @@
         <v>-639.9499577000005</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>107600</v>
-      </c>
-      <c r="J340" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13022,19 +12146,11 @@
         <v>-645.6499577000005</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>108100</v>
-      </c>
-      <c r="J341" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13066,14 +12182,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13105,14 +12215,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13144,14 +12248,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13183,14 +12281,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13222,14 +12314,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13261,14 +12347,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13300,14 +12380,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13339,14 +12413,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13378,14 +12446,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13417,14 +12479,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13456,14 +12512,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13495,14 +12545,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13534,14 +12578,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13573,14 +12611,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13612,14 +12644,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13651,14 +12677,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13690,14 +12710,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13729,14 +12743,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13768,14 +12776,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13807,14 +12809,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13846,14 +12842,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13885,14 +12875,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13924,14 +12908,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13963,14 +12941,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14002,14 +12974,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14041,14 +13007,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14080,14 +13040,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14119,14 +13073,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14158,14 +13106,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14197,14 +13139,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14236,14 +13172,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14275,14 +13205,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14314,14 +13238,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14353,14 +13271,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>110700</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14389,15 +13301,15 @@
         <v>-612.7103620800004</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>105100</v>
+      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L376" t="n">
@@ -14428,12 +13340,12 @@
         <v>-602.0556620800004</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>105100</v>
+      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14467,12 +13379,12 @@
         <v>-595.2177620800004</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>105800</v>
+      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14506,12 +13418,12 @@
         <v>-565.4162620800004</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>106700</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14545,12 +13457,12 @@
         <v>-560.2177620800004</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>106900</v>
+      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14584,12 +13496,12 @@
         <v>-560.2177620800004</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>107200</v>
+      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14623,12 +13535,12 @@
         <v>-550.2177620800004</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>107200</v>
+      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14662,12 +13574,12 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>107500</v>
+      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14701,12 +13613,12 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>107400</v>
+      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14740,12 +13652,12 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>107400</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14779,12 +13691,12 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>110700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>107400</v>
+      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
